--- a/examples/wangetal2018/out/ResultFiles/AC_0.5_nfc.xlsx
+++ b/examples/wangetal2018/out/ResultFiles/AC_0.5_nfc.xlsx
@@ -20,12 +20,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="440" uniqueCount="221">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="507" uniqueCount="243">
   <si>
     <t xml:space="preserve">
 ---------DISCLAIMER---------
 AS NOTED IN THE LICENSE, ALLIANCE FOR SUSTAINABLE ENERGY, LLC: (i) DISCLAIMS ANY WARRANTIES, EXPRESS OR IMPLIED, INCLUDING BUT NOT LIMITED TO ANY IMPLIED WARRANTIES OF MERCHANTABILITY, FITNESS FOR A PARTICULAR PURPOSE, TITLE OR NON-INFRINGEMENT, AND (ii) DOES NOT ASSUME ANY LEGAL LIABILITY OR RESPONSIBILITY FOR THE ACCURACY, COMPLETENESS, OR USEFULNESS OF SOFTWARE OR ITS OUTPUTS. ANY RELIANCE BY THE USER ON THE SOFTWARE IS DONE AT THE USER’S OWN RISK.
-BlendPATH was developed to provide the user with economic analytical capabilities to evaluate potential natural gas transmission pipeline modifications for accommodating hydrogen blending or pure hydrogen streams and to assess the potential associated economic impacts. This tool is intended for use during the early stages of pipeline repurposing concept evaluation, which is defined here as the initial project phase when the developer has already gathered the relevant pipeline material design and operation data but has not yet conducted the detailed pipeline materials testing, as specified in ASME B31.12, or performed the in-line inspections that qualify a given pipeline section for hydrogen or hydrogen blending service. Despite BlendPATH using ASME B31.12 to assess existing natural gas transmission pipelines and establish potential pipeline modifications for a natural gas transmission pipeline network to meet ASME B31.12 design requirements, BlendPATH does not qualify the examined pipeline network or modifications thereof for pure hydrogen or hydrogen blending. Further, actual natural gas transmission pipeline network assessment and qualification will require additional evaluations, independent of BlendPATH application, as specified in ASME B31.12. It is the sole responsibility of the pipeline owner and operator to ensure that their pipeline qualifies for the ASME B31.12 design option that they choose, and any other relevant regulations, and that any defects present in the pipeline are acceptable at the operating pressure chosen.
+BlendPATH was developed to provide the user with economic analytical capabilities to evaluate potential natural gas transmission pipeline modifications for accommodating hydrogen blending or pure hydrogen streams and to assess the potential associated economic impacts. This model is intended for use during the early stages of pipeline repurposing concept evaluation, which is defined here as the initial project phase when the developer has already gathered the relevant pipeline material design and operation data but has not yet conducted the detailed pipeline materials testing, as specified in ASME B31.12, or performed the in-line inspections that qualify a given pipeline section for hydrogen or hydrogen blending service. Despite BlendPATH using ASME B31.12 to assess existing natural gas transmission pipelines and establish potential pipeline modifications for a natural gas transmission pipeline network to meet ASME B31.12 design requirements, BlendPATH does not qualify the examined pipeline network or modifications thereof for pure hydrogen or hydrogen blending. Pipeline owners and operators must conduct additional evaluations as specified in ASME B31.12 and other relevant code and regulations, independent of BlendPATH application, to qualify actual natural gas transmission pipelines for operation with hydrogen. Failure to do so may result in pipeline fatigue and/or rupture. It is the sole responsibility of the pipeline owner and operator to ensure that their pipeline qualifies for the ASME B31.12 design option that they choose, and any other relevant code and regulations, and that any defects present in the pipeline are acceptable at the operating pressure chosen.
 ----------------------------
 </t>
   </si>
@@ -174,12 +174,12 @@
     <t>LCOT: Compressor fuel (electric)</t>
   </si>
   <si>
+    <t>LCOT: Supply commpressor fuel (electric)</t>
+  </si>
+  <si>
     <t>LCOT: Supply commpressor fuel</t>
   </si>
   <si>
-    <t>LCOT: Supply commpressor fuel (electric)</t>
-  </si>
-  <si>
     <t>LCOT: Fixed O&amp;M</t>
   </si>
   <si>
@@ -234,6 +234,9 @@
     <t>Valve modifications</t>
   </si>
   <si>
+    <t>Hydrogen energy ratio</t>
+  </si>
+  <si>
     <t>$/MMBTU</t>
   </si>
   <si>
@@ -261,6 +264,9 @@
     <t>$</t>
   </si>
   <si>
+    <t>%</t>
+  </si>
+  <si>
     <t>Breakdown of original pipe by diameter, schedule and grade</t>
   </si>
   <si>
@@ -336,6 +342,12 @@
     <t>C_0_2</t>
   </si>
   <si>
+    <t>C_0_3</t>
+  </si>
+  <si>
+    <t>C_0_4</t>
+  </si>
+  <si>
     <t>CS1</t>
   </si>
   <si>
@@ -357,6 +369,15 @@
     <t>C_1_5</t>
   </si>
   <si>
+    <t>C_1_6</t>
+  </si>
+  <si>
+    <t>C_1_7</t>
+  </si>
+  <si>
+    <t>C_1_8</t>
+  </si>
+  <si>
     <t>CS2</t>
   </si>
   <si>
@@ -435,10 +456,16 @@
     <t>PI01_pre_C_0_1</t>
   </si>
   <si>
+    <t>PI01_pre_C_0_2</t>
+  </si>
+  <si>
     <t>PI01_remaining</t>
   </si>
   <si>
-    <t>PI02_pre_C_0_2</t>
+    <t>PI02_pre_C_0_3</t>
+  </si>
+  <si>
+    <t>PI02_pre_C_0_4</t>
   </si>
   <si>
     <t>PI02_remaining</t>
@@ -447,25 +474,34 @@
     <t>PI03_pre_C_1_0</t>
   </si>
   <si>
+    <t>PI03_pre_C_1_1</t>
+  </si>
+  <si>
     <t>PI03_remaining</t>
   </si>
   <si>
-    <t>PI04_pre_C_1_1</t>
-  </si>
-  <si>
     <t>PI04_pre_C_1_2</t>
   </si>
   <si>
     <t>PI04_pre_C_1_3</t>
   </si>
   <si>
+    <t>PI04_pre_C_1_4</t>
+  </si>
+  <si>
+    <t>PI04_pre_C_1_5</t>
+  </si>
+  <si>
     <t>PI04_remaining</t>
   </si>
   <si>
-    <t>PI05_pre_C_1_4</t>
-  </si>
-  <si>
-    <t>PI05_pre_C_1_5</t>
+    <t>PI05_pre_C_1_6</t>
+  </si>
+  <si>
+    <t>PI05_pre_C_1_7</t>
+  </si>
+  <si>
+    <t>PI05_pre_C_1_8</t>
   </si>
   <si>
     <t>PI05_remaining</t>
@@ -504,10 +540,16 @@
     <t>N_post_C_0_1</t>
   </si>
   <si>
+    <t>N_post_C_0_2</t>
+  </si>
+  <si>
     <t>N02</t>
   </si>
   <si>
-    <t>N_post_C_0_2</t>
+    <t>N_post_C_0_3</t>
+  </si>
+  <si>
+    <t>N_post_C_0_4</t>
   </si>
   <si>
     <t>N03_C</t>
@@ -516,25 +558,34 @@
     <t>N_post_C_1_0</t>
   </si>
   <si>
+    <t>N_post_C_1_1</t>
+  </si>
+  <si>
     <t>N04</t>
   </si>
   <si>
-    <t>N_post_C_1_1</t>
-  </si>
-  <si>
     <t>N_post_C_1_2</t>
   </si>
   <si>
     <t>N_post_C_1_3</t>
   </si>
   <si>
+    <t>N_post_C_1_4</t>
+  </si>
+  <si>
+    <t>N_post_C_1_5</t>
+  </si>
+  <si>
     <t>N05</t>
   </si>
   <si>
-    <t>N_post_C_1_4</t>
-  </si>
-  <si>
-    <t>N_post_C_1_5</t>
+    <t>N_post_C_1_6</t>
+  </si>
+  <si>
+    <t>N_post_C_1_7</t>
+  </si>
+  <si>
+    <t>N_post_C_1_8</t>
   </si>
   <si>
     <t>N06_C</t>
@@ -570,6 +621,12 @@
     <t>N_pre_C_0_2</t>
   </si>
   <si>
+    <t>N_pre_C_0_3</t>
+  </si>
+  <si>
+    <t>N_pre_C_0_4</t>
+  </si>
+  <si>
     <t>N03</t>
   </si>
   <si>
@@ -591,6 +648,15 @@
     <t>N_pre_C_1_5</t>
   </si>
   <si>
+    <t>N_pre_C_1_6</t>
+  </si>
+  <si>
+    <t>N_pre_C_1_7</t>
+  </si>
+  <si>
+    <t>N_pre_C_1_8</t>
+  </si>
+  <si>
     <t>N06</t>
   </si>
   <si>
@@ -645,7 +711,7 @@
     <t>Isentropic efficiency</t>
   </si>
   <si>
-    <t>Mechanical efficiency</t>
+    <t>Driver efficiency</t>
   </si>
   <si>
     <t>Cost ($)</t>
@@ -1287,7 +1353,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H68"/>
+  <dimension ref="A1:H74"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1309,10 +1375,10 @@
         <v>38</v>
       </c>
       <c r="B2">
-        <v>0.6989201454559411</v>
+        <v>0.7197487873313035</v>
       </c>
       <c r="C2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -1323,7 +1389,7 @@
         <v>0</v>
       </c>
       <c r="C3" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -1331,10 +1397,10 @@
         <v>40</v>
       </c>
       <c r="B4">
-        <v>0.1219144519314511</v>
+        <v>0.1456078144229475</v>
       </c>
       <c r="C4" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -1342,10 +1408,10 @@
         <v>41</v>
       </c>
       <c r="B5">
-        <v>0.03199917464709807</v>
+        <v>0.03219320314418457</v>
       </c>
       <c r="C5" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -1356,7 +1422,7 @@
         <v>0</v>
       </c>
       <c r="C6" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -1364,10 +1430,10 @@
         <v>43</v>
       </c>
       <c r="B7">
-        <v>0.006612419573878652</v>
+        <v>0.006652514290263514</v>
       </c>
       <c r="C7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -1375,10 +1441,10 @@
         <v>44</v>
       </c>
       <c r="B8">
-        <v>0.01567679734694217</v>
+        <v>0.01577185434331481</v>
       </c>
       <c r="C8" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -1389,7 +1455,7 @@
         <v>0</v>
       </c>
       <c r="C9" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -1400,7 +1466,7 @@
         <v>0.01701801172198347</v>
       </c>
       <c r="C10" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -1408,10 +1474,10 @@
         <v>47</v>
       </c>
       <c r="B11">
-        <v>0.4486718194577876</v>
+        <v>0.4356778689614486</v>
       </c>
       <c r="C11" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -1422,7 +1488,7 @@
         <v>0</v>
       </c>
       <c r="C12" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -1433,7 +1499,7 @@
         <v>0</v>
       </c>
       <c r="C13" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -1444,7 +1510,7 @@
         <v>0</v>
       </c>
       <c r="C14" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -1452,10 +1518,10 @@
         <v>51</v>
       </c>
       <c r="B15">
-        <v>0.006327500449056788</v>
+        <v>0.008300047736693166</v>
       </c>
       <c r="C15" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -1463,10 +1529,10 @@
         <v>52</v>
       </c>
       <c r="B16">
-        <v>0.04745599754111968</v>
+        <v>0.05528393168761367</v>
       </c>
       <c r="C16" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -1474,10 +1540,10 @@
         <v>53</v>
       </c>
       <c r="B17">
-        <v>0.003243972786623855</v>
+        <v>0.003243541022854256</v>
       </c>
       <c r="C17" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -1488,7 +1554,7 @@
         <v>4.40756</v>
       </c>
       <c r="C18" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -1499,7 +1565,7 @@
         <v>7.39</v>
       </c>
       <c r="C19" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="20" spans="1:3">
@@ -1510,7 +1576,7 @@
         <v>13.54723404173073</v>
       </c>
       <c r="C20" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="21" spans="1:3">
@@ -1521,7 +1587,7 @@
         <v>527617.1846909181</v>
       </c>
       <c r="C21" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="22" spans="1:3">
@@ -1532,7 +1598,7 @@
         <v>21984.04936212159</v>
       </c>
       <c r="C22" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
     </row>
     <row r="23" spans="1:3">
@@ -1543,7 +1609,7 @@
         <v>0</v>
       </c>
       <c r="C23" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
     </row>
     <row r="24" spans="1:3">
@@ -1554,7 +1620,7 @@
         <v>0</v>
       </c>
       <c r="C24" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
     </row>
     <row r="25" spans="1:3">
@@ -1562,7 +1628,7 @@
         <v>60</v>
       </c>
       <c r="B25">
-        <v>15</v>
+        <v>20</v>
       </c>
     </row>
     <row r="26" spans="1:3">
@@ -1570,10 +1636,10 @@
         <v>61</v>
       </c>
       <c r="B26">
-        <v>85276.03953596599</v>
+        <v>86395.24252159926</v>
       </c>
       <c r="C26" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="27" spans="1:3">
@@ -1581,10 +1647,10 @@
         <v>62</v>
       </c>
       <c r="B27">
-        <v>17474.19152155037</v>
+        <v>16968.12278768389</v>
       </c>
       <c r="C27" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="28" spans="1:3">
@@ -1592,10 +1658,10 @@
         <v>62</v>
       </c>
       <c r="B28">
-        <v>728.091313397932</v>
+        <v>707.0051161534956</v>
       </c>
       <c r="C28" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
     </row>
     <row r="29" spans="1:3">
@@ -1606,7 +1672,7 @@
         <v>0</v>
       </c>
       <c r="C29" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="30" spans="1:3">
@@ -1617,7 +1683,7 @@
         <v>0</v>
       </c>
       <c r="C30" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="31" spans="1:3">
@@ -1625,10 +1691,10 @@
         <v>65</v>
       </c>
       <c r="B31">
-        <v>193346361.9241841</v>
+        <v>229530331.4575376</v>
       </c>
       <c r="C31" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="32" spans="1:3">
@@ -1639,7 +1705,7 @@
         <v>50748077.07023712</v>
       </c>
       <c r="C32" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -1650,7 +1716,7 @@
         <v>10486757.29473448</v>
       </c>
       <c r="C33" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -1661,151 +1727,136 @@
         <v>24862120</v>
       </c>
       <c r="C34" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="38" spans="1:8">
-      <c r="A38" t="s">
         <v>78</v>
       </c>
     </row>
+    <row r="35" spans="1:8">
+      <c r="A35" t="s">
+        <v>69</v>
+      </c>
+      <c r="B35">
+        <v>24.24086700823207</v>
+      </c>
+      <c r="C35" t="s">
+        <v>79</v>
+      </c>
+    </row>
     <row r="39" spans="1:8">
-      <c r="A39" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="B39" s="2" t="s">
+      <c r="A39" t="s">
         <v>80</v>
       </c>
-      <c r="C39" s="2" t="s">
+    </row>
+    <row r="40" spans="1:8">
+      <c r="A40" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="D39" s="2" t="s">
+      <c r="B40" s="2" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="40" spans="1:8">
-      <c r="A40">
+      <c r="C40" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="D40" s="2" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8">
+      <c r="A41">
         <v>650</v>
       </c>
-      <c r="B40">
+      <c r="B41">
         <v>400</v>
       </c>
-      <c r="C40" t="s">
-        <v>83</v>
-      </c>
-      <c r="D40" t="s">
+      <c r="C41" t="s">
+        <v>85</v>
+      </c>
+      <c r="D41" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8">
+      <c r="A45" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8">
+      <c r="A46" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="B46" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="C46" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="D46" s="2" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="44" spans="1:8">
-      <c r="A44" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="45" spans="1:8">
-      <c r="A45" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="B45" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="C45" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="D45" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="E45" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="F45" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="G45" s="2" t="s">
+      <c r="E46" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="H45" s="2" t="s">
+      <c r="F46" s="2" t="s">
         <v>90</v>
       </c>
-    </row>
-    <row r="49" spans="1:8">
-      <c r="A49" t="s">
+      <c r="G46" s="2" t="s">
         <v>91</v>
       </c>
+      <c r="H46" s="2" t="s">
+        <v>92</v>
+      </c>
     </row>
     <row r="50" spans="1:8">
-      <c r="A50" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="B50" s="2" t="s">
+      <c r="A50" t="s">
         <v>93</v>
       </c>
-      <c r="C50" s="2" t="s">
+    </row>
+    <row r="51" spans="1:8">
+      <c r="A51" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="D50" s="2" t="s">
+      <c r="B51" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="E50" s="2" t="s">
+      <c r="C51" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="F50" s="2" t="s">
+      <c r="D51" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="G50" s="2" t="s">
+      <c r="E51" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="H50" s="2" t="s">
+      <c r="F51" s="2" t="s">
         <v>99</v>
       </c>
-    </row>
-    <row r="51" spans="1:8">
-      <c r="A51" t="s">
+      <c r="G51" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="B51">
-        <v>5.611184656154578</v>
-      </c>
-      <c r="C51">
-        <v>0</v>
-      </c>
-      <c r="D51">
-        <v>7524.710847596412</v>
-      </c>
-      <c r="E51">
-        <v>14925496.43609167</v>
-      </c>
-      <c r="F51">
-        <v>0</v>
-      </c>
-      <c r="G51">
-        <v>53.63048043136098</v>
-      </c>
-      <c r="H51">
-        <v>0</v>
+      <c r="H51" s="2" t="s">
+        <v>101</v>
       </c>
     </row>
     <row r="52" spans="1:8">
       <c r="A52" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B52">
-        <v>5.566800756146965</v>
+        <v>3.499458076789588</v>
       </c>
       <c r="C52">
         <v>0</v>
       </c>
       <c r="D52">
-        <v>7465.191150008203</v>
+        <v>4692.843270136373</v>
       </c>
       <c r="E52">
-        <v>14858937.49086372</v>
+        <v>11792919.01210872</v>
       </c>
       <c r="F52">
         <v>0</v>
       </c>
       <c r="G52">
-        <v>53.20626878503511</v>
+        <v>33.44705786892604</v>
       </c>
       <c r="H52">
         <v>0</v>
@@ -1813,25 +1864,25 @@
     </row>
     <row r="53" spans="1:8">
       <c r="A53" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B53">
-        <v>5.523125405777738</v>
+        <v>3.482939629155357</v>
       </c>
       <c r="C53">
         <v>0</v>
       </c>
       <c r="D53">
-        <v>7406.621631656062</v>
+        <v>4670.691701489917</v>
       </c>
       <c r="E53">
-        <v>14793471.23657418</v>
+        <v>11768690.68401728</v>
       </c>
       <c r="F53">
         <v>0</v>
       </c>
       <c r="G53">
-        <v>52.7888293017808</v>
+        <v>33.28917814532216</v>
       </c>
       <c r="H53">
         <v>0</v>
@@ -1839,25 +1890,25 @@
     </row>
     <row r="54" spans="1:8">
       <c r="A54" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B54">
-        <v>5.479989054311625</v>
+        <v>3.466592187968678</v>
       </c>
       <c r="C54">
-        <v>12.5</v>
+        <v>0</v>
       </c>
       <c r="D54">
-        <v>0</v>
+        <v>4648.769455909757</v>
       </c>
       <c r="E54">
-        <v>0</v>
+        <v>11744717.38847186</v>
       </c>
       <c r="F54">
-        <v>16916025.69007904</v>
+        <v>0</v>
       </c>
       <c r="G54">
-        <v>52.37654145261045</v>
+        <v>33.1329328640867</v>
       </c>
       <c r="H54">
         <v>0</v>
@@ -1865,25 +1916,25 @@
     </row>
     <row r="55" spans="1:8">
       <c r="A55" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B55">
-        <v>5.840789485867283</v>
+        <v>3.450394654673626</v>
       </c>
       <c r="C55">
         <v>0</v>
       </c>
       <c r="D55">
-        <v>7832.615516337744</v>
+        <v>4627.048239810426</v>
       </c>
       <c r="E55">
-        <v>15270309.1683757</v>
+        <v>11720968.06135838</v>
       </c>
       <c r="F55">
         <v>0</v>
       </c>
       <c r="G55">
-        <v>55.82499336961312</v>
+        <v>32.97812036981887</v>
       </c>
       <c r="H55">
         <v>0</v>
@@ -1891,25 +1942,25 @@
     </row>
     <row r="56" spans="1:8">
       <c r="A56" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B56">
-        <v>4.238435221678609</v>
+        <v>3.434306013781281</v>
       </c>
       <c r="C56">
         <v>0</v>
       </c>
       <c r="D56">
-        <v>5683.826400975448</v>
+        <v>4605.473050600974</v>
       </c>
       <c r="E56">
-        <v>12881183.68212778</v>
+        <v>11697382.46586773</v>
       </c>
       <c r="F56">
         <v>0</v>
       </c>
       <c r="G56">
-        <v>40.5100404183818</v>
+        <v>32.82434864541168</v>
       </c>
       <c r="H56">
         <v>0</v>
@@ -1917,25 +1968,25 @@
     </row>
     <row r="57" spans="1:8">
       <c r="A57" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B57">
-        <v>3.057202691864417</v>
+        <v>3.418359461048181</v>
       </c>
       <c r="C57">
-        <v>0</v>
+        <v>12.5</v>
       </c>
       <c r="D57">
-        <v>4099.76995384402</v>
+        <v>0</v>
       </c>
       <c r="E57">
-        <v>11145719.08235417</v>
+        <v>0</v>
       </c>
       <c r="F57">
-        <v>0</v>
+        <v>16916025.69007904</v>
       </c>
       <c r="G57">
-        <v>29.22007725425708</v>
+        <v>32.6719349686737</v>
       </c>
       <c r="H57">
         <v>0</v>
@@ -1943,25 +1994,25 @@
     </row>
     <row r="58" spans="1:8">
       <c r="A58" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B58">
-        <v>3.041705171115544</v>
+        <v>3.843717236059687</v>
       </c>
       <c r="C58">
         <v>0</v>
       </c>
       <c r="D58">
-        <v>4078.987468569367</v>
+        <v>5154.501687900761</v>
       </c>
       <c r="E58">
-        <v>11123095.47828716</v>
+        <v>12298832.15123079</v>
       </c>
       <c r="F58">
         <v>0</v>
       </c>
       <c r="G58">
-        <v>29.07195532739349</v>
+        <v>36.73741190928028</v>
       </c>
       <c r="H58">
         <v>0</v>
@@ -1969,25 +2020,25 @@
     </row>
     <row r="59" spans="1:8">
       <c r="A59" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B59">
-        <v>3.026354976491401</v>
+        <v>3.823498027572851</v>
       </c>
       <c r="C59">
         <v>0</v>
       </c>
       <c r="D59">
-        <v>4058.402550574498</v>
+        <v>5127.387324935745</v>
       </c>
       <c r="E59">
-        <v>11100690.65433128</v>
+        <v>12269067.25853081</v>
       </c>
       <c r="F59">
         <v>0</v>
       </c>
       <c r="G59">
-        <v>28.92524151153204</v>
+        <v>36.54416111973416</v>
       </c>
       <c r="H59">
         <v>0</v>
@@ -1995,25 +2046,25 @@
     </row>
     <row r="60" spans="1:8">
       <c r="A60" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="B60">
-        <v>3.011119595352877</v>
+        <v>2.508226247174013</v>
       </c>
       <c r="C60">
         <v>0</v>
       </c>
       <c r="D60">
-        <v>4037.971599760115</v>
+        <v>3363.581561985295</v>
       </c>
       <c r="E60">
-        <v>11078457.06105935</v>
+        <v>10346606.64537828</v>
       </c>
       <c r="F60">
         <v>0</v>
       </c>
       <c r="G60">
-        <v>28.77962505795164</v>
+        <v>23.97308000173327</v>
       </c>
       <c r="H60">
         <v>0</v>
@@ -2021,25 +2072,25 @@
     </row>
     <row r="61" spans="1:8">
       <c r="A61" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="B61">
-        <v>2.996028119663593</v>
+        <v>2.057323460225436</v>
       </c>
       <c r="C61">
-        <v>12.5</v>
+        <v>0</v>
       </c>
       <c r="D61">
-        <v>0</v>
+        <v>2758.911906631514</v>
       </c>
       <c r="E61">
-        <v>0</v>
+        <v>9953691.026075777</v>
       </c>
       <c r="F61">
-        <v>16916025.69007904</v>
+        <v>0</v>
       </c>
       <c r="G61">
-        <v>28.63538402130232</v>
+        <v>19.66344940253924</v>
       </c>
       <c r="H61">
         <v>0</v>
@@ -2047,25 +2098,25 @@
     </row>
     <row r="62" spans="1:8">
       <c r="A62" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="B62">
-        <v>4.201595309344319</v>
+        <v>2.050487334566479</v>
       </c>
       <c r="C62">
         <v>0</v>
       </c>
       <c r="D62">
-        <v>5634.423341736919</v>
+        <v>2749.74452540034</v>
       </c>
       <c r="E62">
-        <v>12826728.20363096</v>
+        <v>9953691.026075777</v>
       </c>
       <c r="F62">
         <v>0</v>
       </c>
       <c r="G62">
-        <v>40.15793256262445</v>
+        <v>19.59811120288173</v>
       </c>
       <c r="H62">
         <v>0</v>
@@ -2073,25 +2124,25 @@
     </row>
     <row r="63" spans="1:8">
       <c r="A63" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="B63">
-        <v>4.171141821828604</v>
+        <v>2.043690243713149</v>
       </c>
       <c r="C63">
         <v>0</v>
       </c>
       <c r="D63">
-        <v>5593.584605908594</v>
+        <v>2740.629490624206</v>
       </c>
       <c r="E63">
-        <v>12781728.97432105</v>
+        <v>9953691.026075777</v>
       </c>
       <c r="F63">
         <v>0</v>
       </c>
       <c r="G63">
-        <v>39.86686476386881</v>
+        <v>19.53314608939185</v>
       </c>
       <c r="H63">
         <v>0</v>
@@ -2099,25 +2150,25 @@
     </row>
     <row r="64" spans="1:8">
       <c r="A64" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B64">
-        <v>4.141080544273965</v>
+        <v>2.036933779110817</v>
       </c>
       <c r="C64">
         <v>0</v>
       </c>
       <c r="D64">
-        <v>5553.271831482272</v>
+        <v>2731.568936463188</v>
       </c>
       <c r="E64">
-        <v>12737323.54371098</v>
+        <v>9953691.026075777</v>
       </c>
       <c r="F64">
         <v>0</v>
       </c>
       <c r="G64">
-        <v>39.57954562247014</v>
+        <v>19.46856927275776</v>
       </c>
       <c r="H64">
         <v>0</v>
@@ -2125,25 +2176,25 @@
     </row>
     <row r="65" spans="1:8">
       <c r="A65" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="B65">
-        <v>4.111404101485356</v>
+        <v>2.030211888838654</v>
       </c>
       <c r="C65">
-        <v>12.5</v>
+        <v>0</v>
       </c>
       <c r="D65">
-        <v>0</v>
+        <v>2722.554747170411</v>
       </c>
       <c r="E65">
-        <v>0</v>
+        <v>9953691.026075777</v>
       </c>
       <c r="F65">
-        <v>16916025.69007904</v>
+        <v>0</v>
       </c>
       <c r="G65">
-        <v>39.295904647921</v>
+        <v>19.40432291003868</v>
       </c>
       <c r="H65">
         <v>0</v>
@@ -2151,25 +2202,25 @@
     </row>
     <row r="66" spans="1:8">
       <c r="A66" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="B66">
-        <v>4.082105301821149</v>
+        <v>2.023530003949408</v>
       </c>
       <c r="C66">
         <v>0</v>
       </c>
       <c r="D66">
-        <v>5474.184851848197</v>
+        <v>2713.594205896236</v>
       </c>
       <c r="E66">
-        <v>12650248.59621181</v>
+        <v>9953691.026075777</v>
       </c>
       <c r="F66">
         <v>0</v>
       </c>
       <c r="G66">
-        <v>39.01587310407755</v>
+        <v>19.34045891005354</v>
       </c>
       <c r="H66">
         <v>0</v>
@@ -2177,25 +2228,25 @@
     </row>
     <row r="67" spans="1:8">
       <c r="A67" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B67">
-        <v>4.053177131496273</v>
+        <v>2.016885899379854</v>
       </c>
       <c r="C67">
-        <v>0</v>
+        <v>12.5</v>
       </c>
       <c r="D67">
-        <v>5435.391596879133</v>
+        <v>0</v>
       </c>
       <c r="E67">
-        <v>12607557.05811615</v>
+        <v>0</v>
       </c>
       <c r="F67">
-        <v>0</v>
+        <v>16916025.69007904</v>
       </c>
       <c r="G67">
-        <v>38.73938395471018</v>
+        <v>19.27695600613279</v>
       </c>
       <c r="H67">
         <v>0</v>
@@ -2203,27 +2254,183 @@
     </row>
     <row r="68" spans="1:8">
       <c r="A68" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="B68">
+        <v>4.201595309344319</v>
+      </c>
+      <c r="C68">
+        <v>0</v>
+      </c>
+      <c r="D68">
+        <v>5634.423341736919</v>
+      </c>
+      <c r="E68">
+        <v>12826728.20363096</v>
+      </c>
+      <c r="F68">
+        <v>0</v>
+      </c>
+      <c r="G68">
+        <v>40.15793256262445</v>
+      </c>
+      <c r="H68">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8">
+      <c r="A69" t="s">
+        <v>119</v>
+      </c>
+      <c r="B69">
+        <v>4.1711418218286</v>
+      </c>
+      <c r="C69">
+        <v>0</v>
+      </c>
+      <c r="D69">
+        <v>5593.58460590859</v>
+      </c>
+      <c r="E69">
+        <v>12781728.97432105</v>
+      </c>
+      <c r="F69">
+        <v>0</v>
+      </c>
+      <c r="G69">
+        <v>39.86686476386878</v>
+      </c>
+      <c r="H69">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8">
+      <c r="A70" t="s">
+        <v>120</v>
+      </c>
+      <c r="B70">
+        <v>4.141080544273965</v>
+      </c>
+      <c r="C70">
+        <v>0</v>
+      </c>
+      <c r="D70">
+        <v>5553.271831482272</v>
+      </c>
+      <c r="E70">
+        <v>12737323.54371098</v>
+      </c>
+      <c r="F70">
+        <v>0</v>
+      </c>
+      <c r="G70">
+        <v>39.57954562247014</v>
+      </c>
+      <c r="H70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8">
+      <c r="A71" t="s">
+        <v>121</v>
+      </c>
+      <c r="B71">
+        <v>4.111404101485356</v>
+      </c>
+      <c r="C71">
+        <v>12.5</v>
+      </c>
+      <c r="D71">
+        <v>0</v>
+      </c>
+      <c r="E71">
+        <v>0</v>
+      </c>
+      <c r="F71">
+        <v>16916025.69007904</v>
+      </c>
+      <c r="G71">
+        <v>39.295904647921</v>
+      </c>
+      <c r="H71">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8">
+      <c r="A72" t="s">
+        <v>122</v>
+      </c>
+      <c r="B72">
+        <v>4.082105301821149</v>
+      </c>
+      <c r="C72">
+        <v>0</v>
+      </c>
+      <c r="D72">
+        <v>5474.184851848197</v>
+      </c>
+      <c r="E72">
+        <v>12650248.59621181</v>
+      </c>
+      <c r="F72">
+        <v>0</v>
+      </c>
+      <c r="G72">
+        <v>39.01587310407755</v>
+      </c>
+      <c r="H72">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8">
+      <c r="A73" t="s">
+        <v>123</v>
+      </c>
+      <c r="B73">
+        <v>4.053177131496273</v>
+      </c>
+      <c r="C73">
+        <v>0</v>
+      </c>
+      <c r="D73">
+        <v>5435.391596879133</v>
+      </c>
+      <c r="E73">
+        <v>12607557.05811615</v>
+      </c>
+      <c r="F73">
+        <v>0</v>
+      </c>
+      <c r="G73">
+        <v>38.73938395471018</v>
+      </c>
+      <c r="H73">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8">
+      <c r="A74" t="s">
+        <v>124</v>
+      </c>
+      <c r="B74">
         <v>4.02461274909323</v>
       </c>
-      <c r="C68">
-        <v>0</v>
-      </c>
-      <c r="D68">
+      <c r="C74">
+        <v>0</v>
+      </c>
+      <c r="D74">
         <v>5397.086188789004</v>
       </c>
-      <c r="E68">
+      <c r="E74">
         <v>12565415.25812815</v>
       </c>
-      <c r="F68">
-        <v>0</v>
-      </c>
-      <c r="G68">
+      <c r="F74">
+        <v>0</v>
+      </c>
+      <c r="G74">
         <v>38.46637181104102</v>
       </c>
-      <c r="H68">
+      <c r="H74">
         <v>0</v>
       </c>
     </row>
@@ -2234,7 +2441,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:R23"/>
+  <dimension ref="A1:R28"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2242,58 +2449,58 @@
   <sheetData>
     <row r="1" spans="1:18">
       <c r="A1" s="2" t="s">
-        <v>118</v>
+        <v>125</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>119</v>
+        <v>126</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>120</v>
+        <v>127</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>121</v>
+        <v>128</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>122</v>
+        <v>129</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>123</v>
+        <v>130</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>124</v>
+        <v>131</v>
       </c>
       <c r="H1" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="L1" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="I1" s="2" t="s">
-        <v>125</v>
-      </c>
-      <c r="J1" s="2" t="s">
-        <v>126</v>
-      </c>
-      <c r="K1" s="2" t="s">
-        <v>127</v>
-      </c>
-      <c r="L1" s="2" t="s">
-        <v>80</v>
-      </c>
       <c r="M1" s="2" t="s">
-        <v>128</v>
+        <v>135</v>
       </c>
       <c r="N1" s="2" t="s">
-        <v>129</v>
+        <v>136</v>
       </c>
       <c r="O1" s="2" t="s">
-        <v>130</v>
+        <v>137</v>
       </c>
       <c r="P1" s="2" t="s">
-        <v>131</v>
+        <v>138</v>
       </c>
       <c r="Q1" s="2" t="s">
-        <v>132</v>
+        <v>139</v>
       </c>
       <c r="R1" s="2" t="s">
-        <v>133</v>
+        <v>140</v>
       </c>
     </row>
     <row r="2" spans="1:18">
@@ -2301,55 +2508,55 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>134</v>
+        <v>141</v>
       </c>
       <c r="C2" t="s">
-        <v>156</v>
+        <v>168</v>
       </c>
       <c r="D2" t="s">
-        <v>178</v>
+        <v>195</v>
       </c>
       <c r="E2" t="s">
-        <v>197</v>
+        <v>219</v>
       </c>
       <c r="F2">
-        <v>102.1625079445139</v>
+        <v>102.0679753837217</v>
       </c>
       <c r="G2">
         <v>650</v>
       </c>
       <c r="H2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="I2">
         <v>9.525</v>
       </c>
       <c r="J2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="K2">
         <v>4.865822962046021</v>
       </c>
       <c r="L2">
-        <v>17.5</v>
+        <v>11.66666666666667</v>
       </c>
       <c r="M2">
-        <v>10.8739925</v>
+        <v>7.249328333333335</v>
       </c>
       <c r="N2">
         <v>4865822.962046022</v>
       </c>
       <c r="O2">
-        <v>4135792.800668565</v>
+        <v>4393236.867939396</v>
       </c>
       <c r="P2">
-        <v>19.70954998285666</v>
+        <v>18.56295446571404</v>
       </c>
       <c r="Q2">
-        <v>0.03283555098168442</v>
+        <v>0.03087422448588664</v>
       </c>
       <c r="R2">
-        <v>30.45483095540234</v>
+        <v>29.56936790157712</v>
       </c>
     </row>
     <row r="3" spans="1:18">
@@ -2357,55 +2564,55 @@
         <v>0</v>
       </c>
       <c r="B3" t="s">
-        <v>135</v>
+        <v>142</v>
       </c>
       <c r="C3" t="s">
-        <v>157</v>
+        <v>169</v>
       </c>
       <c r="D3" t="s">
-        <v>179</v>
+        <v>196</v>
       </c>
       <c r="E3" t="s">
-        <v>197</v>
+        <v>219</v>
       </c>
       <c r="F3">
-        <v>101.9205357666237</v>
+        <v>101.9165409382614</v>
       </c>
       <c r="G3">
         <v>650</v>
       </c>
       <c r="H3" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="I3">
         <v>9.525</v>
       </c>
       <c r="J3" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="K3">
         <v>4.865822962046021</v>
       </c>
       <c r="L3">
-        <v>17.5</v>
+        <v>11.66666666666667</v>
       </c>
       <c r="M3">
-        <v>10.8739925</v>
+        <v>7.249328333333335</v>
       </c>
       <c r="N3">
         <v>4865822.962046022</v>
       </c>
       <c r="O3">
-        <v>4139466.315406652</v>
+        <v>4394679.032460829</v>
       </c>
       <c r="P3">
-        <v>19.64564248047794</v>
+        <v>18.5292745972339</v>
       </c>
       <c r="Q3">
-        <v>0.03272829130520777</v>
+        <v>0.03081792855131927</v>
       </c>
       <c r="R3">
-        <v>30.44162863674005</v>
+        <v>29.56462416475555</v>
       </c>
     </row>
     <row r="4" spans="1:18">
@@ -2413,55 +2620,55 @@
         <v>0</v>
       </c>
       <c r="B4" t="s">
-        <v>136</v>
+        <v>143</v>
       </c>
       <c r="C4" t="s">
-        <v>158</v>
+        <v>170</v>
       </c>
       <c r="D4" t="s">
-        <v>159</v>
+        <v>197</v>
       </c>
       <c r="E4" t="s">
-        <v>197</v>
+        <v>219</v>
       </c>
       <c r="F4">
-        <v>101.6811258529758</v>
+        <v>101.7666643302016</v>
       </c>
       <c r="G4">
         <v>650</v>
       </c>
       <c r="H4" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="I4">
         <v>9.525</v>
       </c>
       <c r="J4" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="K4">
         <v>4.865822962046021</v>
       </c>
       <c r="L4">
-        <v>5</v>
+        <v>11.66666666666667</v>
       </c>
       <c r="M4">
-        <v>3.106855</v>
+        <v>7.249328333333335</v>
       </c>
       <c r="N4">
         <v>4865822.962046022</v>
       </c>
       <c r="O4">
-        <v>4670508.419581626</v>
+        <v>4396107.891518529</v>
       </c>
       <c r="P4">
-        <v>17.41795020115398</v>
+        <v>18.49611664438588</v>
       </c>
       <c r="Q4">
-        <v>0.02892058545378428</v>
+        <v>0.03076250431497364</v>
       </c>
       <c r="R4">
-        <v>28.69751005058452</v>
+        <v>29.55992645787172</v>
       </c>
     </row>
     <row r="5" spans="1:18">
@@ -2469,55 +2676,55 @@
         <v>0</v>
       </c>
       <c r="B5" t="s">
-        <v>137</v>
+        <v>144</v>
       </c>
       <c r="C5" t="s">
-        <v>159</v>
+        <v>171</v>
       </c>
       <c r="D5" t="s">
-        <v>180</v>
+        <v>172</v>
       </c>
       <c r="E5" t="s">
-        <v>197</v>
+        <v>219</v>
       </c>
       <c r="F5">
-        <v>101.6811257371867</v>
+        <v>101.6176125720825</v>
       </c>
       <c r="G5">
         <v>650</v>
       </c>
       <c r="H5" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="I5">
         <v>9.525</v>
       </c>
       <c r="J5" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="K5">
         <v>4.865822962046021</v>
       </c>
       <c r="L5">
-        <v>12.5</v>
+        <v>5</v>
       </c>
       <c r="M5">
-        <v>7.7671375</v>
+        <v>3.106855</v>
       </c>
       <c r="N5">
-        <v>4670508.419581626</v>
+        <v>4865822.962046022</v>
       </c>
       <c r="O5">
-        <v>4143090.087806448</v>
+        <v>4670752.61542308</v>
       </c>
       <c r="P5">
-        <v>19.58272770308648</v>
+        <v>17.40617846150223</v>
       </c>
       <c r="Q5">
-        <v>0.03262270181850793</v>
+        <v>0.02890099741192482</v>
       </c>
       <c r="R5">
-        <v>30.42862197255545</v>
+        <v>28.69677607607285</v>
       </c>
     </row>
     <row r="6" spans="1:18">
@@ -2525,167 +2732,167 @@
         <v>0</v>
       </c>
       <c r="B6" t="s">
-        <v>138</v>
+        <v>145</v>
       </c>
       <c r="C6" t="s">
-        <v>160</v>
+        <v>172</v>
       </c>
       <c r="D6" t="s">
-        <v>181</v>
+        <v>198</v>
       </c>
       <c r="E6" t="s">
-        <v>197</v>
+        <v>219</v>
       </c>
       <c r="F6">
-        <v>101.443668568589</v>
+        <v>101.6176125577376</v>
       </c>
       <c r="G6">
         <v>650</v>
       </c>
       <c r="H6" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="I6">
         <v>9.525</v>
       </c>
       <c r="J6" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="K6">
         <v>4.865822962046021</v>
       </c>
       <c r="L6">
-        <v>17.5</v>
+        <v>6.666666666666664</v>
       </c>
       <c r="M6">
-        <v>10.8739925</v>
+        <v>4.142473333333332</v>
       </c>
       <c r="N6">
-        <v>4865822.962046022</v>
+        <v>4670752.61542308</v>
       </c>
       <c r="O6">
-        <v>4146682.880612072</v>
+        <v>4397525.525516639</v>
       </c>
       <c r="P6">
-        <v>19.52045911487649</v>
+        <v>18.4632017207154</v>
       </c>
       <c r="Q6">
-        <v>0.03251820098196725</v>
+        <v>0.03070748750021024</v>
       </c>
       <c r="R6">
-        <v>30.41574302187935</v>
+        <v>29.55526788128614</v>
       </c>
     </row>
     <row r="7" spans="1:18">
       <c r="A7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B7" t="s">
-        <v>139</v>
+        <v>146</v>
       </c>
       <c r="C7" t="s">
-        <v>161</v>
+        <v>173</v>
       </c>
       <c r="D7" t="s">
-        <v>182</v>
+        <v>199</v>
       </c>
       <c r="E7" t="s">
-        <v>197</v>
+        <v>219</v>
       </c>
       <c r="F7">
-        <v>101.2080726573746</v>
+        <v>101.4692718007913</v>
       </c>
       <c r="G7">
         <v>650</v>
       </c>
       <c r="H7" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="I7">
         <v>9.525</v>
       </c>
       <c r="J7" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="K7">
         <v>4.865822962046021</v>
       </c>
       <c r="L7">
-        <v>18.57142857142857</v>
+        <v>11.66666666666666</v>
       </c>
       <c r="M7">
-        <v>11.53974714285714</v>
+        <v>7.24932833333333</v>
       </c>
       <c r="N7">
         <v>4865822.962046022</v>
       </c>
       <c r="O7">
-        <v>4102464.969322397</v>
+        <v>4398936.993196221</v>
       </c>
       <c r="P7">
-        <v>19.68011943317746</v>
+        <v>18.43046539015735</v>
       </c>
       <c r="Q7">
-        <v>0.03279374243053493</v>
+        <v>0.03065276994267441</v>
       </c>
       <c r="R7">
-        <v>30.57540223072321</v>
+        <v>29.55063176858159</v>
       </c>
     </row>
     <row r="8" spans="1:18">
       <c r="A8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B8" t="s">
-        <v>140</v>
+        <v>147</v>
       </c>
       <c r="C8" t="s">
-        <v>162</v>
+        <v>174</v>
       </c>
       <c r="D8" t="s">
-        <v>163</v>
+        <v>200</v>
       </c>
       <c r="E8" t="s">
-        <v>197</v>
+        <v>219</v>
       </c>
       <c r="F8">
-        <v>100.9569657294258</v>
+        <v>101.3216241762725</v>
       </c>
       <c r="G8">
         <v>650</v>
       </c>
       <c r="H8" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="I8">
         <v>9.525</v>
       </c>
       <c r="J8" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="K8">
         <v>4.865822962046021</v>
       </c>
       <c r="L8">
-        <v>12.92857142857143</v>
+        <v>11.66666666666667</v>
       </c>
       <c r="M8">
-        <v>8.033439357142859</v>
+        <v>7.249328333333335</v>
       </c>
       <c r="N8">
         <v>4865822.962046022</v>
       </c>
       <c r="O8">
-        <v>4350940.595701333</v>
+        <v>4400337.95394105</v>
       </c>
       <c r="P8">
-        <v>18.53514017874897</v>
+        <v>18.39791878506338</v>
       </c>
       <c r="Q8">
-        <v>0.03083618097439339</v>
+        <v>0.03059837097433796</v>
       </c>
       <c r="R8">
-        <v>29.70952336126172</v>
+        <v>29.546032336405</v>
       </c>
     </row>
     <row r="9" spans="1:18">
@@ -2693,55 +2900,55 @@
         <v>1</v>
       </c>
       <c r="B9" t="s">
-        <v>141</v>
+        <v>148</v>
       </c>
       <c r="C9" t="s">
-        <v>163</v>
+        <v>175</v>
       </c>
       <c r="D9" t="s">
-        <v>183</v>
+        <v>201</v>
       </c>
       <c r="E9" t="s">
-        <v>197</v>
+        <v>219</v>
       </c>
       <c r="F9">
-        <v>83.29863575344683</v>
+        <v>101.1746622469781</v>
       </c>
       <c r="G9">
         <v>650</v>
       </c>
       <c r="H9" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="I9">
         <v>9.525</v>
       </c>
       <c r="J9" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="K9">
         <v>4.865822962046021</v>
       </c>
       <c r="L9">
-        <v>5.642857142857146</v>
+        <v>13</v>
       </c>
       <c r="M9">
-        <v>3.506307785714287</v>
+        <v>8.077823</v>
       </c>
       <c r="N9">
-        <v>4350940.595701333</v>
+        <v>4865822.962046022</v>
       </c>
       <c r="O9">
-        <v>4184732.086290783</v>
+        <v>4345608.822502185</v>
       </c>
       <c r="P9">
-        <v>15.88648765939312</v>
+        <v>18.59738559578296</v>
       </c>
       <c r="Q9">
-        <v>0.02645794906721858</v>
+        <v>0.0309407801296818</v>
       </c>
       <c r="R9">
-        <v>30.28035009589645</v>
+        <v>29.72733366992394</v>
       </c>
     </row>
     <row r="10" spans="1:18">
@@ -2749,55 +2956,55 @@
         <v>1</v>
       </c>
       <c r="B10" t="s">
-        <v>142</v>
+        <v>149</v>
       </c>
       <c r="C10" t="s">
-        <v>164</v>
+        <v>176</v>
       </c>
       <c r="D10" t="s">
-        <v>184</v>
+        <v>202</v>
       </c>
       <c r="E10" t="s">
-        <v>197</v>
+        <v>219</v>
       </c>
       <c r="F10">
-        <v>83.11641718033258</v>
+        <v>101.0094133683849</v>
       </c>
       <c r="G10">
         <v>650</v>
       </c>
       <c r="H10" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="I10">
         <v>9.525</v>
       </c>
       <c r="J10" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="K10">
         <v>4.865822962046021</v>
       </c>
       <c r="L10">
-        <v>18.57142857142858</v>
+        <v>13</v>
       </c>
       <c r="M10">
-        <v>11.53974714285715</v>
+        <v>8.077823</v>
       </c>
       <c r="N10">
         <v>4865822.962046022</v>
       </c>
       <c r="O10">
-        <v>4361077.354994712</v>
+        <v>4347371.703557869</v>
       </c>
       <c r="P10">
-        <v>15.22504092025017</v>
+        <v>18.55965075699372</v>
       </c>
       <c r="Q10">
-        <v>0.02532767703019077</v>
+        <v>0.03087765548113019</v>
       </c>
       <c r="R10">
-        <v>29.67575102321467</v>
+        <v>29.72144136047159</v>
       </c>
     </row>
     <row r="11" spans="1:18">
@@ -2805,55 +3012,55 @@
         <v>1</v>
       </c>
       <c r="B11" t="s">
-        <v>143</v>
+        <v>150</v>
       </c>
       <c r="C11" t="s">
-        <v>165</v>
+        <v>177</v>
       </c>
       <c r="D11" t="s">
-        <v>185</v>
+        <v>178</v>
       </c>
       <c r="E11" t="s">
-        <v>197</v>
+        <v>219</v>
       </c>
       <c r="F11">
-        <v>82.98498209184326</v>
+        <v>100.8450337533843</v>
       </c>
       <c r="G11">
         <v>650</v>
       </c>
       <c r="H11" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="I11">
         <v>9.525</v>
       </c>
       <c r="J11" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="K11">
         <v>4.865822962046021</v>
       </c>
       <c r="L11">
-        <v>18.57142857142857</v>
+        <v>5.5</v>
       </c>
       <c r="M11">
-        <v>11.53974714285714</v>
+        <v>3.4175405</v>
       </c>
       <c r="N11">
         <v>4865822.962046022</v>
       </c>
       <c r="O11">
-        <v>4362725.689503628</v>
+        <v>4654072.429647412</v>
       </c>
       <c r="P11">
-        <v>15.19535063120426</v>
+        <v>17.33441000888324</v>
       </c>
       <c r="Q11">
-        <v>0.02527802259928005</v>
+        <v>0.02878471966905997</v>
       </c>
       <c r="R11">
-        <v>29.6702702571861</v>
+        <v>28.74704217101416</v>
       </c>
     </row>
     <row r="12" spans="1:18">
@@ -2861,55 +3068,55 @@
         <v>1</v>
       </c>
       <c r="B12" t="s">
-        <v>144</v>
+        <v>151</v>
       </c>
       <c r="C12" t="s">
-        <v>166</v>
+        <v>178</v>
       </c>
       <c r="D12" t="s">
-        <v>167</v>
+        <v>203</v>
       </c>
       <c r="E12" t="s">
-        <v>197</v>
+        <v>219</v>
       </c>
       <c r="F12">
-        <v>82.85421327195759</v>
+        <v>83.18670377751239</v>
       </c>
       <c r="G12">
         <v>650</v>
       </c>
       <c r="H12" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="I12">
         <v>9.525</v>
       </c>
       <c r="J12" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="K12">
         <v>4.865822962046021</v>
       </c>
       <c r="L12">
-        <v>5.714285714285708</v>
+        <v>7.5</v>
       </c>
       <c r="M12">
-        <v>3.550691428571425</v>
+        <v>4.6602825</v>
       </c>
       <c r="N12">
-        <v>4865822.962046022</v>
+        <v>4654072.429647412</v>
       </c>
       <c r="O12">
-        <v>4717086.584202969</v>
+        <v>4447137.738312458</v>
       </c>
       <c r="P12">
-        <v>14.05576526480934</v>
+        <v>14.94955235712974</v>
       </c>
       <c r="Q12">
-        <v>0.02333154599438642</v>
+        <v>0.02485597822395806</v>
       </c>
       <c r="R12">
-        <v>28.55852943068515</v>
+        <v>29.39361678647134</v>
       </c>
     </row>
     <row r="13" spans="1:18">
@@ -2917,55 +3124,55 @@
         <v>1</v>
       </c>
       <c r="B13" t="s">
-        <v>145</v>
+        <v>152</v>
       </c>
       <c r="C13" t="s">
-        <v>167</v>
+        <v>179</v>
       </c>
       <c r="D13" t="s">
-        <v>186</v>
+        <v>204</v>
       </c>
       <c r="E13" t="s">
-        <v>197</v>
+        <v>219</v>
       </c>
       <c r="F13">
-        <v>82.85421327195736</v>
+        <v>83.07887025391449</v>
       </c>
       <c r="G13">
         <v>650</v>
       </c>
       <c r="H13" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="I13">
         <v>9.525</v>
       </c>
       <c r="J13" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="K13">
         <v>4.865822962046021</v>
       </c>
       <c r="L13">
-        <v>12.85714285714286</v>
+        <v>13</v>
       </c>
       <c r="M13">
-        <v>7.989055714285715</v>
+        <v>8.077823</v>
       </c>
       <c r="N13">
-        <v>4717086.584202969</v>
+        <v>4865822.962046022</v>
       </c>
       <c r="O13">
-        <v>4364360.964012891</v>
+        <v>4518611.886666242</v>
       </c>
       <c r="P13">
-        <v>15.16584860275595</v>
+        <v>14.69918805247441</v>
       </c>
       <c r="Q13">
-        <v>0.02522868452954501</v>
+        <v>0.02442890897454639</v>
       </c>
       <c r="R13">
-        <v>29.66483593274199</v>
+        <v>29.16535543598091</v>
       </c>
     </row>
     <row r="14" spans="1:18">
@@ -2973,55 +3180,55 @@
         <v>1</v>
       </c>
       <c r="B14" t="s">
-        <v>146</v>
+        <v>153</v>
       </c>
       <c r="C14" t="s">
-        <v>168</v>
+        <v>180</v>
       </c>
       <c r="D14" t="s">
-        <v>187</v>
+        <v>205</v>
       </c>
       <c r="E14" t="s">
-        <v>197</v>
+        <v>219</v>
       </c>
       <c r="F14">
-        <v>82.72410438678871</v>
+        <v>82.99042191790605</v>
       </c>
       <c r="G14">
         <v>650</v>
       </c>
       <c r="H14" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="I14">
         <v>9.525</v>
       </c>
       <c r="J14" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="K14">
         <v>4.865822962046021</v>
       </c>
       <c r="L14">
-        <v>18.57142857142858</v>
+        <v>13</v>
       </c>
       <c r="M14">
-        <v>11.53974714285715</v>
+        <v>8.077823</v>
       </c>
       <c r="N14">
         <v>4865822.962046022</v>
       </c>
       <c r="O14">
-        <v>4365988.06658065</v>
+        <v>4519361.814866357</v>
       </c>
       <c r="P14">
-        <v>15.13651664351225</v>
+        <v>14.68115587568881</v>
       </c>
       <c r="Q14">
-        <v>0.02517963175890596</v>
+        <v>0.02439882842323399</v>
       </c>
       <c r="R14">
-        <v>29.65943174464536</v>
+        <v>29.16298874219098</v>
       </c>
     </row>
     <row r="15" spans="1:18">
@@ -3029,367 +3236,367 @@
         <v>1</v>
       </c>
       <c r="B15" t="s">
-        <v>147</v>
+        <v>154</v>
       </c>
       <c r="C15" t="s">
-        <v>169</v>
+        <v>181</v>
       </c>
       <c r="D15" t="s">
-        <v>188</v>
+        <v>206</v>
       </c>
       <c r="E15" t="s">
-        <v>197</v>
+        <v>219</v>
       </c>
       <c r="F15">
-        <v>82.59465050028022</v>
+        <v>82.90226748023257</v>
       </c>
       <c r="G15">
         <v>650</v>
       </c>
       <c r="H15" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="I15">
         <v>9.525</v>
       </c>
       <c r="J15" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="K15">
         <v>4.865822962046021</v>
       </c>
       <c r="L15">
-        <v>18.57142857142856</v>
+        <v>13</v>
       </c>
       <c r="M15">
-        <v>11.53974714285713</v>
+        <v>8.077823</v>
       </c>
       <c r="N15">
         <v>4865822.962046022</v>
       </c>
       <c r="O15">
-        <v>4367602.35073249</v>
+        <v>4520108.357883521</v>
       </c>
       <c r="P15">
-        <v>15.10736921499618</v>
+        <v>14.66319227733721</v>
       </c>
       <c r="Q15">
-        <v>0.02513088906234502</v>
+        <v>0.02436886264039167</v>
       </c>
       <c r="R15">
-        <v>29.65407306537551</v>
+        <v>29.16063330758949</v>
       </c>
     </row>
     <row r="16" spans="1:18">
       <c r="A16">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B16" t="s">
-        <v>148</v>
+        <v>155</v>
       </c>
       <c r="C16" t="s">
-        <v>170</v>
+        <v>182</v>
       </c>
       <c r="D16" t="s">
-        <v>189</v>
+        <v>183</v>
       </c>
       <c r="E16" t="s">
-        <v>197</v>
+        <v>219</v>
       </c>
       <c r="F16">
-        <v>82.46584542565695</v>
+        <v>82.81440526271172</v>
       </c>
       <c r="G16">
         <v>650</v>
       </c>
       <c r="H16" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="I16">
         <v>9.525</v>
       </c>
       <c r="J16" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="K16">
         <v>4.865822962046021</v>
       </c>
       <c r="L16">
-        <v>25</v>
+        <v>2</v>
       </c>
       <c r="M16">
-        <v>15.534275</v>
+        <v>1.242742</v>
       </c>
       <c r="N16">
         <v>4865822.962046022</v>
       </c>
       <c r="O16">
-        <v>4183913.78418617</v>
+        <v>4814325.508955292</v>
       </c>
       <c r="P16">
-        <v>15.73066528744936</v>
+        <v>13.77126888637268</v>
       </c>
       <c r="Q16">
-        <v>0.02619857653694625</v>
+        <v>0.02284614719208462</v>
       </c>
       <c r="R16">
-        <v>30.28324282454035</v>
+        <v>28.2748250848638</v>
       </c>
     </row>
     <row r="17" spans="1:18">
       <c r="A17">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B17" t="s">
-        <v>149</v>
+        <v>156</v>
       </c>
       <c r="C17" t="s">
-        <v>171</v>
+        <v>183</v>
       </c>
       <c r="D17" t="s">
-        <v>190</v>
+        <v>207</v>
       </c>
       <c r="E17" t="s">
-        <v>197</v>
+        <v>219</v>
       </c>
       <c r="F17">
-        <v>82.28521067333101</v>
+        <v>82.81440526271166</v>
       </c>
       <c r="G17">
         <v>650</v>
       </c>
       <c r="H17" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="I17">
         <v>9.525</v>
       </c>
       <c r="J17" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="K17">
         <v>4.865822962046021</v>
       </c>
       <c r="L17">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="M17">
-        <v>15.534275</v>
+        <v>6.835081</v>
       </c>
       <c r="N17">
-        <v>4865822.962046022</v>
+        <v>4814325.508955292</v>
       </c>
       <c r="O17">
-        <v>4187063.719184039</v>
+        <v>4520851.230108246</v>
       </c>
       <c r="P17">
-        <v>15.68467241155982</v>
+        <v>14.64529779277738</v>
       </c>
       <c r="Q17">
-        <v>0.02612144120721023</v>
+        <v>0.02433901255476503</v>
       </c>
       <c r="R17">
-        <v>30.27211225168348</v>
+        <v>29.15829002493429</v>
       </c>
     </row>
     <row r="18" spans="1:18">
       <c r="A18">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B18" t="s">
-        <v>150</v>
+        <v>157</v>
       </c>
       <c r="C18" t="s">
-        <v>172</v>
+        <v>184</v>
       </c>
       <c r="D18" t="s">
-        <v>191</v>
+        <v>208</v>
       </c>
       <c r="E18" t="s">
-        <v>197</v>
+        <v>219</v>
       </c>
       <c r="F18">
-        <v>82.10588517565004</v>
+        <v>82.72683351874205</v>
       </c>
       <c r="G18">
         <v>650</v>
       </c>
       <c r="H18" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="I18">
         <v>9.525</v>
       </c>
       <c r="J18" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="K18">
         <v>4.865822962046021</v>
       </c>
       <c r="L18">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="M18">
-        <v>15.534275</v>
+        <v>8.077823</v>
       </c>
       <c r="N18">
         <v>4865822.962046022</v>
       </c>
       <c r="O18">
-        <v>4190181.904528601</v>
+        <v>4521591.382969386</v>
       </c>
       <c r="P18">
-        <v>15.63911229997375</v>
+        <v>14.62746902693329</v>
       </c>
       <c r="Q18">
-        <v>0.02604503546717772</v>
+        <v>0.02430927237814386</v>
       </c>
       <c r="R18">
-        <v>30.26110600603833</v>
+        <v>29.15595588551276</v>
       </c>
     </row>
     <row r="19" spans="1:18">
       <c r="A19">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B19" t="s">
-        <v>151</v>
+        <v>158</v>
       </c>
       <c r="C19" t="s">
-        <v>173</v>
+        <v>185</v>
       </c>
       <c r="D19" t="s">
-        <v>192</v>
+        <v>209</v>
       </c>
       <c r="E19" t="s">
-        <v>197</v>
+        <v>219</v>
       </c>
       <c r="F19">
-        <v>81.92785207074505</v>
+        <v>82.63955076190589</v>
       </c>
       <c r="G19">
         <v>650</v>
       </c>
       <c r="H19" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="I19">
         <v>9.525</v>
       </c>
       <c r="J19" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="K19">
         <v>4.865822962046021</v>
       </c>
       <c r="L19">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="M19">
-        <v>15.534275</v>
+        <v>8.077823</v>
       </c>
       <c r="N19">
         <v>4865822.962046022</v>
       </c>
       <c r="O19">
-        <v>4193268.845902502</v>
+        <v>4522327.910742506</v>
       </c>
       <c r="P19">
-        <v>15.59397794954751</v>
+        <v>14.60970851565168</v>
       </c>
       <c r="Q19">
-        <v>0.02596934746386525</v>
+        <v>0.02427964645673034</v>
       </c>
       <c r="R19">
-        <v>30.25022191520623</v>
+        <v>29.15363373813237</v>
       </c>
     </row>
     <row r="20" spans="1:18">
       <c r="A20">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B20" t="s">
-        <v>152</v>
+        <v>159</v>
       </c>
       <c r="C20" t="s">
-        <v>174</v>
+        <v>186</v>
       </c>
       <c r="D20" t="s">
-        <v>193</v>
+        <v>210</v>
       </c>
       <c r="E20" t="s">
-        <v>197</v>
+        <v>219</v>
       </c>
       <c r="F20">
-        <v>81.75109481382123</v>
+        <v>82.55255527229399</v>
       </c>
       <c r="G20">
         <v>650</v>
       </c>
       <c r="H20" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="I20">
         <v>9.525</v>
       </c>
       <c r="J20" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="K20">
         <v>4.865822962046021</v>
       </c>
       <c r="L20">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="M20">
-        <v>15.534275</v>
+        <v>8.077823</v>
       </c>
       <c r="N20">
         <v>4865822.962046022</v>
       </c>
       <c r="O20">
-        <v>4196325.037872925</v>
+        <v>4523061.146139761</v>
       </c>
       <c r="P20">
-        <v>15.54926251793578</v>
+        <v>14.59201483069523</v>
       </c>
       <c r="Q20">
-        <v>0.02589436561728291</v>
+        <v>0.02425013236363688</v>
       </c>
       <c r="R20">
-        <v>30.23945785868248</v>
+        <v>29.1513225257166</v>
       </c>
     </row>
     <row r="21" spans="1:18">
       <c r="A21">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B21" t="s">
-        <v>153</v>
+        <v>160</v>
       </c>
       <c r="C21" t="s">
-        <v>175</v>
+        <v>187</v>
       </c>
       <c r="D21" t="s">
-        <v>194</v>
+        <v>211</v>
       </c>
       <c r="E21" t="s">
-        <v>197</v>
+        <v>219</v>
       </c>
       <c r="F21">
-        <v>81.57559716926635</v>
+        <v>82.46584542565695</v>
       </c>
       <c r="G21">
         <v>650</v>
       </c>
       <c r="H21" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="I21">
         <v>9.525</v>
       </c>
       <c r="J21" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="K21">
         <v>4.865822962046021</v>
@@ -3404,48 +3611,48 @@
         <v>4865822.962046022</v>
       </c>
       <c r="O21">
-        <v>4199350.964204381</v>
+        <v>4183913.78418617</v>
       </c>
       <c r="P21">
-        <v>15.50495931881985</v>
+        <v>15.73066528744936</v>
       </c>
       <c r="Q21">
-        <v>0.02582007861231311</v>
+        <v>0.02619857653694625</v>
       </c>
       <c r="R21">
-        <v>30.22881176628253</v>
+        <v>30.28324282454035</v>
       </c>
     </row>
     <row r="22" spans="1:18">
       <c r="A22">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B22" t="s">
-        <v>154</v>
+        <v>161</v>
       </c>
       <c r="C22" t="s">
-        <v>176</v>
+        <v>188</v>
       </c>
       <c r="D22" t="s">
-        <v>195</v>
+        <v>212</v>
       </c>
       <c r="E22" t="s">
-        <v>197</v>
+        <v>219</v>
       </c>
       <c r="F22">
-        <v>81.40134320300437</v>
+        <v>82.28521067333101</v>
       </c>
       <c r="G22">
         <v>650</v>
       </c>
       <c r="H22" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="I22">
         <v>9.525</v>
       </c>
       <c r="J22" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="K22">
         <v>4.865822962046021</v>
@@ -3460,48 +3667,48 @@
         <v>4865822.962046022</v>
       </c>
       <c r="O22">
-        <v>4202347.09816077</v>
+        <v>4187063.719184039</v>
       </c>
       <c r="P22">
-        <v>15.46106181730905</v>
+        <v>15.68467241155982</v>
       </c>
       <c r="Q22">
-        <v>0.02574647539088441</v>
+        <v>0.02612144120721024</v>
       </c>
       <c r="R22">
-        <v>30.21828161662598</v>
+        <v>30.27211225168348</v>
       </c>
     </row>
     <row r="23" spans="1:18">
       <c r="A23">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B23" t="s">
-        <v>155</v>
+        <v>162</v>
       </c>
       <c r="C23" t="s">
-        <v>177</v>
+        <v>189</v>
       </c>
       <c r="D23" t="s">
-        <v>196</v>
+        <v>213</v>
       </c>
       <c r="E23" t="s">
-        <v>197</v>
+        <v>219</v>
       </c>
       <c r="F23">
-        <v>81.22831727508517</v>
+        <v>82.10588517564996</v>
       </c>
       <c r="G23">
         <v>650</v>
       </c>
       <c r="H23" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="I23">
         <v>9.525</v>
       </c>
       <c r="J23" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="K23">
         <v>4.865822962046021</v>
@@ -3516,15 +3723,295 @@
         <v>4865822.962046022</v>
       </c>
       <c r="O23">
+        <v>4190181.9045286</v>
+      </c>
+      <c r="P23">
+        <v>15.63911229997376</v>
+      </c>
+      <c r="Q23">
+        <v>0.02604503546717775</v>
+      </c>
+      <c r="R23">
+        <v>30.26110600603833</v>
+      </c>
+    </row>
+    <row r="24" spans="1:18">
+      <c r="A24">
+        <v>2</v>
+      </c>
+      <c r="B24" t="s">
+        <v>163</v>
+      </c>
+      <c r="C24" t="s">
+        <v>190</v>
+      </c>
+      <c r="D24" t="s">
+        <v>214</v>
+      </c>
+      <c r="E24" t="s">
+        <v>219</v>
+      </c>
+      <c r="F24">
+        <v>81.92785207074505</v>
+      </c>
+      <c r="G24">
+        <v>650</v>
+      </c>
+      <c r="H24" t="s">
+        <v>86</v>
+      </c>
+      <c r="I24">
+        <v>9.525</v>
+      </c>
+      <c r="J24" t="s">
+        <v>85</v>
+      </c>
+      <c r="K24">
+        <v>4.865822962046021</v>
+      </c>
+      <c r="L24">
+        <v>25</v>
+      </c>
+      <c r="M24">
+        <v>15.534275</v>
+      </c>
+      <c r="N24">
+        <v>4865822.962046022</v>
+      </c>
+      <c r="O24">
+        <v>4193268.845902503</v>
+      </c>
+      <c r="P24">
+        <v>15.59397794954751</v>
+      </c>
+      <c r="Q24">
+        <v>0.02596934746386525</v>
+      </c>
+      <c r="R24">
+        <v>30.25022191520623</v>
+      </c>
+    </row>
+    <row r="25" spans="1:18">
+      <c r="A25">
+        <v>3</v>
+      </c>
+      <c r="B25" t="s">
+        <v>164</v>
+      </c>
+      <c r="C25" t="s">
+        <v>191</v>
+      </c>
+      <c r="D25" t="s">
+        <v>215</v>
+      </c>
+      <c r="E25" t="s">
+        <v>219</v>
+      </c>
+      <c r="F25">
+        <v>81.75109481382123</v>
+      </c>
+      <c r="G25">
+        <v>650</v>
+      </c>
+      <c r="H25" t="s">
+        <v>86</v>
+      </c>
+      <c r="I25">
+        <v>9.525</v>
+      </c>
+      <c r="J25" t="s">
+        <v>85</v>
+      </c>
+      <c r="K25">
+        <v>4.865822962046021</v>
+      </c>
+      <c r="L25">
+        <v>25</v>
+      </c>
+      <c r="M25">
+        <v>15.534275</v>
+      </c>
+      <c r="N25">
+        <v>4865822.962046022</v>
+      </c>
+      <c r="O25">
+        <v>4196325.037872925</v>
+      </c>
+      <c r="P25">
+        <v>15.54926251793578</v>
+      </c>
+      <c r="Q25">
+        <v>0.02589436561728291</v>
+      </c>
+      <c r="R25">
+        <v>30.23945785868248</v>
+      </c>
+    </row>
+    <row r="26" spans="1:18">
+      <c r="A26">
+        <v>3</v>
+      </c>
+      <c r="B26" t="s">
+        <v>165</v>
+      </c>
+      <c r="C26" t="s">
+        <v>192</v>
+      </c>
+      <c r="D26" t="s">
+        <v>216</v>
+      </c>
+      <c r="E26" t="s">
+        <v>219</v>
+      </c>
+      <c r="F26">
+        <v>81.57559716926635</v>
+      </c>
+      <c r="G26">
+        <v>650</v>
+      </c>
+      <c r="H26" t="s">
+        <v>86</v>
+      </c>
+      <c r="I26">
+        <v>9.525</v>
+      </c>
+      <c r="J26" t="s">
+        <v>85</v>
+      </c>
+      <c r="K26">
+        <v>4.865822962046021</v>
+      </c>
+      <c r="L26">
+        <v>25</v>
+      </c>
+      <c r="M26">
+        <v>15.534275</v>
+      </c>
+      <c r="N26">
+        <v>4865822.962046022</v>
+      </c>
+      <c r="O26">
+        <v>4199350.964204381</v>
+      </c>
+      <c r="P26">
+        <v>15.50495931881985</v>
+      </c>
+      <c r="Q26">
+        <v>0.02582007861231311</v>
+      </c>
+      <c r="R26">
+        <v>30.22881176628253</v>
+      </c>
+    </row>
+    <row r="27" spans="1:18">
+      <c r="A27">
+        <v>3</v>
+      </c>
+      <c r="B27" t="s">
+        <v>166</v>
+      </c>
+      <c r="C27" t="s">
+        <v>193</v>
+      </c>
+      <c r="D27" t="s">
+        <v>217</v>
+      </c>
+      <c r="E27" t="s">
+        <v>219</v>
+      </c>
+      <c r="F27">
+        <v>81.40134320300437</v>
+      </c>
+      <c r="G27">
+        <v>650</v>
+      </c>
+      <c r="H27" t="s">
+        <v>86</v>
+      </c>
+      <c r="I27">
+        <v>9.525</v>
+      </c>
+      <c r="J27" t="s">
+        <v>85</v>
+      </c>
+      <c r="K27">
+        <v>4.865822962046021</v>
+      </c>
+      <c r="L27">
+        <v>25</v>
+      </c>
+      <c r="M27">
+        <v>15.534275</v>
+      </c>
+      <c r="N27">
+        <v>4865822.962046022</v>
+      </c>
+      <c r="O27">
+        <v>4202347.09816077</v>
+      </c>
+      <c r="P27">
+        <v>15.46106181730905</v>
+      </c>
+      <c r="Q27">
+        <v>0.02574647539088441</v>
+      </c>
+      <c r="R27">
+        <v>30.21828161662598</v>
+      </c>
+    </row>
+    <row r="28" spans="1:18">
+      <c r="A28">
+        <v>3</v>
+      </c>
+      <c r="B28" t="s">
+        <v>167</v>
+      </c>
+      <c r="C28" t="s">
+        <v>194</v>
+      </c>
+      <c r="D28" t="s">
+        <v>218</v>
+      </c>
+      <c r="E28" t="s">
+        <v>219</v>
+      </c>
+      <c r="F28">
+        <v>81.22831727508517</v>
+      </c>
+      <c r="G28">
+        <v>650</v>
+      </c>
+      <c r="H28" t="s">
+        <v>86</v>
+      </c>
+      <c r="I28">
+        <v>9.525</v>
+      </c>
+      <c r="J28" t="s">
+        <v>85</v>
+      </c>
+      <c r="K28">
+        <v>4.865822962046021</v>
+      </c>
+      <c r="L28">
+        <v>25</v>
+      </c>
+      <c r="M28">
+        <v>15.534275</v>
+      </c>
+      <c r="N28">
+        <v>4865822.962046022</v>
+      </c>
+      <c r="O28">
         <v>4205313.902797125</v>
       </c>
-      <c r="P23">
+      <c r="P28">
         <v>15.4175636255081</v>
       </c>
-      <c r="Q23">
+      <c r="Q28">
         <v>0.02567354514442839</v>
       </c>
-      <c r="R23">
+      <c r="R28">
         <v>30.20786543567594</v>
       </c>
     </row>
@@ -3535,7 +4022,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:R19"/>
+  <dimension ref="A1:R24"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3543,58 +4030,58 @@
   <sheetData>
     <row r="1" spans="1:18">
       <c r="A1" s="2" t="s">
-        <v>198</v>
+        <v>220</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>120</v>
+        <v>127</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>121</v>
+        <v>128</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>122</v>
+        <v>129</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>199</v>
+        <v>221</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>200</v>
+        <v>222</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>201</v>
+        <v>223</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>202</v>
+        <v>224</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="K1" s="2" t="s">
-        <v>203</v>
+        <v>225</v>
       </c>
       <c r="L1" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="M1" s="2" t="s">
-        <v>204</v>
+        <v>226</v>
       </c>
       <c r="N1" s="2" t="s">
-        <v>205</v>
+        <v>227</v>
       </c>
       <c r="O1" s="2" t="s">
-        <v>206</v>
+        <v>228</v>
       </c>
       <c r="P1" s="2" t="s">
-        <v>207</v>
+        <v>229</v>
       </c>
       <c r="Q1" s="2" t="s">
-        <v>208</v>
+        <v>230</v>
       </c>
       <c r="R1" s="2" t="s">
-        <v>209</v>
+        <v>231</v>
       </c>
     </row>
     <row r="2" spans="1:18">
@@ -3602,40 +4089,40 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="C2" t="s">
-        <v>178</v>
+        <v>195</v>
       </c>
       <c r="D2" t="s">
-        <v>157</v>
+        <v>169</v>
       </c>
       <c r="E2" t="s">
-        <v>210</v>
+        <v>232</v>
       </c>
       <c r="F2">
-        <v>17.5</v>
+        <v>11.66666666666667</v>
       </c>
       <c r="G2">
-        <v>10.8739925</v>
+        <v>7.249328333333333</v>
       </c>
       <c r="H2">
-        <v>1.176515168085656</v>
+        <v>1.107571275647672</v>
       </c>
       <c r="I2">
-        <v>53.63048043136098</v>
+        <v>33.44705786892604</v>
       </c>
       <c r="J2">
-        <v>5.611184656154578</v>
+        <v>3.499458076789588</v>
       </c>
       <c r="K2">
-        <v>7524.710847596412</v>
+        <v>4692.843270136373</v>
       </c>
       <c r="L2">
         <v>0</v>
       </c>
       <c r="M2">
-        <v>5.611184656154578</v>
+        <v>3.499458076789588</v>
       </c>
       <c r="N2">
         <v>0.78</v>
@@ -3644,13 +4131,13 @@
         <v>0.357</v>
       </c>
       <c r="P2">
-        <v>14925496.43609167</v>
+        <v>11792919.01210872</v>
       </c>
       <c r="Q2">
         <v>0</v>
       </c>
       <c r="R2">
-        <v>14925496.43609167</v>
+        <v>11792919.01210872</v>
       </c>
     </row>
     <row r="3" spans="1:18">
@@ -3658,40 +4145,40 @@
         <v>0</v>
       </c>
       <c r="B3" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="C3" t="s">
-        <v>179</v>
+        <v>196</v>
       </c>
       <c r="D3" t="s">
-        <v>158</v>
+        <v>170</v>
       </c>
       <c r="E3" t="s">
-        <v>210</v>
+        <v>232</v>
       </c>
       <c r="F3">
-        <v>35</v>
+        <v>23.33333333333333</v>
       </c>
       <c r="G3">
-        <v>21.747985</v>
+        <v>14.49865666666667</v>
       </c>
       <c r="H3">
-        <v>1.175471085230468</v>
+        <v>1.107207813381851</v>
       </c>
       <c r="I3">
-        <v>53.20626878503511</v>
+        <v>33.28917814532216</v>
       </c>
       <c r="J3">
-        <v>5.566800756146965</v>
+        <v>3.482939629155357</v>
       </c>
       <c r="K3">
-        <v>7465.191150008203</v>
+        <v>4670.691701489917</v>
       </c>
       <c r="L3">
         <v>0</v>
       </c>
       <c r="M3">
-        <v>5.566800756146965</v>
+        <v>3.482939629155357</v>
       </c>
       <c r="N3">
         <v>0.78</v>
@@ -3700,13 +4187,13 @@
         <v>0.357</v>
       </c>
       <c r="P3">
-        <v>14858937.49086372</v>
+        <v>11768690.68401728</v>
       </c>
       <c r="Q3">
         <v>0</v>
       </c>
       <c r="R3">
-        <v>14858937.49086372</v>
+        <v>11768690.68401728</v>
       </c>
     </row>
     <row r="4" spans="1:18">
@@ -3714,40 +4201,40 @@
         <v>0</v>
       </c>
       <c r="B4" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="C4" t="s">
-        <v>180</v>
+        <v>197</v>
       </c>
       <c r="D4" t="s">
-        <v>160</v>
+        <v>171</v>
       </c>
       <c r="E4" t="s">
-        <v>210</v>
+        <v>232</v>
       </c>
       <c r="F4">
-        <v>52.5</v>
+        <v>35</v>
       </c>
       <c r="G4">
-        <v>32.6219775</v>
+        <v>21.747985</v>
       </c>
       <c r="H4">
-        <v>1.174442954153146</v>
+        <v>1.106847939613521</v>
       </c>
       <c r="I4">
-        <v>52.7888293017808</v>
+        <v>33.1329328640867</v>
       </c>
       <c r="J4">
-        <v>5.523125405777738</v>
+        <v>3.466592187968678</v>
       </c>
       <c r="K4">
-        <v>7406.621631656062</v>
+        <v>4648.769455909757</v>
       </c>
       <c r="L4">
         <v>0</v>
       </c>
       <c r="M4">
-        <v>5.523125405777738</v>
+        <v>3.466592187968678</v>
       </c>
       <c r="N4">
         <v>0.78</v>
@@ -3756,51 +4243,54 @@
         <v>0.357</v>
       </c>
       <c r="P4">
-        <v>14793471.23657418</v>
+        <v>11744717.38847186</v>
       </c>
       <c r="Q4">
         <v>0</v>
       </c>
       <c r="R4">
-        <v>14793471.23657418</v>
+        <v>11744717.38847186</v>
       </c>
     </row>
     <row r="5" spans="1:18">
+      <c r="A5">
+        <v>0</v>
+      </c>
       <c r="B5" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="C5" t="s">
-        <v>181</v>
+        <v>198</v>
       </c>
       <c r="D5" t="s">
-        <v>161</v>
+        <v>173</v>
       </c>
       <c r="E5" t="s">
-        <v>197</v>
+        <v>232</v>
       </c>
       <c r="F5">
-        <v>70</v>
+        <v>46.66666666666666</v>
       </c>
       <c r="G5">
-        <v>43.49597</v>
+        <v>28.99731333333333</v>
       </c>
       <c r="H5">
-        <v>1.173425386541206</v>
+        <v>1.106491124113342</v>
       </c>
       <c r="I5">
-        <v>52.37654145261045</v>
+        <v>32.97812036981887</v>
       </c>
       <c r="J5">
-        <v>5.479989054311625</v>
+        <v>3.450394654673626</v>
       </c>
       <c r="K5">
-        <v>7348.774921612976</v>
+        <v>4627.048239810426</v>
       </c>
       <c r="L5">
         <v>0</v>
       </c>
       <c r="M5">
-        <v>12.5</v>
+        <v>3.450394654673626</v>
       </c>
       <c r="N5">
         <v>0.78</v>
@@ -3809,54 +4299,54 @@
         <v>0.357</v>
       </c>
       <c r="P5">
-        <v>0</v>
+        <v>11720968.06135838</v>
       </c>
       <c r="Q5">
-        <v>16916025.69007904</v>
+        <v>0</v>
       </c>
       <c r="R5">
-        <v>16916025.69007904</v>
+        <v>11720968.06135838</v>
       </c>
     </row>
     <row r="6" spans="1:18">
       <c r="A6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B6" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="C6" t="s">
-        <v>182</v>
+        <v>199</v>
       </c>
       <c r="D6" t="s">
-        <v>162</v>
+        <v>174</v>
       </c>
       <c r="E6" t="s">
-        <v>210</v>
+        <v>232</v>
       </c>
       <c r="F6">
-        <v>88.57142857142857</v>
+        <v>58.33333333333333</v>
       </c>
       <c r="G6">
-        <v>55.03571714285714</v>
+        <v>36.24664166666666</v>
       </c>
       <c r="H6">
-        <v>1.186073006943849</v>
+        <v>1.106136089144247</v>
       </c>
       <c r="I6">
-        <v>55.82499336961312</v>
+        <v>32.82434864541168</v>
       </c>
       <c r="J6">
-        <v>5.840789485867283</v>
+        <v>3.434306013781281</v>
       </c>
       <c r="K6">
-        <v>7832.615516337744</v>
+        <v>4605.473050600974</v>
       </c>
       <c r="L6">
         <v>0</v>
       </c>
       <c r="M6">
-        <v>5.840789485867283</v>
+        <v>3.434306013781281</v>
       </c>
       <c r="N6">
         <v>0.78</v>
@@ -3865,54 +4355,51 @@
         <v>0.357</v>
       </c>
       <c r="P6">
-        <v>15270309.1683757</v>
+        <v>11697382.46586773</v>
       </c>
       <c r="Q6">
         <v>0</v>
       </c>
       <c r="R6">
-        <v>15270309.1683757</v>
+        <v>11697382.46586773</v>
       </c>
     </row>
     <row r="7" spans="1:18">
-      <c r="A7">
-        <v>1</v>
-      </c>
       <c r="B7" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="C7" t="s">
-        <v>183</v>
+        <v>200</v>
       </c>
       <c r="D7" t="s">
-        <v>164</v>
+        <v>175</v>
       </c>
       <c r="E7" t="s">
-        <v>210</v>
+        <v>219</v>
       </c>
       <c r="F7">
-        <v>107.1428571428571</v>
+        <v>70</v>
       </c>
       <c r="G7">
-        <v>66.57546428571429</v>
+        <v>43.49597</v>
       </c>
       <c r="H7">
-        <v>1.162756148233837</v>
+        <v>1.10578392227535</v>
       </c>
       <c r="I7">
-        <v>40.5100404183818</v>
+        <v>32.6719349686737</v>
       </c>
       <c r="J7">
-        <v>4.238435221678609</v>
+        <v>3.418359461048181</v>
       </c>
       <c r="K7">
-        <v>5683.826400975448</v>
+        <v>4584.088404454831</v>
       </c>
       <c r="L7">
         <v>0</v>
       </c>
       <c r="M7">
-        <v>4.238435221678609</v>
+        <v>12.5</v>
       </c>
       <c r="N7">
         <v>0.78</v>
@@ -3921,13 +4408,13 @@
         <v>0.357</v>
       </c>
       <c r="P7">
-        <v>12881183.68212778</v>
+        <v>0</v>
       </c>
       <c r="Q7">
-        <v>0</v>
+        <v>16916025.69007904</v>
       </c>
       <c r="R7">
-        <v>12881183.68212778</v>
+        <v>16916025.69007904</v>
       </c>
     </row>
     <row r="8" spans="1:18">
@@ -3935,40 +4422,40 @@
         <v>1</v>
       </c>
       <c r="B8" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="C8" t="s">
-        <v>184</v>
+        <v>201</v>
       </c>
       <c r="D8" t="s">
-        <v>165</v>
+        <v>176</v>
       </c>
       <c r="E8" t="s">
-        <v>210</v>
+        <v>232</v>
       </c>
       <c r="F8">
-        <v>125.7142857142857</v>
+        <v>83</v>
       </c>
       <c r="G8">
-        <v>78.11521142857143</v>
+        <v>51.573793</v>
       </c>
       <c r="H8">
-        <v>1.115738742050339</v>
+        <v>1.119710300855911</v>
       </c>
       <c r="I8">
-        <v>29.22007725425708</v>
+        <v>36.73741190928028</v>
       </c>
       <c r="J8">
-        <v>3.057202691864417</v>
+        <v>3.843717236059687</v>
       </c>
       <c r="K8">
-        <v>4099.76995384402</v>
+        <v>5154.501687900761</v>
       </c>
       <c r="L8">
         <v>0</v>
       </c>
       <c r="M8">
-        <v>3.057202691864417</v>
+        <v>3.843717236059687</v>
       </c>
       <c r="N8">
         <v>0.78</v>
@@ -3977,13 +4464,13 @@
         <v>0.357</v>
       </c>
       <c r="P8">
-        <v>11145719.08235417</v>
+        <v>12298832.15123079</v>
       </c>
       <c r="Q8">
         <v>0</v>
       </c>
       <c r="R8">
-        <v>11145719.08235417</v>
+        <v>12298832.15123079</v>
       </c>
     </row>
     <row r="9" spans="1:18">
@@ -3991,40 +4478,40 @@
         <v>1</v>
       </c>
       <c r="B9" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="C9" t="s">
-        <v>185</v>
+        <v>202</v>
       </c>
       <c r="D9" t="s">
-        <v>166</v>
+        <v>177</v>
       </c>
       <c r="E9" t="s">
-        <v>210</v>
+        <v>232</v>
       </c>
       <c r="F9">
-        <v>144.2857142857143</v>
+        <v>96</v>
       </c>
       <c r="G9">
-        <v>89.65495857142857</v>
+        <v>59.651616</v>
       </c>
       <c r="H9">
-        <v>1.115317191212092</v>
+        <v>1.119256252706401</v>
       </c>
       <c r="I9">
-        <v>29.07195532739349</v>
+        <v>36.54416111973416</v>
       </c>
       <c r="J9">
-        <v>3.041705171115544</v>
+        <v>3.823498027572851</v>
       </c>
       <c r="K9">
-        <v>4078.987468569367</v>
+        <v>5127.387324935745</v>
       </c>
       <c r="L9">
         <v>0</v>
       </c>
       <c r="M9">
-        <v>3.041705171115544</v>
+        <v>3.823498027572851</v>
       </c>
       <c r="N9">
         <v>0.78</v>
@@ -4033,13 +4520,13 @@
         <v>0.357</v>
       </c>
       <c r="P9">
-        <v>11123095.47828716</v>
+        <v>12269067.25853081</v>
       </c>
       <c r="Q9">
         <v>0</v>
       </c>
       <c r="R9">
-        <v>11123095.47828716</v>
+        <v>12269067.25853081</v>
       </c>
     </row>
     <row r="10" spans="1:18">
@@ -4047,40 +4534,40 @@
         <v>1</v>
       </c>
       <c r="B10" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="C10" t="s">
-        <v>186</v>
+        <v>203</v>
       </c>
       <c r="D10" t="s">
-        <v>168</v>
+        <v>179</v>
       </c>
       <c r="E10" t="s">
-        <v>210</v>
+        <v>232</v>
       </c>
       <c r="F10">
-        <v>162.8571428571429</v>
+        <v>109</v>
       </c>
       <c r="G10">
-        <v>101.1947057142857</v>
+        <v>67.729439</v>
       </c>
       <c r="H10">
-        <v>1.114899295032658</v>
+        <v>1.0941471230195</v>
       </c>
       <c r="I10">
-        <v>28.92524151153204</v>
+        <v>23.97308000173327</v>
       </c>
       <c r="J10">
-        <v>3.026354976491401</v>
+        <v>2.508226247174013</v>
       </c>
       <c r="K10">
-        <v>4058.402550574498</v>
+        <v>3363.581561985295</v>
       </c>
       <c r="L10">
         <v>0</v>
       </c>
       <c r="M10">
-        <v>3.026354976491401</v>
+        <v>2.508226247174013</v>
       </c>
       <c r="N10">
         <v>0.78</v>
@@ -4089,13 +4576,13 @@
         <v>0.357</v>
       </c>
       <c r="P10">
-        <v>11100690.65433128</v>
+        <v>10346606.64537828</v>
       </c>
       <c r="Q10">
         <v>0</v>
       </c>
       <c r="R10">
-        <v>11100690.65433128</v>
+        <v>10346606.64537828</v>
       </c>
     </row>
     <row r="11" spans="1:18">
@@ -4103,40 +4590,40 @@
         <v>1</v>
       </c>
       <c r="B11" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="C11" t="s">
-        <v>187</v>
+        <v>204</v>
       </c>
       <c r="D11" t="s">
-        <v>169</v>
+        <v>180</v>
       </c>
       <c r="E11" t="s">
-        <v>210</v>
+        <v>232</v>
       </c>
       <c r="F11">
-        <v>181.4285714285714</v>
+        <v>122</v>
       </c>
       <c r="G11">
-        <v>112.7344528571429</v>
+        <v>75.80726199999999</v>
       </c>
       <c r="H11">
-        <v>1.114483797903926</v>
+        <v>1.076840207587721</v>
       </c>
       <c r="I11">
-        <v>28.77962505795164</v>
+        <v>19.66344940253924</v>
       </c>
       <c r="J11">
-        <v>3.011119595352877</v>
+        <v>2.057323460225436</v>
       </c>
       <c r="K11">
-        <v>4037.971599760115</v>
+        <v>2758.911906631514</v>
       </c>
       <c r="L11">
         <v>0</v>
       </c>
       <c r="M11">
-        <v>3.011119595352877</v>
+        <v>2.057323460225436</v>
       </c>
       <c r="N11">
         <v>0.78</v>
@@ -4145,51 +4632,54 @@
         <v>0.357</v>
       </c>
       <c r="P11">
-        <v>11078457.06105935</v>
+        <v>9953691.026075777</v>
       </c>
       <c r="Q11">
         <v>0</v>
       </c>
       <c r="R11">
-        <v>11078457.06105935</v>
+        <v>9953691.026075777</v>
       </c>
     </row>
     <row r="12" spans="1:18">
+      <c r="A12">
+        <v>1</v>
+      </c>
       <c r="B12" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="C12" t="s">
-        <v>188</v>
+        <v>205</v>
       </c>
       <c r="D12" t="s">
-        <v>170</v>
+        <v>181</v>
       </c>
       <c r="E12" t="s">
-        <v>197</v>
+        <v>232</v>
       </c>
       <c r="F12">
-        <v>200</v>
+        <v>135</v>
       </c>
       <c r="G12">
-        <v>124.2742</v>
+        <v>83.885085</v>
       </c>
       <c r="H12">
-        <v>1.114071880016727</v>
+        <v>1.07666152022615</v>
       </c>
       <c r="I12">
-        <v>28.63538402130232</v>
+        <v>19.59811120288173</v>
       </c>
       <c r="J12">
-        <v>2.996028119663593</v>
+        <v>2.050487334566479</v>
       </c>
       <c r="K12">
-        <v>4017.733629031271</v>
+        <v>2749.74452540034</v>
       </c>
       <c r="L12">
         <v>0</v>
       </c>
       <c r="M12">
-        <v>12.5</v>
+        <v>2.050487334566479</v>
       </c>
       <c r="N12">
         <v>0.78</v>
@@ -4198,54 +4688,54 @@
         <v>0.357</v>
       </c>
       <c r="P12">
-        <v>0</v>
+        <v>9953691.026075777</v>
       </c>
       <c r="Q12">
-        <v>16916025.69007904</v>
+        <v>0</v>
       </c>
       <c r="R12">
-        <v>16916025.69007904</v>
+        <v>9953691.026075777</v>
       </c>
     </row>
     <row r="13" spans="1:18">
       <c r="A13">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B13" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="C13" t="s">
-        <v>189</v>
+        <v>206</v>
       </c>
       <c r="D13" t="s">
-        <v>171</v>
+        <v>182</v>
       </c>
       <c r="E13" t="s">
-        <v>210</v>
+        <v>232</v>
       </c>
       <c r="F13">
-        <v>225</v>
+        <v>148</v>
       </c>
       <c r="G13">
-        <v>139.808475</v>
+        <v>91.962908</v>
       </c>
       <c r="H13">
-        <v>1.162983563484804</v>
+        <v>1.076483698351952</v>
       </c>
       <c r="I13">
-        <v>40.15793256262445</v>
+        <v>19.53314608939185</v>
       </c>
       <c r="J13">
-        <v>4.201595309344319</v>
+        <v>2.043690243713149</v>
       </c>
       <c r="K13">
-        <v>5634.423341736919</v>
+        <v>2740.629490624206</v>
       </c>
       <c r="L13">
         <v>0</v>
       </c>
       <c r="M13">
-        <v>4.201595309344319</v>
+        <v>2.043690243713149</v>
       </c>
       <c r="N13">
         <v>0.78</v>
@@ -4254,54 +4744,54 @@
         <v>0.357</v>
       </c>
       <c r="P13">
-        <v>12826728.20363096</v>
+        <v>9953691.026075777</v>
       </c>
       <c r="Q13">
         <v>0</v>
       </c>
       <c r="R13">
-        <v>12826728.20363096</v>
+        <v>9953691.026075777</v>
       </c>
     </row>
     <row r="14" spans="1:18">
       <c r="A14">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B14" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="C14" t="s">
-        <v>190</v>
+        <v>207</v>
       </c>
       <c r="D14" t="s">
-        <v>172</v>
+        <v>184</v>
       </c>
       <c r="E14" t="s">
-        <v>210</v>
+        <v>232</v>
       </c>
       <c r="F14">
-        <v>250</v>
+        <v>161</v>
       </c>
       <c r="G14">
-        <v>155.34275</v>
+        <v>100.040731</v>
       </c>
       <c r="H14">
-        <v>1.162108649016274</v>
+        <v>1.076306809133712</v>
       </c>
       <c r="I14">
-        <v>39.86686476386881</v>
+        <v>19.46856927275776</v>
       </c>
       <c r="J14">
-        <v>4.171141821828604</v>
+        <v>2.036933779110817</v>
       </c>
       <c r="K14">
-        <v>5593.584605908594</v>
+        <v>2731.568936463188</v>
       </c>
       <c r="L14">
         <v>0</v>
       </c>
       <c r="M14">
-        <v>4.171141821828604</v>
+        <v>2.036933779110817</v>
       </c>
       <c r="N14">
         <v>0.78</v>
@@ -4310,54 +4800,54 @@
         <v>0.357</v>
       </c>
       <c r="P14">
-        <v>12781728.97432105</v>
+        <v>9953691.026075777</v>
       </c>
       <c r="Q14">
         <v>0</v>
       </c>
       <c r="R14">
-        <v>12781728.97432105</v>
+        <v>9953691.026075777</v>
       </c>
     </row>
     <row r="15" spans="1:18">
       <c r="A15">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B15" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="C15" t="s">
-        <v>191</v>
+        <v>208</v>
       </c>
       <c r="D15" t="s">
-        <v>173</v>
+        <v>185</v>
       </c>
       <c r="E15" t="s">
-        <v>210</v>
+        <v>232</v>
       </c>
       <c r="F15">
-        <v>275</v>
+        <v>174</v>
       </c>
       <c r="G15">
-        <v>170.877025</v>
+        <v>108.118554</v>
       </c>
       <c r="H15">
-        <v>1.161243848814108</v>
+        <v>1.076130625242517</v>
       </c>
       <c r="I15">
-        <v>39.57954562247014</v>
+        <v>19.40432291003868</v>
       </c>
       <c r="J15">
-        <v>4.141080544273965</v>
+        <v>2.030211888838654</v>
       </c>
       <c r="K15">
-        <v>5553.271831482272</v>
+        <v>2722.554747170411</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>4.141080544273965</v>
+        <v>2.030211888838654</v>
       </c>
       <c r="N15">
         <v>0.78</v>
@@ -4366,51 +4856,54 @@
         <v>0.357</v>
       </c>
       <c r="P15">
-        <v>12737323.54371098</v>
+        <v>9953691.026075777</v>
       </c>
       <c r="Q15">
         <v>0</v>
       </c>
       <c r="R15">
-        <v>12737323.54371098</v>
+        <v>9953691.026075777</v>
       </c>
     </row>
     <row r="16" spans="1:18">
+      <c r="A16">
+        <v>1</v>
+      </c>
       <c r="B16" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="C16" t="s">
-        <v>192</v>
+        <v>209</v>
       </c>
       <c r="D16" t="s">
-        <v>174</v>
+        <v>186</v>
       </c>
       <c r="E16" t="s">
-        <v>197</v>
+        <v>232</v>
       </c>
       <c r="F16">
-        <v>300</v>
+        <v>187</v>
       </c>
       <c r="G16">
-        <v>186.4113</v>
+        <v>116.196377</v>
       </c>
       <c r="H16">
-        <v>1.160388980735331</v>
+        <v>1.075955361504761</v>
       </c>
       <c r="I16">
-        <v>39.295904647921</v>
+        <v>19.34045891005354</v>
       </c>
       <c r="J16">
-        <v>4.111404101485356</v>
+        <v>2.023530003949408</v>
       </c>
       <c r="K16">
-        <v>5513.475128173893</v>
+        <v>2713.594205896236</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>12.5</v>
+        <v>2.023530003949408</v>
       </c>
       <c r="N16">
         <v>0.78</v>
@@ -4419,54 +4912,51 @@
         <v>0.357</v>
       </c>
       <c r="P16">
-        <v>0</v>
+        <v>9953691.026075777</v>
       </c>
       <c r="Q16">
-        <v>16916025.69007904</v>
+        <v>0</v>
       </c>
       <c r="R16">
-        <v>16916025.69007904</v>
+        <v>9953691.026075777</v>
       </c>
     </row>
     <row r="17" spans="1:18">
-      <c r="A17">
-        <v>3</v>
-      </c>
       <c r="B17" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="C17" t="s">
-        <v>193</v>
+        <v>210</v>
       </c>
       <c r="D17" t="s">
-        <v>175</v>
+        <v>187</v>
       </c>
       <c r="E17" t="s">
-        <v>210</v>
+        <v>219</v>
       </c>
       <c r="F17">
-        <v>325</v>
+        <v>200</v>
       </c>
       <c r="G17">
-        <v>201.945575</v>
+        <v>124.2742</v>
       </c>
       <c r="H17">
-        <v>1.159543867105313</v>
+        <v>1.075780937916082</v>
       </c>
       <c r="I17">
-        <v>39.01587310407755</v>
+        <v>19.27695600613279</v>
       </c>
       <c r="J17">
-        <v>4.082105301821149</v>
+        <v>2.016885899379854</v>
       </c>
       <c r="K17">
-        <v>5474.184851848197</v>
+        <v>2704.684328786372</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>4.082105301821149</v>
+        <v>12.5</v>
       </c>
       <c r="N17">
         <v>0.78</v>
@@ -4475,54 +4965,54 @@
         <v>0.357</v>
       </c>
       <c r="P17">
-        <v>12650248.59621181</v>
+        <v>0</v>
       </c>
       <c r="Q17">
-        <v>0</v>
+        <v>16916025.69007904</v>
       </c>
       <c r="R17">
-        <v>12650248.59621181</v>
+        <v>16916025.69007904</v>
       </c>
     </row>
     <row r="18" spans="1:18">
       <c r="A18">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B18" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="C18" t="s">
-        <v>194</v>
+        <v>211</v>
       </c>
       <c r="D18" t="s">
-        <v>176</v>
+        <v>188</v>
       </c>
       <c r="E18" t="s">
-        <v>210</v>
+        <v>232</v>
       </c>
       <c r="F18">
-        <v>350</v>
+        <v>225</v>
       </c>
       <c r="G18">
-        <v>217.47985</v>
+        <v>139.808475</v>
       </c>
       <c r="H18">
-        <v>1.158708334579011</v>
+        <v>1.162983563484804</v>
       </c>
       <c r="I18">
-        <v>38.73938395471018</v>
+        <v>40.15793256262445</v>
       </c>
       <c r="J18">
-        <v>4.053177131496273</v>
+        <v>4.201595309344319</v>
       </c>
       <c r="K18">
-        <v>5435.391596879133</v>
+        <v>5634.423341736919</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>4.053177131496273</v>
+        <v>4.201595309344319</v>
       </c>
       <c r="N18">
         <v>0.78</v>
@@ -4531,54 +5021,54 @@
         <v>0.357</v>
       </c>
       <c r="P18">
-        <v>12607557.05811615</v>
+        <v>12826728.20363096</v>
       </c>
       <c r="Q18">
         <v>0</v>
       </c>
       <c r="R18">
-        <v>12607557.05811615</v>
+        <v>12826728.20363096</v>
       </c>
     </row>
     <row r="19" spans="1:18">
       <c r="A19">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B19" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="C19" t="s">
-        <v>195</v>
+        <v>212</v>
       </c>
       <c r="D19" t="s">
-        <v>177</v>
+        <v>189</v>
       </c>
       <c r="E19" t="s">
-        <v>210</v>
+        <v>232</v>
       </c>
       <c r="F19">
-        <v>375</v>
+        <v>250</v>
       </c>
       <c r="G19">
-        <v>233.014125</v>
+        <v>155.34275</v>
       </c>
       <c r="H19">
-        <v>1.157882214007413</v>
+        <v>1.162108649016275</v>
       </c>
       <c r="I19">
-        <v>38.46637181104102</v>
+        <v>39.86686476386878</v>
       </c>
       <c r="J19">
-        <v>4.02461274909323</v>
+        <v>4.1711418218286</v>
       </c>
       <c r="K19">
-        <v>5397.086188789004</v>
+        <v>5593.58460590859</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>4.02461274909323</v>
+        <v>4.1711418218286</v>
       </c>
       <c r="N19">
         <v>0.78</v>
@@ -4587,12 +5077,289 @@
         <v>0.357</v>
       </c>
       <c r="P19">
+        <v>12781728.97432105</v>
+      </c>
+      <c r="Q19">
+        <v>0</v>
+      </c>
+      <c r="R19">
+        <v>12781728.97432105</v>
+      </c>
+    </row>
+    <row r="20" spans="1:18">
+      <c r="A20">
+        <v>2</v>
+      </c>
+      <c r="B20" t="s">
+        <v>120</v>
+      </c>
+      <c r="C20" t="s">
+        <v>213</v>
+      </c>
+      <c r="D20" t="s">
+        <v>190</v>
+      </c>
+      <c r="E20" t="s">
+        <v>232</v>
+      </c>
+      <c r="F20">
+        <v>275</v>
+      </c>
+      <c r="G20">
+        <v>170.877025</v>
+      </c>
+      <c r="H20">
+        <v>1.161243848814108</v>
+      </c>
+      <c r="I20">
+        <v>39.57954562247014</v>
+      </c>
+      <c r="J20">
+        <v>4.141080544273965</v>
+      </c>
+      <c r="K20">
+        <v>5553.271831482272</v>
+      </c>
+      <c r="L20">
+        <v>0</v>
+      </c>
+      <c r="M20">
+        <v>4.141080544273965</v>
+      </c>
+      <c r="N20">
+        <v>0.78</v>
+      </c>
+      <c r="O20">
+        <v>0.357</v>
+      </c>
+      <c r="P20">
+        <v>12737323.54371098</v>
+      </c>
+      <c r="Q20">
+        <v>0</v>
+      </c>
+      <c r="R20">
+        <v>12737323.54371098</v>
+      </c>
+    </row>
+    <row r="21" spans="1:18">
+      <c r="B21" t="s">
+        <v>121</v>
+      </c>
+      <c r="C21" t="s">
+        <v>214</v>
+      </c>
+      <c r="D21" t="s">
+        <v>191</v>
+      </c>
+      <c r="E21" t="s">
+        <v>219</v>
+      </c>
+      <c r="F21">
+        <v>300</v>
+      </c>
+      <c r="G21">
+        <v>186.4113</v>
+      </c>
+      <c r="H21">
+        <v>1.160388980735331</v>
+      </c>
+      <c r="I21">
+        <v>39.295904647921</v>
+      </c>
+      <c r="J21">
+        <v>4.111404101485356</v>
+      </c>
+      <c r="K21">
+        <v>5513.475128173893</v>
+      </c>
+      <c r="L21">
+        <v>0</v>
+      </c>
+      <c r="M21">
+        <v>12.5</v>
+      </c>
+      <c r="N21">
+        <v>0.78</v>
+      </c>
+      <c r="O21">
+        <v>0.357</v>
+      </c>
+      <c r="P21">
+        <v>0</v>
+      </c>
+      <c r="Q21">
+        <v>16916025.69007904</v>
+      </c>
+      <c r="R21">
+        <v>16916025.69007904</v>
+      </c>
+    </row>
+    <row r="22" spans="1:18">
+      <c r="A22">
+        <v>3</v>
+      </c>
+      <c r="B22" t="s">
+        <v>122</v>
+      </c>
+      <c r="C22" t="s">
+        <v>215</v>
+      </c>
+      <c r="D22" t="s">
+        <v>192</v>
+      </c>
+      <c r="E22" t="s">
+        <v>232</v>
+      </c>
+      <c r="F22">
+        <v>325</v>
+      </c>
+      <c r="G22">
+        <v>201.945575</v>
+      </c>
+      <c r="H22">
+        <v>1.159543867105313</v>
+      </c>
+      <c r="I22">
+        <v>39.01587310407755</v>
+      </c>
+      <c r="J22">
+        <v>4.082105301821149</v>
+      </c>
+      <c r="K22">
+        <v>5474.184851848197</v>
+      </c>
+      <c r="L22">
+        <v>0</v>
+      </c>
+      <c r="M22">
+        <v>4.082105301821149</v>
+      </c>
+      <c r="N22">
+        <v>0.78</v>
+      </c>
+      <c r="O22">
+        <v>0.357</v>
+      </c>
+      <c r="P22">
+        <v>12650248.59621181</v>
+      </c>
+      <c r="Q22">
+        <v>0</v>
+      </c>
+      <c r="R22">
+        <v>12650248.59621181</v>
+      </c>
+    </row>
+    <row r="23" spans="1:18">
+      <c r="A23">
+        <v>3</v>
+      </c>
+      <c r="B23" t="s">
+        <v>123</v>
+      </c>
+      <c r="C23" t="s">
+        <v>216</v>
+      </c>
+      <c r="D23" t="s">
+        <v>193</v>
+      </c>
+      <c r="E23" t="s">
+        <v>232</v>
+      </c>
+      <c r="F23">
+        <v>350</v>
+      </c>
+      <c r="G23">
+        <v>217.47985</v>
+      </c>
+      <c r="H23">
+        <v>1.158708334579011</v>
+      </c>
+      <c r="I23">
+        <v>38.73938395471018</v>
+      </c>
+      <c r="J23">
+        <v>4.053177131496273</v>
+      </c>
+      <c r="K23">
+        <v>5435.391596879133</v>
+      </c>
+      <c r="L23">
+        <v>0</v>
+      </c>
+      <c r="M23">
+        <v>4.053177131496273</v>
+      </c>
+      <c r="N23">
+        <v>0.78</v>
+      </c>
+      <c r="O23">
+        <v>0.357</v>
+      </c>
+      <c r="P23">
+        <v>12607557.05811615</v>
+      </c>
+      <c r="Q23">
+        <v>0</v>
+      </c>
+      <c r="R23">
+        <v>12607557.05811615</v>
+      </c>
+    </row>
+    <row r="24" spans="1:18">
+      <c r="A24">
+        <v>3</v>
+      </c>
+      <c r="B24" t="s">
+        <v>124</v>
+      </c>
+      <c r="C24" t="s">
+        <v>217</v>
+      </c>
+      <c r="D24" t="s">
+        <v>194</v>
+      </c>
+      <c r="E24" t="s">
+        <v>232</v>
+      </c>
+      <c r="F24">
+        <v>375</v>
+      </c>
+      <c r="G24">
+        <v>233.014125</v>
+      </c>
+      <c r="H24">
+        <v>1.157882214007413</v>
+      </c>
+      <c r="I24">
+        <v>38.46637181104102</v>
+      </c>
+      <c r="J24">
+        <v>4.02461274909323</v>
+      </c>
+      <c r="K24">
+        <v>5397.086188789004</v>
+      </c>
+      <c r="L24">
+        <v>0</v>
+      </c>
+      <c r="M24">
+        <v>4.02461274909323</v>
+      </c>
+      <c r="N24">
+        <v>0.78</v>
+      </c>
+      <c r="O24">
+        <v>0.357</v>
+      </c>
+      <c r="P24">
         <v>12565415.25812815</v>
       </c>
-      <c r="Q19">
-        <v>0</v>
-      </c>
-      <c r="R19">
+      <c r="Q24">
+        <v>0</v>
+      </c>
+      <c r="R24">
         <v>12565415.25812815</v>
       </c>
     </row>
@@ -4603,7 +5370,7 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B42"/>
+  <dimension ref="A1:B52"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -4611,15 +5378,15 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="2" t="s">
-        <v>211</v>
+        <v>233</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>212</v>
+        <v>234</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>156</v>
+        <v>168</v>
       </c>
       <c r="B2">
         <v>4865822.962046022</v>
@@ -4627,15 +5394,15 @@
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>178</v>
+        <v>195</v>
       </c>
       <c r="B3">
-        <v>4135792.800668565</v>
+        <v>4393236.867939396</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>157</v>
+        <v>169</v>
       </c>
       <c r="B4">
         <v>4865822.962046022</v>
@@ -4643,15 +5410,15 @@
     </row>
     <row r="5" spans="1:2">
       <c r="A5" t="s">
-        <v>179</v>
+        <v>196</v>
       </c>
       <c r="B5">
-        <v>4139466.315406652</v>
+        <v>4394679.032460829</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" t="s">
-        <v>158</v>
+        <v>170</v>
       </c>
       <c r="B6">
         <v>4865822.962046022</v>
@@ -4659,39 +5426,39 @@
     </row>
     <row r="7" spans="1:2">
       <c r="A7" t="s">
-        <v>159</v>
+        <v>197</v>
       </c>
       <c r="B7">
-        <v>4670508.419581626</v>
+        <v>4396107.891518529</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" t="s">
-        <v>180</v>
+        <v>171</v>
       </c>
       <c r="B8">
-        <v>4143090.087806448</v>
+        <v>4865822.962046022</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" t="s">
-        <v>160</v>
+        <v>172</v>
       </c>
       <c r="B9">
-        <v>4865822.962046022</v>
+        <v>4670752.61542308</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" t="s">
-        <v>181</v>
+        <v>198</v>
       </c>
       <c r="B10">
-        <v>4146682.880612072</v>
+        <v>4397525.525516639</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" t="s">
-        <v>161</v>
+        <v>173</v>
       </c>
       <c r="B11">
         <v>4865822.962046022</v>
@@ -4699,15 +5466,15 @@
     </row>
     <row r="12" spans="1:2">
       <c r="A12" t="s">
-        <v>182</v>
+        <v>199</v>
       </c>
       <c r="B12">
-        <v>4102464.969322397</v>
+        <v>4398936.993196221</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" t="s">
-        <v>162</v>
+        <v>174</v>
       </c>
       <c r="B13">
         <v>4865822.962046022</v>
@@ -4715,143 +5482,143 @@
     </row>
     <row r="14" spans="1:2">
       <c r="A14" t="s">
-        <v>163</v>
+        <v>200</v>
       </c>
       <c r="B14">
-        <v>4350940.595701333</v>
+        <v>4400337.95394105</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15" t="s">
-        <v>183</v>
+        <v>175</v>
       </c>
       <c r="B15">
-        <v>4184732.086290783</v>
+        <v>4865822.962046022</v>
       </c>
     </row>
     <row r="16" spans="1:2">
       <c r="A16" t="s">
-        <v>164</v>
+        <v>201</v>
       </c>
       <c r="B16">
-        <v>4865822.962046022</v>
+        <v>4345608.822502185</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" t="s">
-        <v>184</v>
+        <v>176</v>
       </c>
       <c r="B17">
-        <v>4361077.354994712</v>
+        <v>4865822.962046022</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" t="s">
-        <v>165</v>
+        <v>202</v>
       </c>
       <c r="B18">
-        <v>4865822.962046022</v>
+        <v>4347371.703557869</v>
       </c>
     </row>
     <row r="19" spans="1:2">
       <c r="A19" t="s">
-        <v>185</v>
+        <v>177</v>
       </c>
       <c r="B19">
-        <v>4362725.689503628</v>
+        <v>4865822.962046022</v>
       </c>
     </row>
     <row r="20" spans="1:2">
       <c r="A20" t="s">
-        <v>166</v>
+        <v>178</v>
       </c>
       <c r="B20">
-        <v>4865822.962046022</v>
+        <v>4654072.429647412</v>
       </c>
     </row>
     <row r="21" spans="1:2">
       <c r="A21" t="s">
-        <v>167</v>
+        <v>203</v>
       </c>
       <c r="B21">
-        <v>4717086.584202969</v>
+        <v>4447137.738312458</v>
       </c>
     </row>
     <row r="22" spans="1:2">
       <c r="A22" t="s">
-        <v>186</v>
+        <v>179</v>
       </c>
       <c r="B22">
-        <v>4364360.964012891</v>
+        <v>4865822.962046022</v>
       </c>
     </row>
     <row r="23" spans="1:2">
       <c r="A23" t="s">
-        <v>168</v>
+        <v>204</v>
       </c>
       <c r="B23">
-        <v>4865822.962046022</v>
+        <v>4518611.886666242</v>
       </c>
     </row>
     <row r="24" spans="1:2">
       <c r="A24" t="s">
-        <v>187</v>
+        <v>180</v>
       </c>
       <c r="B24">
-        <v>4365988.06658065</v>
+        <v>4865822.962046022</v>
       </c>
     </row>
     <row r="25" spans="1:2">
       <c r="A25" t="s">
-        <v>169</v>
+        <v>205</v>
       </c>
       <c r="B25">
-        <v>4865822.962046022</v>
+        <v>4519361.814866357</v>
       </c>
     </row>
     <row r="26" spans="1:2">
       <c r="A26" t="s">
-        <v>188</v>
+        <v>181</v>
       </c>
       <c r="B26">
-        <v>4367602.35073249</v>
+        <v>4865822.962046022</v>
       </c>
     </row>
     <row r="27" spans="1:2">
       <c r="A27" t="s">
-        <v>170</v>
+        <v>206</v>
       </c>
       <c r="B27">
-        <v>4865822.962046022</v>
+        <v>4520108.357883521</v>
       </c>
     </row>
     <row r="28" spans="1:2">
       <c r="A28" t="s">
-        <v>189</v>
+        <v>182</v>
       </c>
       <c r="B28">
-        <v>4183913.78418617</v>
+        <v>4865822.962046022</v>
       </c>
     </row>
     <row r="29" spans="1:2">
       <c r="A29" t="s">
-        <v>171</v>
+        <v>183</v>
       </c>
       <c r="B29">
-        <v>4865822.962046022</v>
+        <v>4814325.508955292</v>
       </c>
     </row>
     <row r="30" spans="1:2">
       <c r="A30" t="s">
-        <v>190</v>
+        <v>207</v>
       </c>
       <c r="B30">
-        <v>4187063.719184039</v>
+        <v>4520851.230108246</v>
       </c>
     </row>
     <row r="31" spans="1:2">
       <c r="A31" t="s">
-        <v>172</v>
+        <v>184</v>
       </c>
       <c r="B31">
         <v>4865822.962046022</v>
@@ -4859,15 +5626,15 @@
     </row>
     <row r="32" spans="1:2">
       <c r="A32" t="s">
-        <v>191</v>
+        <v>208</v>
       </c>
       <c r="B32">
-        <v>4190181.904528601</v>
+        <v>4521591.382969386</v>
       </c>
     </row>
     <row r="33" spans="1:2">
       <c r="A33" t="s">
-        <v>173</v>
+        <v>185</v>
       </c>
       <c r="B33">
         <v>4865822.962046022</v>
@@ -4875,15 +5642,15 @@
     </row>
     <row r="34" spans="1:2">
       <c r="A34" t="s">
-        <v>192</v>
+        <v>209</v>
       </c>
       <c r="B34">
-        <v>4193268.845902502</v>
+        <v>4522327.910742506</v>
       </c>
     </row>
     <row r="35" spans="1:2">
       <c r="A35" t="s">
-        <v>174</v>
+        <v>186</v>
       </c>
       <c r="B35">
         <v>4865822.962046022</v>
@@ -4891,15 +5658,15 @@
     </row>
     <row r="36" spans="1:2">
       <c r="A36" t="s">
-        <v>193</v>
+        <v>210</v>
       </c>
       <c r="B36">
-        <v>4196325.037872925</v>
+        <v>4523061.146139761</v>
       </c>
     </row>
     <row r="37" spans="1:2">
       <c r="A37" t="s">
-        <v>175</v>
+        <v>187</v>
       </c>
       <c r="B37">
         <v>4865822.962046022</v>
@@ -4907,15 +5674,15 @@
     </row>
     <row r="38" spans="1:2">
       <c r="A38" t="s">
-        <v>194</v>
+        <v>211</v>
       </c>
       <c r="B38">
-        <v>4199350.964204381</v>
+        <v>4183913.78418617</v>
       </c>
     </row>
     <row r="39" spans="1:2">
       <c r="A39" t="s">
-        <v>176</v>
+        <v>188</v>
       </c>
       <c r="B39">
         <v>4865822.962046022</v>
@@ -4923,15 +5690,15 @@
     </row>
     <row r="40" spans="1:2">
       <c r="A40" t="s">
-        <v>195</v>
+        <v>212</v>
       </c>
       <c r="B40">
-        <v>4202347.09816077</v>
+        <v>4187063.719184039</v>
       </c>
     </row>
     <row r="41" spans="1:2">
       <c r="A41" t="s">
-        <v>177</v>
+        <v>189</v>
       </c>
       <c r="B41">
         <v>4865822.962046022</v>
@@ -4939,9 +5706,89 @@
     </row>
     <row r="42" spans="1:2">
       <c r="A42" t="s">
-        <v>196</v>
+        <v>213</v>
       </c>
       <c r="B42">
+        <v>4190181.9045286</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2">
+      <c r="A43" t="s">
+        <v>190</v>
+      </c>
+      <c r="B43">
+        <v>4865822.962046022</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2">
+      <c r="A44" t="s">
+        <v>214</v>
+      </c>
+      <c r="B44">
+        <v>4193268.845902503</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2">
+      <c r="A45" t="s">
+        <v>191</v>
+      </c>
+      <c r="B45">
+        <v>4865822.962046022</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2">
+      <c r="A46" t="s">
+        <v>215</v>
+      </c>
+      <c r="B46">
+        <v>4196325.037872925</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2">
+      <c r="A47" t="s">
+        <v>192</v>
+      </c>
+      <c r="B47">
+        <v>4865822.962046022</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2">
+      <c r="A48" t="s">
+        <v>216</v>
+      </c>
+      <c r="B48">
+        <v>4199350.964204381</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2">
+      <c r="A49" t="s">
+        <v>193</v>
+      </c>
+      <c r="B49">
+        <v>4865822.962046022</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2">
+      <c r="A50" t="s">
+        <v>217</v>
+      </c>
+      <c r="B50">
+        <v>4202347.09816077</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2">
+      <c r="A51" t="s">
+        <v>194</v>
+      </c>
+      <c r="B51">
+        <v>4865822.962046022</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2">
+      <c r="A52" t="s">
+        <v>218</v>
+      </c>
+      <c r="B52">
         <v>4205313.902797125</v>
       </c>
     </row>
@@ -4960,36 +5807,36 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="A1" s="2" t="s">
-        <v>213</v>
+        <v>235</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>214</v>
+        <v>236</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>215</v>
+        <v>237</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>216</v>
+        <v>238</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>217</v>
+        <v>239</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>218</v>
+        <v>240</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>219</v>
+        <v>241</v>
       </c>
     </row>
     <row r="2" spans="1:7">
       <c r="A2" t="s">
-        <v>163</v>
+        <v>178</v>
       </c>
       <c r="B2">
         <v>17.65832997587177</v>
       </c>
       <c r="C2">
-        <v>17.658329975979</v>
+        <v>17.65832997587195</v>
       </c>
       <c r="D2">
         <v>65.15454188318284</v>
@@ -4998,15 +5845,15 @@
         <v>1150.5204</v>
       </c>
       <c r="F2">
-        <v>1150.520400006987</v>
+        <v>1150.520400000012</v>
       </c>
       <c r="G2">
-        <v>6.072777540539775E-10</v>
+        <v>1.046198092062246E-12</v>
       </c>
     </row>
     <row r="3" spans="1:7">
       <c r="A3" t="s">
-        <v>196</v>
+        <v>218</v>
       </c>
       <c r="B3">
         <v>45.91165732334162</v>
@@ -5029,7 +5876,7 @@
     </row>
     <row r="4" spans="1:7">
       <c r="A4" t="s">
-        <v>220</v>
+        <v>242</v>
       </c>
       <c r="B4">
         <v>35.31665995174353</v>

--- a/examples/wangetal2018/out/ResultFiles/AC_0.5_nfc.xlsx
+++ b/examples/wangetal2018/out/ResultFiles/AC_0.5_nfc.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="507" uniqueCount="243">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="619" uniqueCount="275">
   <si>
     <t xml:space="preserve">
 ---------DISCLAIMER---------
@@ -450,10 +450,16 @@
     <t>Erosional velocity (m/s)</t>
   </si>
   <si>
-    <t>PI01_pre_C_0_0</t>
-  </si>
-  <si>
-    <t>PI01_pre_C_0_1</t>
+    <t>PI01_0_pre_C_0_0</t>
+  </si>
+  <si>
+    <t>PI01_0_remaining</t>
+  </si>
+  <si>
+    <t>PI01_1_pre_C_0_1</t>
+  </si>
+  <si>
+    <t>PI01_1_remaining</t>
   </si>
   <si>
     <t>PI01_pre_C_0_2</t>
@@ -462,7 +468,10 @@
     <t>PI01_remaining</t>
   </si>
   <si>
-    <t>PI02_pre_C_0_3</t>
+    <t>PI02_0_pre_C_0_3</t>
+  </si>
+  <si>
+    <t>PI02_0_remaining</t>
   </si>
   <si>
     <t>PI02_pre_C_0_4</t>
@@ -471,7 +480,10 @@
     <t>PI02_remaining</t>
   </si>
   <si>
-    <t>PI03_pre_C_1_0</t>
+    <t>PI03_0_pre_C_1_0</t>
+  </si>
+  <si>
+    <t>PI03_0_remaining</t>
   </si>
   <si>
     <t>PI03_pre_C_1_1</t>
@@ -480,10 +492,16 @@
     <t>PI03_remaining</t>
   </si>
   <si>
-    <t>PI04_pre_C_1_2</t>
-  </si>
-  <si>
-    <t>PI04_pre_C_1_3</t>
+    <t>PI04_0_pre_C_1_2</t>
+  </si>
+  <si>
+    <t>PI04_0_remaining</t>
+  </si>
+  <si>
+    <t>PI04_1_pre_C_1_3</t>
+  </si>
+  <si>
+    <t>PI04_1_remaining</t>
   </si>
   <si>
     <t>PI04_pre_C_1_4</t>
@@ -495,10 +513,16 @@
     <t>PI04_remaining</t>
   </si>
   <si>
-    <t>PI05_pre_C_1_6</t>
-  </si>
-  <si>
-    <t>PI05_pre_C_1_7</t>
+    <t>PI05_0_pre_C_1_6</t>
+  </si>
+  <si>
+    <t>PI05_0_remaining</t>
+  </si>
+  <si>
+    <t>PI05_1_pre_C_1_7</t>
+  </si>
+  <si>
+    <t>PI05_1_remaining</t>
   </si>
   <si>
     <t>PI05_pre_C_1_8</t>
@@ -507,28 +531,52 @@
     <t>PI05_remaining</t>
   </si>
   <si>
-    <t>PI06_pre_C_2_0</t>
-  </si>
-  <si>
-    <t>PI06_remaining</t>
-  </si>
-  <si>
-    <t>PI07_pre_C_2_2</t>
-  </si>
-  <si>
-    <t>PI07_remaining</t>
-  </si>
-  <si>
-    <t>PI08_pre_C_3_0</t>
-  </si>
-  <si>
-    <t>PI08_remaining</t>
-  </si>
-  <si>
-    <t>PI09_pre_C_3_2</t>
-  </si>
-  <si>
-    <t>PI09_remaining</t>
+    <t>PI06_0</t>
+  </si>
+  <si>
+    <t>PI06_1_pre_C_2_0</t>
+  </si>
+  <si>
+    <t>PI06_1_remaining</t>
+  </si>
+  <si>
+    <t>PI06</t>
+  </si>
+  <si>
+    <t>PI07_0_remaining</t>
+  </si>
+  <si>
+    <t>PI07_1_pre_C_2_2</t>
+  </si>
+  <si>
+    <t>PI07_1_remaining</t>
+  </si>
+  <si>
+    <t>PI07</t>
+  </si>
+  <si>
+    <t>PI08_0</t>
+  </si>
+  <si>
+    <t>PI08_1_pre_C_3_0</t>
+  </si>
+  <si>
+    <t>PI08_1_remaining</t>
+  </si>
+  <si>
+    <t>PI08</t>
+  </si>
+  <si>
+    <t>PI09_0_remaining</t>
+  </si>
+  <si>
+    <t>PI09_1_pre_C_3_2</t>
+  </si>
+  <si>
+    <t>PI09_1_remaining</t>
+  </si>
+  <si>
+    <t>PI09</t>
   </si>
   <si>
     <t>N01</t>
@@ -537,9 +585,15 @@
     <t>N_post_C_0_0</t>
   </si>
   <si>
+    <t>N01_0</t>
+  </si>
+  <si>
     <t>N_post_C_0_1</t>
   </si>
   <si>
+    <t>N01_1</t>
+  </si>
+  <si>
     <t>N_post_C_0_2</t>
   </si>
   <si>
@@ -549,6 +603,9 @@
     <t>N_post_C_0_3</t>
   </si>
   <si>
+    <t>N02_0</t>
+  </si>
+  <si>
     <t>N_post_C_0_4</t>
   </si>
   <si>
@@ -558,6 +615,9 @@
     <t>N_post_C_1_0</t>
   </si>
   <si>
+    <t>N03_C_0</t>
+  </si>
+  <si>
     <t>N_post_C_1_1</t>
   </si>
   <si>
@@ -567,9 +627,15 @@
     <t>N_post_C_1_2</t>
   </si>
   <si>
+    <t>N04_0</t>
+  </si>
+  <si>
     <t>N_post_C_1_3</t>
   </si>
   <si>
+    <t>N04_1</t>
+  </si>
+  <si>
     <t>N_post_C_1_4</t>
   </si>
   <si>
@@ -582,34 +648,64 @@
     <t>N_post_C_1_6</t>
   </si>
   <si>
+    <t>N05_0</t>
+  </si>
+  <si>
     <t>N_post_C_1_7</t>
   </si>
   <si>
+    <t>N05_1</t>
+  </si>
+  <si>
     <t>N_post_C_1_8</t>
   </si>
   <si>
     <t>N06_C</t>
   </si>
   <si>
+    <t>N06_C_0</t>
+  </si>
+  <si>
     <t>N_post_C_2_0</t>
   </si>
   <si>
+    <t>N06_C_1</t>
+  </si>
+  <si>
     <t>N_post_C_2_1</t>
   </si>
   <si>
+    <t>N07_0</t>
+  </si>
+  <si>
     <t>N_post_C_2_2</t>
   </si>
   <si>
+    <t>N07_1</t>
+  </si>
+  <si>
     <t>N08_C</t>
   </si>
   <si>
+    <t>N08_C_0</t>
+  </si>
+  <si>
     <t>N_post_C_3_0</t>
   </si>
   <si>
+    <t>N08_C_1</t>
+  </si>
+  <si>
     <t>N_post_C_3_1</t>
   </si>
   <si>
+    <t>N09_0</t>
+  </si>
+  <si>
     <t>N_post_C_3_2</t>
+  </si>
+  <si>
+    <t>N09_1</t>
   </si>
   <si>
     <t>N_pre_C_0_0</t>
@@ -1375,7 +1471,7 @@
         <v>38</v>
       </c>
       <c r="B2">
-        <v>0.7197487873313035</v>
+        <v>0.7480231655657853</v>
       </c>
       <c r="C2" t="s">
         <v>70</v>
@@ -1397,7 +1493,7 @@
         <v>40</v>
       </c>
       <c r="B4">
-        <v>0.1456078144229475</v>
+        <v>0.1486150257458985</v>
       </c>
       <c r="C4" t="s">
         <v>70</v>
@@ -1408,7 +1504,7 @@
         <v>41</v>
       </c>
       <c r="B5">
-        <v>0.03219320314418457</v>
+        <v>0.03225829042830805</v>
       </c>
       <c r="C5" t="s">
         <v>70</v>
@@ -1430,7 +1526,7 @@
         <v>43</v>
       </c>
       <c r="B7">
-        <v>0.006652514290263514</v>
+        <v>0.006665964150651951</v>
       </c>
       <c r="C7" t="s">
         <v>70</v>
@@ -1441,7 +1537,7 @@
         <v>44</v>
       </c>
       <c r="B8">
-        <v>0.01577185434331481</v>
+        <v>0.01580374142085102</v>
       </c>
       <c r="C8" t="s">
         <v>70</v>
@@ -1474,7 +1570,7 @@
         <v>47</v>
       </c>
       <c r="B11">
-        <v>0.4356778689614486</v>
+        <v>0.4595510387684817</v>
       </c>
       <c r="C11" t="s">
         <v>70</v>
@@ -1518,7 +1614,7 @@
         <v>51</v>
       </c>
       <c r="B15">
-        <v>0.008300047736693166</v>
+        <v>0.008504988411985933</v>
       </c>
       <c r="C15" t="s">
         <v>70</v>
@@ -1529,7 +1625,7 @@
         <v>52</v>
       </c>
       <c r="B16">
-        <v>0.05528393168761367</v>
+        <v>0.05621100016341336</v>
       </c>
       <c r="C16" t="s">
         <v>70</v>
@@ -1540,7 +1636,7 @@
         <v>53</v>
       </c>
       <c r="B17">
-        <v>0.003243541022854256</v>
+        <v>0.003395104754211249</v>
       </c>
       <c r="C17" t="s">
         <v>70</v>
@@ -1636,7 +1732,7 @@
         <v>61</v>
       </c>
       <c r="B26">
-        <v>86395.24252159926</v>
+        <v>91139.43584259163</v>
       </c>
       <c r="C26" t="s">
         <v>76</v>
@@ -1647,7 +1743,7 @@
         <v>62</v>
       </c>
       <c r="B27">
-        <v>16968.12278768389</v>
+        <v>17897.89890319461</v>
       </c>
       <c r="C27" t="s">
         <v>72</v>
@@ -1658,7 +1754,7 @@
         <v>62</v>
       </c>
       <c r="B28">
-        <v>707.0051161534956</v>
+        <v>745.7457876331086</v>
       </c>
       <c r="C28" t="s">
         <v>73</v>
@@ -1691,7 +1787,7 @@
         <v>65</v>
       </c>
       <c r="B31">
-        <v>229530331.4575376</v>
+        <v>233798092.8378574</v>
       </c>
       <c r="C31" t="s">
         <v>78</v>
@@ -1765,7 +1861,7 @@
         <v>650</v>
       </c>
       <c r="B41">
-        <v>400</v>
+        <v>400.0000000000002</v>
       </c>
       <c r="C41" t="s">
         <v>85</v>
@@ -1841,22 +1937,22 @@
         <v>102</v>
       </c>
       <c r="B52">
-        <v>3.499458076789588</v>
+        <v>3.712822449268846</v>
       </c>
       <c r="C52">
         <v>0</v>
       </c>
       <c r="D52">
-        <v>4692.843270136373</v>
+        <v>4978.969160918507</v>
       </c>
       <c r="E52">
-        <v>11792919.01210872</v>
+        <v>12106254.18251517</v>
       </c>
       <c r="F52">
         <v>0</v>
       </c>
       <c r="G52">
-        <v>33.44705786892604</v>
+        <v>35.48634805525908</v>
       </c>
       <c r="H52">
         <v>0</v>
@@ -1867,22 +1963,22 @@
         <v>103</v>
       </c>
       <c r="B53">
-        <v>3.482939629155357</v>
+        <v>3.694274907726207</v>
       </c>
       <c r="C53">
         <v>0</v>
       </c>
       <c r="D53">
-        <v>4670.691701489917</v>
+        <v>4954.096536758998</v>
       </c>
       <c r="E53">
-        <v>11768690.68401728</v>
+        <v>12078987.97075614</v>
       </c>
       <c r="F53">
         <v>0</v>
       </c>
       <c r="G53">
-        <v>33.28917814532216</v>
+        <v>35.30907469415853</v>
       </c>
       <c r="H53">
         <v>0</v>
@@ -1893,22 +1989,22 @@
         <v>104</v>
       </c>
       <c r="B54">
-        <v>3.466592187968678</v>
+        <v>3.675866416662363</v>
       </c>
       <c r="C54">
         <v>0</v>
       </c>
       <c r="D54">
-        <v>4648.769455909757</v>
+        <v>4929.410382072562</v>
       </c>
       <c r="E54">
-        <v>11744717.38847186</v>
+        <v>12051931.50382208</v>
       </c>
       <c r="F54">
         <v>0</v>
       </c>
       <c r="G54">
-        <v>33.1329328640867</v>
+        <v>35.13313034723929</v>
       </c>
       <c r="H54">
         <v>0</v>
@@ -1919,22 +2015,22 @@
         <v>105</v>
       </c>
       <c r="B55">
-        <v>3.450394654673626</v>
+        <v>3.65759532173972</v>
       </c>
       <c r="C55">
         <v>0</v>
       </c>
       <c r="D55">
-        <v>4627.048239810426</v>
+        <v>4904.9084783594</v>
       </c>
       <c r="E55">
-        <v>11720968.06135838</v>
+        <v>12025082.23056671</v>
       </c>
       <c r="F55">
         <v>0</v>
       </c>
       <c r="G55">
-        <v>32.97812036981887</v>
+        <v>34.95849920270307</v>
       </c>
       <c r="H55">
         <v>0</v>
@@ -1945,22 +2041,22 @@
         <v>106</v>
       </c>
       <c r="B56">
-        <v>3.434306013781281</v>
+        <v>3.639449428058218</v>
       </c>
       <c r="C56">
         <v>0</v>
       </c>
       <c r="D56">
-        <v>4605.473050600974</v>
+        <v>4880.574472014631</v>
       </c>
       <c r="E56">
-        <v>11697382.46586773</v>
+        <v>11998422.11784048</v>
       </c>
       <c r="F56">
         <v>0</v>
       </c>
       <c r="G56">
-        <v>32.82434864541168</v>
+        <v>34.785064704352</v>
       </c>
       <c r="H56">
         <v>0</v>
@@ -1971,7 +2067,7 @@
         <v>107</v>
       </c>
       <c r="B57">
-        <v>3.418359461048181</v>
+        <v>3.621383319123625</v>
       </c>
       <c r="C57">
         <v>12.5</v>
@@ -1986,7 +2082,7 @@
         <v>16916025.69007904</v>
       </c>
       <c r="G57">
-        <v>32.6719349686737</v>
+        <v>34.61239277122915</v>
       </c>
       <c r="H57">
         <v>0</v>
@@ -1997,22 +2093,22 @@
         <v>108</v>
       </c>
       <c r="B58">
-        <v>3.843717236059687</v>
+        <v>4.071502188759833</v>
       </c>
       <c r="C58">
         <v>0</v>
       </c>
       <c r="D58">
-        <v>5154.501687900761</v>
+        <v>5459.965865170711</v>
       </c>
       <c r="E58">
-        <v>12298832.15123079</v>
+        <v>12634599.23977768</v>
       </c>
       <c r="F58">
         <v>0</v>
       </c>
       <c r="G58">
-        <v>36.73741190928028</v>
+        <v>38.91453085954409</v>
       </c>
       <c r="H58">
         <v>0</v>
@@ -2023,22 +2119,22 @@
         <v>109</v>
       </c>
       <c r="B59">
-        <v>3.823498027572851</v>
+        <v>4.04901747742736</v>
       </c>
       <c r="C59">
         <v>0</v>
       </c>
       <c r="D59">
-        <v>5127.387324935745</v>
+        <v>5429.813417579639</v>
       </c>
       <c r="E59">
-        <v>12269067.25853081</v>
+        <v>12601419.4133833</v>
       </c>
       <c r="F59">
         <v>0</v>
       </c>
       <c r="G59">
-        <v>36.54416111973416</v>
+        <v>38.69962688738584</v>
       </c>
       <c r="H59">
         <v>0</v>
@@ -2049,22 +2145,22 @@
         <v>110</v>
       </c>
       <c r="B60">
-        <v>2.508226247174013</v>
+        <v>2.651211887480207</v>
       </c>
       <c r="C60">
         <v>0</v>
       </c>
       <c r="D60">
-        <v>3363.581561985295</v>
+        <v>3555.328165348707</v>
       </c>
       <c r="E60">
-        <v>10346606.64537828</v>
+        <v>10554287.48727263</v>
       </c>
       <c r="F60">
         <v>0</v>
       </c>
       <c r="G60">
-        <v>23.97308000173327</v>
+        <v>25.33970559941271</v>
       </c>
       <c r="H60">
         <v>0</v>
@@ -2075,13 +2171,13 @@
         <v>111</v>
       </c>
       <c r="B61">
-        <v>2.057323460225436</v>
+        <v>2.165949623175708</v>
       </c>
       <c r="C61">
         <v>0</v>
       </c>
       <c r="D61">
-        <v>2758.911906631514</v>
+        <v>2904.581763671088</v>
       </c>
       <c r="E61">
         <v>9953691.026075777</v>
@@ -2090,7 +2186,7 @@
         <v>0</v>
       </c>
       <c r="G61">
-        <v>19.66344940253924</v>
+        <v>20.70167460157071</v>
       </c>
       <c r="H61">
         <v>0</v>
@@ -2101,13 +2197,13 @@
         <v>112</v>
       </c>
       <c r="B62">
-        <v>2.050487334566479</v>
+        <v>2.158284482254466</v>
       </c>
       <c r="C62">
         <v>0</v>
       </c>
       <c r="D62">
-        <v>2749.74452540034</v>
+        <v>2894.302656392884</v>
       </c>
       <c r="E62">
         <v>9953691.026075777</v>
@@ -2116,7 +2212,7 @@
         <v>0</v>
       </c>
       <c r="G62">
-        <v>19.59811120288173</v>
+        <v>20.62841285465433</v>
       </c>
       <c r="H62">
         <v>0</v>
@@ -2127,13 +2223,13 @@
         <v>113</v>
       </c>
       <c r="B63">
-        <v>2.043690243713149</v>
+        <v>2.15066641462957</v>
       </c>
       <c r="C63">
         <v>0</v>
       </c>
       <c r="D63">
-        <v>2740.629490624206</v>
+        <v>2884.086675346545</v>
       </c>
       <c r="E63">
         <v>9953691.026075777</v>
@@ -2142,7 +2238,7 @@
         <v>0</v>
       </c>
       <c r="G63">
-        <v>19.53314608939185</v>
+        <v>20.55560102404852</v>
       </c>
       <c r="H63">
         <v>0</v>
@@ -2153,13 +2249,13 @@
         <v>114</v>
       </c>
       <c r="B64">
-        <v>2.036933779110817</v>
+        <v>2.143110269997627</v>
       </c>
       <c r="C64">
         <v>0</v>
       </c>
       <c r="D64">
-        <v>2731.568936463188</v>
+        <v>2873.953734272217</v>
       </c>
       <c r="E64">
         <v>9953691.026075777</v>
@@ -2168,7 +2264,7 @@
         <v>0</v>
       </c>
       <c r="G64">
-        <v>19.46856927275776</v>
+        <v>20.48338103991817</v>
       </c>
       <c r="H64">
         <v>0</v>
@@ -2179,13 +2275,13 @@
         <v>115</v>
       </c>
       <c r="B65">
-        <v>2.030211888838654</v>
+        <v>2.135598101815749</v>
       </c>
       <c r="C65">
         <v>0</v>
       </c>
       <c r="D65">
-        <v>2722.554747170411</v>
+        <v>2863.879766496955</v>
       </c>
       <c r="E65">
         <v>9953691.026075777</v>
@@ -2194,7 +2290,7 @@
         <v>0</v>
       </c>
       <c r="G65">
-        <v>19.40432291003868</v>
+        <v>20.41158137311636</v>
       </c>
       <c r="H65">
         <v>0</v>
@@ -2205,13 +2301,13 @@
         <v>116</v>
       </c>
       <c r="B66">
-        <v>2.023530003949408</v>
+        <v>2.128122766857393</v>
       </c>
       <c r="C66">
         <v>0</v>
       </c>
       <c r="D66">
-        <v>2713.594205896236</v>
+        <v>2853.855192811102</v>
       </c>
       <c r="E66">
         <v>9953691.026075777</v>
@@ -2220,7 +2316,7 @@
         <v>0</v>
       </c>
       <c r="G66">
-        <v>19.34045891005354</v>
+        <v>20.34013375024011</v>
       </c>
       <c r="H66">
         <v>0</v>
@@ -2231,7 +2327,7 @@
         <v>117</v>
       </c>
       <c r="B67">
-        <v>2.016885899379854</v>
+        <v>2.120673415427367</v>
       </c>
       <c r="C67">
         <v>12.5</v>
@@ -2246,7 +2342,7 @@
         <v>16916025.69007904</v>
       </c>
       <c r="G67">
-        <v>19.27695600613279</v>
+        <v>20.26893447226658</v>
       </c>
       <c r="H67">
         <v>0</v>
@@ -2257,22 +2353,22 @@
         <v>118</v>
       </c>
       <c r="B68">
-        <v>4.201595309344319</v>
+        <v>4.42365841703011</v>
       </c>
       <c r="C68">
         <v>0</v>
       </c>
       <c r="D68">
-        <v>5634.423341736919</v>
+        <v>5932.214410405718</v>
       </c>
       <c r="E68">
-        <v>12826728.20363096</v>
+        <v>13155296.46749666</v>
       </c>
       <c r="F68">
         <v>0</v>
       </c>
       <c r="G68">
-        <v>40.15793256262445</v>
+        <v>42.28036336486285</v>
       </c>
       <c r="H68">
         <v>0</v>
@@ -2283,22 +2379,22 @@
         <v>119</v>
       </c>
       <c r="B69">
-        <v>4.1711418218286</v>
+        <v>4.38870070420128</v>
       </c>
       <c r="C69">
         <v>0</v>
       </c>
       <c r="D69">
-        <v>5593.58460590859</v>
+        <v>5885.335418348</v>
       </c>
       <c r="E69">
-        <v>12781728.97432105</v>
+        <v>13103521.20300996</v>
       </c>
       <c r="F69">
         <v>0</v>
       </c>
       <c r="G69">
-        <v>39.86686476386878</v>
+        <v>41.94624516190274</v>
       </c>
       <c r="H69">
         <v>0</v>
@@ -2309,22 +2405,22 @@
         <v>120</v>
       </c>
       <c r="B70">
-        <v>4.141080544273965</v>
+        <v>4.354195018393445</v>
       </c>
       <c r="C70">
         <v>0</v>
       </c>
       <c r="D70">
-        <v>5553.271831482272</v>
+        <v>5839.062603565977</v>
       </c>
       <c r="E70">
-        <v>12737323.54371098</v>
+        <v>13052434.20924805</v>
       </c>
       <c r="F70">
         <v>0</v>
       </c>
       <c r="G70">
-        <v>39.57954562247014</v>
+        <v>41.6164473347259</v>
       </c>
       <c r="H70">
         <v>0</v>
@@ -2335,7 +2431,7 @@
         <v>121</v>
       </c>
       <c r="B71">
-        <v>4.111404101485356</v>
+        <v>4.320154705662414</v>
       </c>
       <c r="C71">
         <v>12.5</v>
@@ -2350,7 +2446,7 @@
         <v>16916025.69007904</v>
       </c>
       <c r="G71">
-        <v>39.295904647921</v>
+        <v>41.29109744202606</v>
       </c>
       <c r="H71">
         <v>0</v>
@@ -2361,22 +2457,22 @@
         <v>122</v>
       </c>
       <c r="B72">
-        <v>4.082105301821149</v>
+        <v>4.286550559506197</v>
       </c>
       <c r="C72">
         <v>0</v>
       </c>
       <c r="D72">
-        <v>5474.184851848197</v>
+        <v>5748.350031309</v>
       </c>
       <c r="E72">
-        <v>12650248.59621181</v>
+        <v>12952338.13256341</v>
       </c>
       <c r="F72">
         <v>0</v>
       </c>
       <c r="G72">
-        <v>39.01587310407755</v>
+        <v>40.9699163344204</v>
       </c>
       <c r="H72">
         <v>0</v>
@@ -2387,22 +2483,22 @@
         <v>123</v>
       </c>
       <c r="B73">
-        <v>4.053177131496273</v>
+        <v>4.253393562125825</v>
       </c>
       <c r="C73">
         <v>0</v>
       </c>
       <c r="D73">
-        <v>5435.391596879133</v>
+        <v>5703.885834681973</v>
       </c>
       <c r="E73">
-        <v>12607557.05811615</v>
+        <v>12903300.65253028</v>
       </c>
       <c r="F73">
         <v>0</v>
       </c>
       <c r="G73">
-        <v>38.73938395471018</v>
+        <v>40.65300897739369</v>
       </c>
       <c r="H73">
         <v>0</v>
@@ -2413,22 +2509,22 @@
         <v>124</v>
       </c>
       <c r="B74">
-        <v>4.02461274909323</v>
+        <v>4.222801507111746</v>
       </c>
       <c r="C74">
         <v>0</v>
       </c>
       <c r="D74">
-        <v>5397.086188789004</v>
+        <v>5662.861277066993</v>
       </c>
       <c r="E74">
-        <v>12565415.25812815</v>
+        <v>12858071.87062018</v>
       </c>
       <c r="F74">
         <v>0</v>
       </c>
       <c r="G74">
-        <v>38.46637181104102</v>
+        <v>40.36061678067849</v>
       </c>
       <c r="H74">
         <v>0</v>
@@ -2441,7 +2537,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:R28"/>
+  <dimension ref="A1:R44"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2511,16 +2607,16 @@
         <v>141</v>
       </c>
       <c r="C2" t="s">
-        <v>168</v>
+        <v>184</v>
       </c>
       <c r="D2" t="s">
-        <v>195</v>
+        <v>227</v>
       </c>
       <c r="E2" t="s">
-        <v>219</v>
+        <v>251</v>
       </c>
       <c r="F2">
-        <v>102.0679753837217</v>
+        <v>102.2403209889567</v>
       </c>
       <c r="G2">
         <v>650</v>
@@ -2547,16 +2643,16 @@
         <v>4865822.962046022</v>
       </c>
       <c r="O2">
-        <v>4393236.867939396</v>
+        <v>4380632.115152928</v>
       </c>
       <c r="P2">
-        <v>18.56295446571404</v>
+        <v>17.33857968470129</v>
       </c>
       <c r="Q2">
-        <v>0.03087422448588664</v>
+        <v>0.02851201821821069</v>
       </c>
       <c r="R2">
-        <v>29.56936790157712</v>
+        <v>29.95166196029462</v>
       </c>
     </row>
     <row r="3" spans="1:18">
@@ -2567,16 +2663,16 @@
         <v>142</v>
       </c>
       <c r="C3" t="s">
-        <v>169</v>
+        <v>185</v>
       </c>
       <c r="D3" t="s">
-        <v>196</v>
+        <v>186</v>
       </c>
       <c r="E3" t="s">
-        <v>219</v>
+        <v>251</v>
       </c>
       <c r="F3">
-        <v>101.9165409382614</v>
+        <v>102.0813724237844</v>
       </c>
       <c r="G3">
         <v>650</v>
@@ -2594,25 +2690,25 @@
         <v>4.865822962046021</v>
       </c>
       <c r="L3">
-        <v>11.66666666666667</v>
+        <v>1.666666666666668</v>
       </c>
       <c r="M3">
-        <v>7.249328333333335</v>
+        <v>1.035618333333334</v>
       </c>
       <c r="N3">
         <v>4865822.962046022</v>
       </c>
       <c r="O3">
-        <v>4394679.032460829</v>
+        <v>4799715.335512225</v>
       </c>
       <c r="P3">
-        <v>18.5292745972339</v>
+        <v>17.17247251116143</v>
       </c>
       <c r="Q3">
-        <v>0.03081792855131927</v>
+        <v>0.02819506793993419</v>
       </c>
       <c r="R3">
-        <v>29.56462416475555</v>
+        <v>28.61421737129472</v>
       </c>
     </row>
     <row r="4" spans="1:18">
@@ -2623,16 +2719,16 @@
         <v>143</v>
       </c>
       <c r="C4" t="s">
-        <v>170</v>
+        <v>186</v>
       </c>
       <c r="D4" t="s">
-        <v>197</v>
+        <v>228</v>
       </c>
       <c r="E4" t="s">
-        <v>219</v>
+        <v>251</v>
       </c>
       <c r="F4">
-        <v>101.7666643302016</v>
+        <v>102.0813727360724</v>
       </c>
       <c r="G4">
         <v>650</v>
@@ -2650,25 +2746,25 @@
         <v>4.865822962046021</v>
       </c>
       <c r="L4">
-        <v>11.66666666666667</v>
+        <v>9.999999999999998</v>
       </c>
       <c r="M4">
-        <v>7.249328333333335</v>
+        <v>6.213709999999999</v>
       </c>
       <c r="N4">
-        <v>4865822.962046022</v>
+        <v>4799715.335512225</v>
       </c>
       <c r="O4">
-        <v>4396107.891518529</v>
+        <v>4382192.886298967</v>
       </c>
       <c r="P4">
-        <v>18.49611664438588</v>
+        <v>17.20780520968025</v>
       </c>
       <c r="Q4">
-        <v>0.03076250431497364</v>
+        <v>0.02829680625249262</v>
       </c>
       <c r="R4">
-        <v>29.55992645787172</v>
+        <v>29.94632548603582</v>
       </c>
     </row>
     <row r="5" spans="1:18">
@@ -2679,16 +2775,16 @@
         <v>144</v>
       </c>
       <c r="C5" t="s">
-        <v>171</v>
+        <v>187</v>
       </c>
       <c r="D5" t="s">
-        <v>172</v>
+        <v>188</v>
       </c>
       <c r="E5" t="s">
-        <v>219</v>
+        <v>251</v>
       </c>
       <c r="F5">
-        <v>101.6176125720825</v>
+        <v>101.9226371489505</v>
       </c>
       <c r="G5">
         <v>650</v>
@@ -2706,25 +2802,25 @@
         <v>4.865822962046021</v>
       </c>
       <c r="L5">
-        <v>5</v>
+        <v>3.333333333333336</v>
       </c>
       <c r="M5">
-        <v>3.106855</v>
+        <v>2.071236666666668</v>
       </c>
       <c r="N5">
         <v>4865822.962046022</v>
       </c>
       <c r="O5">
-        <v>4670752.61542308</v>
+        <v>4733096.700577617</v>
       </c>
       <c r="P5">
-        <v>17.40617846150223</v>
+        <v>17.1692805823145</v>
       </c>
       <c r="Q5">
-        <v>0.02890099741192482</v>
+        <v>0.02819681361661327</v>
       </c>
       <c r="R5">
-        <v>28.69677607607285</v>
+        <v>28.8147976413043</v>
       </c>
     </row>
     <row r="6" spans="1:18">
@@ -2735,16 +2831,16 @@
         <v>145</v>
       </c>
       <c r="C6" t="s">
-        <v>172</v>
+        <v>188</v>
       </c>
       <c r="D6" t="s">
-        <v>198</v>
+        <v>229</v>
       </c>
       <c r="E6" t="s">
-        <v>219</v>
+        <v>251</v>
       </c>
       <c r="F6">
-        <v>101.6176125577376</v>
+        <v>101.9226371862942</v>
       </c>
       <c r="G6">
         <v>650</v>
@@ -2762,25 +2858,25 @@
         <v>4.865822962046021</v>
       </c>
       <c r="L6">
-        <v>6.666666666666664</v>
+        <v>8.333333333333332</v>
       </c>
       <c r="M6">
-        <v>4.142473333333332</v>
+        <v>5.178091666666666</v>
       </c>
       <c r="N6">
-        <v>4670752.61542308</v>
+        <v>4733096.700577617</v>
       </c>
       <c r="O6">
-        <v>4397525.525516639</v>
+        <v>4383744.658058213</v>
       </c>
       <c r="P6">
-        <v>18.4632017207154</v>
+        <v>17.1987847201437</v>
       </c>
       <c r="Q6">
-        <v>0.03070748750021024</v>
+        <v>0.02828181087572244</v>
       </c>
       <c r="R6">
-        <v>29.55526788128614</v>
+        <v>29.94102260858688</v>
       </c>
     </row>
     <row r="7" spans="1:18">
@@ -2791,16 +2887,16 @@
         <v>146</v>
       </c>
       <c r="C7" t="s">
-        <v>173</v>
+        <v>189</v>
       </c>
       <c r="D7" t="s">
-        <v>199</v>
+        <v>190</v>
       </c>
       <c r="E7" t="s">
-        <v>219</v>
+        <v>251</v>
       </c>
       <c r="F7">
-        <v>101.4692718007913</v>
+        <v>101.7646139326433</v>
       </c>
       <c r="G7">
         <v>650</v>
@@ -2818,25 +2914,25 @@
         <v>4.865822962046021</v>
       </c>
       <c r="L7">
-        <v>11.66666666666666</v>
+        <v>5</v>
       </c>
       <c r="M7">
-        <v>7.24932833333333</v>
+        <v>3.106855</v>
       </c>
       <c r="N7">
         <v>4865822.962046022</v>
       </c>
       <c r="O7">
-        <v>4398936.993196221</v>
+        <v>4665941.396452308</v>
       </c>
       <c r="P7">
-        <v>18.43046539015735</v>
+        <v>17.16621746919908</v>
       </c>
       <c r="Q7">
-        <v>0.03065276994267441</v>
+        <v>0.0281988499548217</v>
       </c>
       <c r="R7">
-        <v>29.55063176858159</v>
+        <v>29.0213241053115</v>
       </c>
     </row>
     <row r="8" spans="1:18">
@@ -2847,16 +2943,16 @@
         <v>147</v>
       </c>
       <c r="C8" t="s">
-        <v>174</v>
+        <v>190</v>
       </c>
       <c r="D8" t="s">
-        <v>200</v>
+        <v>230</v>
       </c>
       <c r="E8" t="s">
-        <v>219</v>
+        <v>251</v>
       </c>
       <c r="F8">
-        <v>101.3216241762725</v>
+        <v>101.7646139364395</v>
       </c>
       <c r="G8">
         <v>650</v>
@@ -2874,45 +2970,45 @@
         <v>4.865822962046021</v>
       </c>
       <c r="L8">
-        <v>11.66666666666667</v>
+        <v>6.666666666666664</v>
       </c>
       <c r="M8">
-        <v>7.249328333333335</v>
+        <v>4.142473333333332</v>
       </c>
       <c r="N8">
-        <v>4865822.962046022</v>
+        <v>4665941.396452308</v>
       </c>
       <c r="O8">
-        <v>4400337.95394105</v>
+        <v>4385287.844681869</v>
       </c>
       <c r="P8">
-        <v>18.39791878506338</v>
+        <v>17.18986940259777</v>
       </c>
       <c r="Q8">
-        <v>0.03059837097433796</v>
+        <v>0.02826698951929117</v>
       </c>
       <c r="R8">
-        <v>29.546032336405</v>
+        <v>29.93575186193653</v>
       </c>
     </row>
     <row r="9" spans="1:18">
       <c r="A9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B9" t="s">
         <v>148</v>
       </c>
       <c r="C9" t="s">
-        <v>175</v>
+        <v>191</v>
       </c>
       <c r="D9" t="s">
-        <v>201</v>
+        <v>192</v>
       </c>
       <c r="E9" t="s">
-        <v>219</v>
+        <v>251</v>
       </c>
       <c r="F9">
-        <v>101.1746622469781</v>
+        <v>101.6073676239537</v>
       </c>
       <c r="G9">
         <v>650</v>
@@ -2930,45 +3026,45 @@
         <v>4.865822962046021</v>
       </c>
       <c r="L9">
-        <v>13</v>
+        <v>8.333333333333336</v>
       </c>
       <c r="M9">
-        <v>8.077823</v>
+        <v>5.178091666666668</v>
       </c>
       <c r="N9">
         <v>4865822.962046022</v>
       </c>
       <c r="O9">
-        <v>4345608.822502185</v>
+        <v>4528854.089399976</v>
       </c>
       <c r="P9">
-        <v>18.59738559578296</v>
+        <v>17.18702115034849</v>
       </c>
       <c r="Q9">
-        <v>0.0309407801296818</v>
+        <v>0.02824738149948417</v>
       </c>
       <c r="R9">
-        <v>29.72733366992394</v>
+        <v>29.45725358836297</v>
       </c>
     </row>
     <row r="10" spans="1:18">
       <c r="A10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B10" t="s">
         <v>149</v>
       </c>
       <c r="C10" t="s">
-        <v>176</v>
+        <v>192</v>
       </c>
       <c r="D10" t="s">
-        <v>202</v>
+        <v>231</v>
       </c>
       <c r="E10" t="s">
-        <v>219</v>
+        <v>251</v>
       </c>
       <c r="F10">
-        <v>101.0094133683849</v>
+        <v>101.6073676242719</v>
       </c>
       <c r="G10">
         <v>650</v>
@@ -2986,45 +3082,45 @@
         <v>4.865822962046021</v>
       </c>
       <c r="L10">
-        <v>13</v>
+        <v>3.333333333333329</v>
       </c>
       <c r="M10">
-        <v>8.077823</v>
+        <v>2.071236666666664</v>
       </c>
       <c r="N10">
-        <v>4865822.962046022</v>
+        <v>4528854.089399976</v>
       </c>
       <c r="O10">
-        <v>4347371.703557869</v>
+        <v>4386823.878527852</v>
       </c>
       <c r="P10">
-        <v>18.55965075699372</v>
+        <v>17.19891471495537</v>
       </c>
       <c r="Q10">
-        <v>0.03087765548113019</v>
+        <v>0.02828170334502245</v>
       </c>
       <c r="R10">
-        <v>29.72144136047159</v>
+        <v>29.9305083088218</v>
       </c>
     </row>
     <row r="11" spans="1:18">
       <c r="A11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B11" t="s">
         <v>150</v>
       </c>
       <c r="C11" t="s">
-        <v>177</v>
+        <v>193</v>
       </c>
       <c r="D11" t="s">
-        <v>178</v>
+        <v>232</v>
       </c>
       <c r="E11" t="s">
-        <v>219</v>
+        <v>251</v>
       </c>
       <c r="F11">
-        <v>100.8450337533843</v>
+        <v>101.4509006766775</v>
       </c>
       <c r="G11">
         <v>650</v>
@@ -3042,25 +3138,25 @@
         <v>4.865822962046021</v>
       </c>
       <c r="L11">
-        <v>5.5</v>
+        <v>11.66666666666667</v>
       </c>
       <c r="M11">
-        <v>3.4175405</v>
+        <v>7.249328333333335</v>
       </c>
       <c r="N11">
         <v>4865822.962046022</v>
       </c>
       <c r="O11">
-        <v>4654072.429647412</v>
+        <v>4388358.262485935</v>
       </c>
       <c r="P11">
-        <v>17.33441000888324</v>
+        <v>17.20820406082581</v>
       </c>
       <c r="Q11">
-        <v>0.02878471966905997</v>
+        <v>0.02829681846844307</v>
       </c>
       <c r="R11">
-        <v>28.74704217101416</v>
+        <v>29.92527313790887</v>
       </c>
     </row>
     <row r="12" spans="1:18">
@@ -3071,16 +3167,16 @@
         <v>151</v>
       </c>
       <c r="C12" t="s">
-        <v>178</v>
+        <v>194</v>
       </c>
       <c r="D12" t="s">
-        <v>203</v>
+        <v>233</v>
       </c>
       <c r="E12" t="s">
-        <v>219</v>
+        <v>251</v>
       </c>
       <c r="F12">
-        <v>83.18670377751239</v>
+        <v>101.2952103697635</v>
       </c>
       <c r="G12">
         <v>650</v>
@@ -3098,25 +3194,25 @@
         <v>4.865822962046021</v>
       </c>
       <c r="L12">
-        <v>7.5</v>
+        <v>13</v>
       </c>
       <c r="M12">
-        <v>4.6602825</v>
+        <v>8.077823</v>
       </c>
       <c r="N12">
-        <v>4654072.429647412</v>
+        <v>4865822.962046022</v>
       </c>
       <c r="O12">
-        <v>4447137.738312458</v>
+        <v>4332154.725287437</v>
       </c>
       <c r="P12">
-        <v>14.94955235712974</v>
+        <v>17.20093755332659</v>
       </c>
       <c r="Q12">
-        <v>0.02485597822395806</v>
+        <v>0.02829074084653743</v>
       </c>
       <c r="R12">
-        <v>29.39361678647134</v>
+        <v>30.11884604087379</v>
       </c>
     </row>
     <row r="13" spans="1:18">
@@ -3127,16 +3223,16 @@
         <v>152</v>
       </c>
       <c r="C13" t="s">
-        <v>179</v>
+        <v>195</v>
       </c>
       <c r="D13" t="s">
-        <v>204</v>
+        <v>196</v>
       </c>
       <c r="E13" t="s">
-        <v>219</v>
+        <v>251</v>
       </c>
       <c r="F13">
-        <v>83.07887025391449</v>
+        <v>101.1201685738514</v>
       </c>
       <c r="G13">
         <v>650</v>
@@ -3154,25 +3250,25 @@
         <v>4.865822962046021</v>
       </c>
       <c r="L13">
-        <v>13</v>
+        <v>2.749999999999996</v>
       </c>
       <c r="M13">
-        <v>8.077823</v>
+        <v>1.708770249999997</v>
       </c>
       <c r="N13">
         <v>4865822.962046022</v>
       </c>
       <c r="O13">
-        <v>4518611.886666242</v>
+        <v>4758291.132987313</v>
       </c>
       <c r="P13">
-        <v>14.69918805247441</v>
+        <v>17.02593452642517</v>
       </c>
       <c r="Q13">
-        <v>0.02442890897454639</v>
+        <v>0.02795877580565072</v>
       </c>
       <c r="R13">
-        <v>29.16535543598091</v>
+        <v>28.73844546363172</v>
       </c>
     </row>
     <row r="14" spans="1:18">
@@ -3183,16 +3279,16 @@
         <v>153</v>
       </c>
       <c r="C14" t="s">
-        <v>180</v>
+        <v>196</v>
       </c>
       <c r="D14" t="s">
-        <v>205</v>
+        <v>234</v>
       </c>
       <c r="E14" t="s">
-        <v>219</v>
+        <v>251</v>
       </c>
       <c r="F14">
-        <v>82.99042191790605</v>
+        <v>101.1201685738518</v>
       </c>
       <c r="G14">
         <v>650</v>
@@ -3210,25 +3306,25 @@
         <v>4.865822962046021</v>
       </c>
       <c r="L14">
-        <v>13</v>
+        <v>10.25000000000001</v>
       </c>
       <c r="M14">
-        <v>8.077823</v>
+        <v>6.369052750000007</v>
       </c>
       <c r="N14">
-        <v>4865822.962046022</v>
+        <v>4758291.132987313</v>
       </c>
       <c r="O14">
-        <v>4519361.814866357</v>
+        <v>4334063.875616732</v>
       </c>
       <c r="P14">
-        <v>14.68115587568881</v>
+        <v>17.06190833226046</v>
       </c>
       <c r="Q14">
-        <v>0.02439882842323399</v>
+        <v>0.02806187853600587</v>
       </c>
       <c r="R14">
-        <v>29.16298874219098</v>
+        <v>30.11220891532664</v>
       </c>
     </row>
     <row r="15" spans="1:18">
@@ -3239,16 +3335,16 @@
         <v>154</v>
       </c>
       <c r="C15" t="s">
-        <v>181</v>
+        <v>197</v>
       </c>
       <c r="D15" t="s">
-        <v>206</v>
+        <v>198</v>
       </c>
       <c r="E15" t="s">
-        <v>219</v>
+        <v>251</v>
       </c>
       <c r="F15">
-        <v>82.90226748023257</v>
+        <v>100.9460934392149</v>
       </c>
       <c r="G15">
         <v>650</v>
@@ -3266,25 +3362,25 @@
         <v>4.865822962046021</v>
       </c>
       <c r="L15">
-        <v>13</v>
+        <v>5.499999999999993</v>
       </c>
       <c r="M15">
-        <v>8.077823</v>
+        <v>3.417540499999995</v>
       </c>
       <c r="N15">
         <v>4865822.962046022</v>
       </c>
       <c r="O15">
-        <v>4520108.357883521</v>
+        <v>4649025.388800763</v>
       </c>
       <c r="P15">
-        <v>14.66319227733721</v>
+        <v>17.03517344870409</v>
       </c>
       <c r="Q15">
-        <v>0.02436886264039167</v>
+        <v>0.02798535516553314</v>
       </c>
       <c r="R15">
-        <v>29.16063330758949</v>
+        <v>29.07405083180881</v>
       </c>
     </row>
     <row r="16" spans="1:18">
@@ -3295,16 +3391,16 @@
         <v>155</v>
       </c>
       <c r="C16" t="s">
-        <v>182</v>
+        <v>198</v>
       </c>
       <c r="D16" t="s">
-        <v>183</v>
+        <v>235</v>
       </c>
       <c r="E16" t="s">
-        <v>219</v>
+        <v>251</v>
       </c>
       <c r="F16">
-        <v>82.81440526271172</v>
+        <v>83.28776346334328</v>
       </c>
       <c r="G16">
         <v>650</v>
@@ -3322,25 +3418,25 @@
         <v>4.865822962046021</v>
       </c>
       <c r="L16">
-        <v>2</v>
+        <v>7.500000000000014</v>
       </c>
       <c r="M16">
-        <v>1.242742</v>
+        <v>4.660282500000009</v>
       </c>
       <c r="N16">
-        <v>4865822.962046022</v>
+        <v>4649025.388800763</v>
       </c>
       <c r="O16">
-        <v>4814325.508955292</v>
+        <v>4436616.732692528</v>
       </c>
       <c r="P16">
-        <v>13.77126888637268</v>
+        <v>14.07704920765324</v>
       </c>
       <c r="Q16">
-        <v>0.02284614719208462</v>
+        <v>0.02314389481850114</v>
       </c>
       <c r="R16">
-        <v>28.2748250848638</v>
+        <v>29.76200893650593</v>
       </c>
     </row>
     <row r="17" spans="1:18">
@@ -3351,16 +3447,16 @@
         <v>156</v>
       </c>
       <c r="C17" t="s">
-        <v>183</v>
+        <v>199</v>
       </c>
       <c r="D17" t="s">
-        <v>207</v>
+        <v>200</v>
       </c>
       <c r="E17" t="s">
-        <v>219</v>
+        <v>251</v>
       </c>
       <c r="F17">
-        <v>82.81440526271166</v>
+        <v>83.17378270903482</v>
       </c>
       <c r="G17">
         <v>650</v>
@@ -3378,25 +3474,25 @@
         <v>4.865822962046021</v>
       </c>
       <c r="L17">
-        <v>11</v>
+        <v>8.666666666666657</v>
       </c>
       <c r="M17">
-        <v>6.835081</v>
+        <v>5.385215333333328</v>
       </c>
       <c r="N17">
-        <v>4814325.508955292</v>
+        <v>4865822.962046022</v>
       </c>
       <c r="O17">
-        <v>4520851.230108246</v>
+        <v>4631641.691423165</v>
       </c>
       <c r="P17">
-        <v>14.64529779277738</v>
+        <v>14.07284770864969</v>
       </c>
       <c r="Q17">
-        <v>0.02433901255476503</v>
+        <v>0.02312035570568373</v>
       </c>
       <c r="R17">
-        <v>29.15829002493429</v>
+        <v>29.12853586580796</v>
       </c>
     </row>
     <row r="18" spans="1:18">
@@ -3407,16 +3503,16 @@
         <v>157</v>
       </c>
       <c r="C18" t="s">
-        <v>184</v>
+        <v>200</v>
       </c>
       <c r="D18" t="s">
-        <v>208</v>
+        <v>236</v>
       </c>
       <c r="E18" t="s">
-        <v>219</v>
+        <v>251</v>
       </c>
       <c r="F18">
-        <v>82.72683351874205</v>
+        <v>83.17378270903498</v>
       </c>
       <c r="G18">
         <v>650</v>
@@ -3434,25 +3530,25 @@
         <v>4.865822962046021</v>
       </c>
       <c r="L18">
-        <v>13</v>
+        <v>4.333333333333343</v>
       </c>
       <c r="M18">
-        <v>8.077823</v>
+        <v>2.692607666666673</v>
       </c>
       <c r="N18">
-        <v>4865822.962046022</v>
+        <v>4631641.691423165</v>
       </c>
       <c r="O18">
-        <v>4521591.382969386</v>
+        <v>4509994.746194476</v>
       </c>
       <c r="P18">
-        <v>14.62746902693329</v>
+        <v>14.08551876145169</v>
       </c>
       <c r="Q18">
-        <v>0.02430927237814386</v>
+        <v>0.02315157233922331</v>
       </c>
       <c r="R18">
-        <v>29.15595588551276</v>
+        <v>29.51880405340748</v>
       </c>
     </row>
     <row r="19" spans="1:18">
@@ -3463,16 +3559,16 @@
         <v>158</v>
       </c>
       <c r="C19" t="s">
-        <v>185</v>
+        <v>201</v>
       </c>
       <c r="D19" t="s">
-        <v>209</v>
+        <v>202</v>
       </c>
       <c r="E19" t="s">
-        <v>219</v>
+        <v>251</v>
       </c>
       <c r="F19">
-        <v>82.63955076190589</v>
+        <v>83.08066432305833</v>
       </c>
       <c r="G19">
         <v>650</v>
@@ -3490,25 +3586,25 @@
         <v>4.865822962046021</v>
       </c>
       <c r="L19">
-        <v>13</v>
+        <v>11.83333333333333</v>
       </c>
       <c r="M19">
-        <v>8.077823</v>
+        <v>7.352890166666665</v>
       </c>
       <c r="N19">
         <v>4865822.962046022</v>
       </c>
       <c r="O19">
-        <v>4522327.910742506</v>
+        <v>4543799.617857576</v>
       </c>
       <c r="P19">
-        <v>14.60970851565168</v>
+        <v>14.09418566074473</v>
       </c>
       <c r="Q19">
-        <v>0.02427964645673034</v>
+        <v>0.02316294443784727</v>
       </c>
       <c r="R19">
-        <v>29.15363373813237</v>
+        <v>29.40874899943167</v>
       </c>
     </row>
     <row r="20" spans="1:18">
@@ -3519,16 +3615,16 @@
         <v>159</v>
       </c>
       <c r="C20" t="s">
-        <v>186</v>
+        <v>202</v>
       </c>
       <c r="D20" t="s">
-        <v>210</v>
+        <v>237</v>
       </c>
       <c r="E20" t="s">
-        <v>219</v>
+        <v>251</v>
       </c>
       <c r="F20">
-        <v>82.55255527229399</v>
+        <v>83.08066432305816</v>
       </c>
       <c r="G20">
         <v>650</v>
@@ -3546,45 +3642,45 @@
         <v>4.865822962046021</v>
       </c>
       <c r="L20">
-        <v>13</v>
+        <v>1.166666666666671</v>
       </c>
       <c r="M20">
-        <v>8.077823</v>
+        <v>0.724932833333336</v>
       </c>
       <c r="N20">
-        <v>4865822.962046022</v>
+        <v>4543799.617857576</v>
       </c>
       <c r="O20">
-        <v>4523061.146139761</v>
+        <v>4510805.947256035</v>
       </c>
       <c r="P20">
-        <v>14.59201483069523</v>
+        <v>14.09761694857094</v>
       </c>
       <c r="Q20">
-        <v>0.02425013236363688</v>
+        <v>0.0231713884340412</v>
       </c>
       <c r="R20">
-        <v>29.1513225257166</v>
+        <v>29.5161486245315</v>
       </c>
     </row>
     <row r="21" spans="1:18">
       <c r="A21">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B21" t="s">
         <v>160</v>
       </c>
       <c r="C21" t="s">
-        <v>187</v>
+        <v>203</v>
       </c>
       <c r="D21" t="s">
-        <v>211</v>
+        <v>238</v>
       </c>
       <c r="E21" t="s">
-        <v>219</v>
+        <v>251</v>
       </c>
       <c r="F21">
-        <v>82.46584542565695</v>
+        <v>82.98787547639479</v>
       </c>
       <c r="G21">
         <v>650</v>
@@ -3602,45 +3698,45 @@
         <v>4.865822962046021</v>
       </c>
       <c r="L21">
-        <v>25</v>
+        <v>13.00000000000001</v>
       </c>
       <c r="M21">
-        <v>15.534275</v>
+        <v>8.077823000000008</v>
       </c>
       <c r="N21">
         <v>4865822.962046022</v>
       </c>
       <c r="O21">
-        <v>4183913.78418617</v>
+        <v>4511612.992673882</v>
       </c>
       <c r="P21">
-        <v>15.73066528744936</v>
+        <v>14.09216939820492</v>
       </c>
       <c r="Q21">
-        <v>0.02619857653694625</v>
+        <v>0.02316236599939102</v>
       </c>
       <c r="R21">
-        <v>30.28324282454035</v>
+        <v>29.51350750996171</v>
       </c>
     </row>
     <row r="22" spans="1:18">
       <c r="A22">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B22" t="s">
         <v>161</v>
       </c>
       <c r="C22" t="s">
-        <v>188</v>
+        <v>204</v>
       </c>
       <c r="D22" t="s">
-        <v>212</v>
+        <v>205</v>
       </c>
       <c r="E22" t="s">
-        <v>219</v>
+        <v>251</v>
       </c>
       <c r="F22">
-        <v>82.28521067333101</v>
+        <v>82.89541414527172</v>
       </c>
       <c r="G22">
         <v>650</v>
@@ -3658,45 +3754,45 @@
         <v>4.865822962046021</v>
       </c>
       <c r="L22">
-        <v>25</v>
+        <v>1.999999999999986</v>
       </c>
       <c r="M22">
-        <v>15.534275</v>
+        <v>1.242741999999991</v>
       </c>
       <c r="N22">
         <v>4865822.962046022</v>
       </c>
       <c r="O22">
-        <v>4187063.719184039</v>
+        <v>4813140.542938863</v>
       </c>
       <c r="P22">
-        <v>15.68467241155982</v>
+        <v>13.94877675933988</v>
       </c>
       <c r="Q22">
-        <v>0.02612144120721024</v>
+        <v>0.02290101835767783</v>
       </c>
       <c r="R22">
-        <v>30.27211225168348</v>
+        <v>28.57430053791855</v>
       </c>
     </row>
     <row r="23" spans="1:18">
       <c r="A23">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B23" t="s">
         <v>162</v>
       </c>
       <c r="C23" t="s">
-        <v>189</v>
+        <v>205</v>
       </c>
       <c r="D23" t="s">
-        <v>213</v>
+        <v>239</v>
       </c>
       <c r="E23" t="s">
-        <v>219</v>
+        <v>251</v>
       </c>
       <c r="F23">
-        <v>82.10588517564996</v>
+        <v>82.89541414527135</v>
       </c>
       <c r="G23">
         <v>650</v>
@@ -3714,45 +3810,45 @@
         <v>4.865822962046021</v>
       </c>
       <c r="L23">
-        <v>25</v>
+        <v>11.00000000000001</v>
       </c>
       <c r="M23">
-        <v>15.534275</v>
+        <v>6.835081000000007</v>
       </c>
       <c r="N23">
-        <v>4865822.962046022</v>
+        <v>4813140.542938863</v>
       </c>
       <c r="O23">
-        <v>4190181.9045286</v>
+        <v>4512413.546952056</v>
       </c>
       <c r="P23">
-        <v>15.63911229997376</v>
+        <v>13.98037363450025</v>
       </c>
       <c r="Q23">
-        <v>0.02604503546717775</v>
+        <v>0.02297854716720668</v>
       </c>
       <c r="R23">
-        <v>30.26110600603833</v>
+        <v>29.51088833844473</v>
       </c>
     </row>
     <row r="24" spans="1:18">
       <c r="A24">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B24" t="s">
         <v>163</v>
       </c>
       <c r="C24" t="s">
-        <v>190</v>
+        <v>206</v>
       </c>
       <c r="D24" t="s">
-        <v>214</v>
+        <v>207</v>
       </c>
       <c r="E24" t="s">
-        <v>219</v>
+        <v>251</v>
       </c>
       <c r="F24">
-        <v>81.92785207074505</v>
+        <v>82.80327766749903</v>
       </c>
       <c r="G24">
         <v>650</v>
@@ -3770,45 +3866,45 @@
         <v>4.865822962046021</v>
       </c>
       <c r="L24">
-        <v>25</v>
+        <v>5.666666666666657</v>
       </c>
       <c r="M24">
-        <v>15.534275</v>
+        <v>3.521102333333328</v>
       </c>
       <c r="N24">
         <v>4865822.962046022</v>
       </c>
       <c r="O24">
-        <v>4193268.845902503</v>
+        <v>4715361.395697353</v>
       </c>
       <c r="P24">
-        <v>15.59397794954751</v>
+        <v>13.97540309963043</v>
       </c>
       <c r="Q24">
-        <v>0.02596934746386525</v>
+        <v>0.02295308105429554</v>
       </c>
       <c r="R24">
-        <v>30.25022191520623</v>
+        <v>28.86891123773806</v>
       </c>
     </row>
     <row r="25" spans="1:18">
       <c r="A25">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B25" t="s">
         <v>164</v>
       </c>
       <c r="C25" t="s">
-        <v>191</v>
+        <v>207</v>
       </c>
       <c r="D25" t="s">
-        <v>215</v>
+        <v>240</v>
       </c>
       <c r="E25" t="s">
-        <v>219</v>
+        <v>251</v>
       </c>
       <c r="F25">
-        <v>81.75109481382123</v>
+        <v>82.80327766749905</v>
       </c>
       <c r="G25">
         <v>650</v>
@@ -3826,45 +3922,45 @@
         <v>4.865822962046021</v>
       </c>
       <c r="L25">
-        <v>25</v>
+        <v>7.333333333333343</v>
       </c>
       <c r="M25">
-        <v>15.534275</v>
+        <v>4.556720666666672</v>
       </c>
       <c r="N25">
-        <v>4865822.962046022</v>
+        <v>4715361.395697353</v>
       </c>
       <c r="O25">
-        <v>4196325.037872925</v>
+        <v>4513210.355730941</v>
       </c>
       <c r="P25">
-        <v>15.54926251793578</v>
+        <v>13.99661199420131</v>
       </c>
       <c r="Q25">
-        <v>0.02589436561728291</v>
+        <v>0.02300516971012825</v>
       </c>
       <c r="R25">
-        <v>30.23945785868248</v>
+        <v>29.50828211337421</v>
       </c>
     </row>
     <row r="26" spans="1:18">
       <c r="A26">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B26" t="s">
         <v>165</v>
       </c>
       <c r="C26" t="s">
-        <v>192</v>
+        <v>208</v>
       </c>
       <c r="D26" t="s">
-        <v>216</v>
+        <v>209</v>
       </c>
       <c r="E26" t="s">
-        <v>219</v>
+        <v>251</v>
       </c>
       <c r="F26">
-        <v>81.57559716926635</v>
+        <v>82.71146415244415</v>
       </c>
       <c r="G26">
         <v>650</v>
@@ -3882,45 +3978,45 @@
         <v>4.865822962046021</v>
       </c>
       <c r="L26">
-        <v>25</v>
+        <v>9.333333333333329</v>
       </c>
       <c r="M26">
-        <v>15.534275</v>
+        <v>5.799462666666664</v>
       </c>
       <c r="N26">
         <v>4865822.962046022</v>
       </c>
       <c r="O26">
-        <v>4199350.964204381</v>
+        <v>4615950.509760415</v>
       </c>
       <c r="P26">
-        <v>15.50495931881985</v>
+        <v>14.00237447878313</v>
       </c>
       <c r="Q26">
-        <v>0.02582007861231311</v>
+        <v>0.02300592722311325</v>
       </c>
       <c r="R26">
-        <v>30.22881176628253</v>
+        <v>29.17798005668771</v>
       </c>
     </row>
     <row r="27" spans="1:18">
       <c r="A27">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B27" t="s">
         <v>166</v>
       </c>
       <c r="C27" t="s">
-        <v>193</v>
+        <v>209</v>
       </c>
       <c r="D27" t="s">
-        <v>217</v>
+        <v>241</v>
       </c>
       <c r="E27" t="s">
-        <v>219</v>
+        <v>251</v>
       </c>
       <c r="F27">
-        <v>81.40134320300437</v>
+        <v>82.71146415244446</v>
       </c>
       <c r="G27">
         <v>650</v>
@@ -3938,45 +4034,45 @@
         <v>4.865822962046021</v>
       </c>
       <c r="L27">
-        <v>25</v>
+        <v>3.666666666666671</v>
       </c>
       <c r="M27">
-        <v>15.534275</v>
+        <v>2.278360333333336</v>
       </c>
       <c r="N27">
-        <v>4865822.962046022</v>
+        <v>4615950.509760415</v>
       </c>
       <c r="O27">
-        <v>4202347.09816077</v>
+        <v>4514004.5003164</v>
       </c>
       <c r="P27">
-        <v>15.46106181730905</v>
+        <v>14.01305206316068</v>
       </c>
       <c r="Q27">
-        <v>0.02574647539088441</v>
+        <v>0.02303212385771408</v>
       </c>
       <c r="R27">
-        <v>30.21828161662598</v>
+        <v>29.50568528934254</v>
       </c>
     </row>
     <row r="28" spans="1:18">
       <c r="A28">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B28" t="s">
         <v>167</v>
       </c>
       <c r="C28" t="s">
-        <v>194</v>
+        <v>210</v>
       </c>
       <c r="D28" t="s">
-        <v>218</v>
+        <v>242</v>
       </c>
       <c r="E28" t="s">
-        <v>219</v>
+        <v>251</v>
       </c>
       <c r="F28">
-        <v>81.22831727508517</v>
+        <v>82.61997201657491</v>
       </c>
       <c r="G28">
         <v>650</v>
@@ -3994,25 +4090,921 @@
         <v>4.865822962046021</v>
       </c>
       <c r="L28">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="M28">
-        <v>15.534275</v>
+        <v>8.077823</v>
       </c>
       <c r="N28">
         <v>4865822.962046022</v>
       </c>
       <c r="O28">
-        <v>4205313.902797125</v>
+        <v>4514797.64512231</v>
       </c>
       <c r="P28">
-        <v>15.4175636255081</v>
+        <v>14.02969571939093</v>
       </c>
       <c r="Q28">
-        <v>0.02567354514442839</v>
+        <v>0.02305941255368098</v>
       </c>
       <c r="R28">
-        <v>30.20786543567594</v>
+        <v>29.50309241872604</v>
+      </c>
+    </row>
+    <row r="29" spans="1:18">
+      <c r="A29">
+        <v>2</v>
+      </c>
+      <c r="B29" t="s">
+        <v>168</v>
+      </c>
+      <c r="C29" t="s">
+        <v>211</v>
+      </c>
+      <c r="D29" t="s">
+        <v>212</v>
+      </c>
+      <c r="E29" t="s">
+        <v>251</v>
+      </c>
+      <c r="F29">
+        <v>82.52880014280876</v>
+      </c>
+      <c r="G29">
+        <v>650</v>
+      </c>
+      <c r="H29" t="s">
+        <v>86</v>
+      </c>
+      <c r="I29">
+        <v>9.525</v>
+      </c>
+      <c r="J29" t="s">
+        <v>85</v>
+      </c>
+      <c r="K29">
+        <v>4.865822962046021</v>
+      </c>
+      <c r="L29">
+        <v>16.66666666666667</v>
+      </c>
+      <c r="M29">
+        <v>10.35618333333334</v>
+      </c>
+      <c r="N29">
+        <v>4865822.962046022</v>
+      </c>
+      <c r="O29">
+        <v>4411780.608969413</v>
+      </c>
+      <c r="P29">
+        <v>14.05737182976259</v>
+      </c>
+      <c r="Q29">
+        <v>0.02311365814609648</v>
+      </c>
+      <c r="R29">
+        <v>29.84569783487119</v>
+      </c>
+    </row>
+    <row r="30" spans="1:18">
+      <c r="A30">
+        <v>2</v>
+      </c>
+      <c r="B30" t="s">
+        <v>169</v>
+      </c>
+      <c r="C30" t="s">
+        <v>212</v>
+      </c>
+      <c r="D30" t="s">
+        <v>243</v>
+      </c>
+      <c r="E30" t="s">
+        <v>251</v>
+      </c>
+      <c r="F30">
+        <v>82.52880014280896</v>
+      </c>
+      <c r="G30">
+        <v>650</v>
+      </c>
+      <c r="H30" t="s">
+        <v>86</v>
+      </c>
+      <c r="I30">
+        <v>9.525</v>
+      </c>
+      <c r="J30" t="s">
+        <v>85</v>
+      </c>
+      <c r="K30">
+        <v>4.865822962046021</v>
+      </c>
+      <c r="L30">
+        <v>8.333333333333336</v>
+      </c>
+      <c r="M30">
+        <v>5.178091666666668</v>
+      </c>
+      <c r="N30">
+        <v>4411780.608969413</v>
+      </c>
+      <c r="O30">
+        <v>4166236.516943549</v>
+      </c>
+      <c r="P30">
+        <v>14.08207178792305</v>
+      </c>
+      <c r="Q30">
+        <v>0.02317530305451931</v>
+      </c>
+      <c r="R30">
+        <v>30.71301550159657</v>
+      </c>
+    </row>
+    <row r="31" spans="1:18">
+      <c r="A31">
+        <v>2</v>
+      </c>
+      <c r="B31" t="s">
+        <v>170</v>
+      </c>
+      <c r="C31" t="s">
+        <v>213</v>
+      </c>
+      <c r="D31" t="s">
+        <v>214</v>
+      </c>
+      <c r="E31" t="s">
+        <v>251</v>
+      </c>
+      <c r="F31">
+        <v>82.33861846568306</v>
+      </c>
+      <c r="G31">
+        <v>650</v>
+      </c>
+      <c r="H31" t="s">
+        <v>86</v>
+      </c>
+      <c r="I31">
+        <v>9.525</v>
+      </c>
+      <c r="J31" t="s">
+        <v>85</v>
+      </c>
+      <c r="K31">
+        <v>4.865822962046021</v>
+      </c>
+      <c r="L31">
+        <v>8.333333333333332</v>
+      </c>
+      <c r="M31">
+        <v>5.178091666666666</v>
+      </c>
+      <c r="N31">
+        <v>4865822.962046022</v>
+      </c>
+      <c r="O31">
+        <v>4645369.168728107</v>
+      </c>
+      <c r="P31">
+        <v>13.92768665774181</v>
+      </c>
+      <c r="Q31">
+        <v>0.02288069397296717</v>
+      </c>
+      <c r="R31">
+        <v>29.08548498654647</v>
+      </c>
+    </row>
+    <row r="32" spans="1:18">
+      <c r="A32">
+        <v>2</v>
+      </c>
+      <c r="B32" t="s">
+        <v>171</v>
+      </c>
+      <c r="C32" t="s">
+        <v>214</v>
+      </c>
+      <c r="D32" t="s">
+        <v>244</v>
+      </c>
+      <c r="E32" t="s">
+        <v>251</v>
+      </c>
+      <c r="F32">
+        <v>82.33861846568304</v>
+      </c>
+      <c r="G32">
+        <v>650</v>
+      </c>
+      <c r="H32" t="s">
+        <v>86</v>
+      </c>
+      <c r="I32">
+        <v>9.525</v>
+      </c>
+      <c r="J32" t="s">
+        <v>85</v>
+      </c>
+      <c r="K32">
+        <v>4.865822962046021</v>
+      </c>
+      <c r="L32">
+        <v>16.66666666666667</v>
+      </c>
+      <c r="M32">
+        <v>10.35618333333334</v>
+      </c>
+      <c r="N32">
+        <v>4645369.168728107</v>
+      </c>
+      <c r="O32">
+        <v>4169649.008487279</v>
+      </c>
+      <c r="P32">
+        <v>13.97607813729472</v>
+      </c>
+      <c r="Q32">
+        <v>0.02300057997666824</v>
+      </c>
+      <c r="R32">
+        <v>30.70043171135318</v>
+      </c>
+    </row>
+    <row r="33" spans="1:18">
+      <c r="A33">
+        <v>2</v>
+      </c>
+      <c r="B33" t="s">
+        <v>172</v>
+      </c>
+      <c r="C33" t="s">
+        <v>215</v>
+      </c>
+      <c r="D33" t="s">
+        <v>216</v>
+      </c>
+      <c r="E33" t="s">
+        <v>251</v>
+      </c>
+      <c r="F33">
+        <v>82.14993968860691</v>
+      </c>
+      <c r="G33">
+        <v>650</v>
+      </c>
+      <c r="H33" t="s">
+        <v>86</v>
+      </c>
+      <c r="I33">
+        <v>9.525</v>
+      </c>
+      <c r="J33" t="s">
+        <v>85</v>
+      </c>
+      <c r="K33">
+        <v>4.865822962046021</v>
+      </c>
+      <c r="L33">
+        <v>16.66666666666666</v>
+      </c>
+      <c r="M33">
+        <v>10.35618333333333</v>
+      </c>
+      <c r="N33">
+        <v>4865822.962046022</v>
+      </c>
+      <c r="O33">
+        <v>4416056.092930035</v>
+      </c>
+      <c r="P33">
+        <v>13.99283942086906</v>
+      </c>
+      <c r="Q33">
+        <v>0.02300718901967778</v>
+      </c>
+      <c r="R33">
+        <v>29.83124066304265</v>
+      </c>
+    </row>
+    <row r="34" spans="1:18">
+      <c r="A34">
+        <v>2</v>
+      </c>
+      <c r="B34" t="s">
+        <v>173</v>
+      </c>
+      <c r="C34" t="s">
+        <v>216</v>
+      </c>
+      <c r="D34" t="s">
+        <v>245</v>
+      </c>
+      <c r="E34" t="s">
+        <v>251</v>
+      </c>
+      <c r="F34">
+        <v>82.14993968860699</v>
+      </c>
+      <c r="G34">
+        <v>650</v>
+      </c>
+      <c r="H34" t="s">
+        <v>86</v>
+      </c>
+      <c r="I34">
+        <v>9.525</v>
+      </c>
+      <c r="J34" t="s">
+        <v>85</v>
+      </c>
+      <c r="K34">
+        <v>4.865822962046021</v>
+      </c>
+      <c r="L34">
+        <v>8.333333333333343</v>
+      </c>
+      <c r="M34">
+        <v>5.178091666666672</v>
+      </c>
+      <c r="N34">
+        <v>4416056.092930035</v>
+      </c>
+      <c r="O34">
+        <v>4173025.781469109</v>
+      </c>
+      <c r="P34">
+        <v>14.01742599028097</v>
+      </c>
+      <c r="Q34">
+        <v>0.02306834272901305</v>
+      </c>
+      <c r="R34">
+        <v>30.68799484888891</v>
+      </c>
+    </row>
+    <row r="35" spans="1:18">
+      <c r="A35">
+        <v>2</v>
+      </c>
+      <c r="B35" t="s">
+        <v>174</v>
+      </c>
+      <c r="C35" t="s">
+        <v>217</v>
+      </c>
+      <c r="D35" t="s">
+        <v>218</v>
+      </c>
+      <c r="E35" t="s">
+        <v>251</v>
+      </c>
+      <c r="F35">
+        <v>81.96274437805975</v>
+      </c>
+      <c r="G35">
+        <v>650</v>
+      </c>
+      <c r="H35" t="s">
+        <v>86</v>
+      </c>
+      <c r="I35">
+        <v>9.525</v>
+      </c>
+      <c r="J35" t="s">
+        <v>85</v>
+      </c>
+      <c r="K35">
+        <v>4.865822962046021</v>
+      </c>
+      <c r="L35">
+        <v>8.333333333333329</v>
+      </c>
+      <c r="M35">
+        <v>5.178091666666663</v>
+      </c>
+      <c r="N35">
+        <v>4865822.962046022</v>
+      </c>
+      <c r="O35">
+        <v>4647379.598481401</v>
+      </c>
+      <c r="P35">
+        <v>13.86410705666599</v>
+      </c>
+      <c r="Q35">
+        <v>0.02277607272677249</v>
+      </c>
+      <c r="R35">
+        <v>29.07919606870839</v>
+      </c>
+    </row>
+    <row r="36" spans="1:18">
+      <c r="A36">
+        <v>2</v>
+      </c>
+      <c r="B36" t="s">
+        <v>175</v>
+      </c>
+      <c r="C36" t="s">
+        <v>218</v>
+      </c>
+      <c r="D36" t="s">
+        <v>246</v>
+      </c>
+      <c r="E36" t="s">
+        <v>251</v>
+      </c>
+      <c r="F36">
+        <v>81.96274437805984</v>
+      </c>
+      <c r="G36">
+        <v>650</v>
+      </c>
+      <c r="H36" t="s">
+        <v>86</v>
+      </c>
+      <c r="I36">
+        <v>9.525</v>
+      </c>
+      <c r="J36" t="s">
+        <v>85</v>
+      </c>
+      <c r="K36">
+        <v>4.865822962046021</v>
+      </c>
+      <c r="L36">
+        <v>16.66666666666667</v>
+      </c>
+      <c r="M36">
+        <v>10.35618333333334</v>
+      </c>
+      <c r="N36">
+        <v>4647379.598481401</v>
+      </c>
+      <c r="O36">
+        <v>4176364.41761048</v>
+      </c>
+      <c r="P36">
+        <v>13.91227763011719</v>
+      </c>
+      <c r="Q36">
+        <v>0.02289502257904661</v>
+      </c>
+      <c r="R36">
+        <v>30.67571329440749</v>
+      </c>
+    </row>
+    <row r="37" spans="1:18">
+      <c r="A37">
+        <v>3</v>
+      </c>
+      <c r="B37" t="s">
+        <v>176</v>
+      </c>
+      <c r="C37" t="s">
+        <v>219</v>
+      </c>
+      <c r="D37" t="s">
+        <v>220</v>
+      </c>
+      <c r="E37" t="s">
+        <v>251</v>
+      </c>
+      <c r="F37">
+        <v>81.77701252674811</v>
+      </c>
+      <c r="G37">
+        <v>650</v>
+      </c>
+      <c r="H37" t="s">
+        <v>86</v>
+      </c>
+      <c r="I37">
+        <v>9.525</v>
+      </c>
+      <c r="J37" t="s">
+        <v>85</v>
+      </c>
+      <c r="K37">
+        <v>4.865822962046021</v>
+      </c>
+      <c r="L37">
+        <v>16.66666666666667</v>
+      </c>
+      <c r="M37">
+        <v>10.35618333333334</v>
+      </c>
+      <c r="N37">
+        <v>4865822.962046022</v>
+      </c>
+      <c r="O37">
+        <v>4420241.945999204</v>
+      </c>
+      <c r="P37">
+        <v>13.92931764700834</v>
+      </c>
+      <c r="Q37">
+        <v>0.02290239253705801</v>
+      </c>
+      <c r="R37">
+        <v>29.81710690382073</v>
+      </c>
+    </row>
+    <row r="38" spans="1:18">
+      <c r="A38">
+        <v>3</v>
+      </c>
+      <c r="B38" t="s">
+        <v>177</v>
+      </c>
+      <c r="C38" t="s">
+        <v>220</v>
+      </c>
+      <c r="D38" t="s">
+        <v>247</v>
+      </c>
+      <c r="E38" t="s">
+        <v>251</v>
+      </c>
+      <c r="F38">
+        <v>81.77701252674824</v>
+      </c>
+      <c r="G38">
+        <v>650</v>
+      </c>
+      <c r="H38" t="s">
+        <v>86</v>
+      </c>
+      <c r="I38">
+        <v>9.525</v>
+      </c>
+      <c r="J38" t="s">
+        <v>85</v>
+      </c>
+      <c r="K38">
+        <v>4.865822962046021</v>
+      </c>
+      <c r="L38">
+        <v>8.333333333333336</v>
+      </c>
+      <c r="M38">
+        <v>5.178091666666668</v>
+      </c>
+      <c r="N38">
+        <v>4420241.945999204</v>
+      </c>
+      <c r="O38">
+        <v>4179668.383327221</v>
+      </c>
+      <c r="P38">
+        <v>13.95379260344057</v>
+      </c>
+      <c r="Q38">
+        <v>0.02296306612917482</v>
+      </c>
+      <c r="R38">
+        <v>30.66357378413788</v>
+      </c>
+    </row>
+    <row r="39" spans="1:18">
+      <c r="A39">
+        <v>3</v>
+      </c>
+      <c r="B39" t="s">
+        <v>178</v>
+      </c>
+      <c r="C39" t="s">
+        <v>221</v>
+      </c>
+      <c r="D39" t="s">
+        <v>222</v>
+      </c>
+      <c r="E39" t="s">
+        <v>251</v>
+      </c>
+      <c r="F39">
+        <v>81.5927253830228</v>
+      </c>
+      <c r="G39">
+        <v>650</v>
+      </c>
+      <c r="H39" t="s">
+        <v>86</v>
+      </c>
+      <c r="I39">
+        <v>9.525</v>
+      </c>
+      <c r="J39" t="s">
+        <v>85</v>
+      </c>
+      <c r="K39">
+        <v>4.865822962046021</v>
+      </c>
+      <c r="L39">
+        <v>8.333333333333332</v>
+      </c>
+      <c r="M39">
+        <v>5.178091666666666</v>
+      </c>
+      <c r="N39">
+        <v>4865822.962046022</v>
+      </c>
+      <c r="O39">
+        <v>4649349.139201025</v>
+      </c>
+      <c r="P39">
+        <v>13.80151785227662</v>
+      </c>
+      <c r="Q39">
+        <v>0.02267308355916841</v>
+      </c>
+      <c r="R39">
+        <v>29.07303901185268</v>
+      </c>
+    </row>
+    <row r="40" spans="1:18">
+      <c r="A40">
+        <v>3</v>
+      </c>
+      <c r="B40" t="s">
+        <v>179</v>
+      </c>
+      <c r="C40" t="s">
+        <v>222</v>
+      </c>
+      <c r="D40" t="s">
+        <v>248</v>
+      </c>
+      <c r="E40" t="s">
+        <v>251</v>
+      </c>
+      <c r="F40">
+        <v>81.59272538302294</v>
+      </c>
+      <c r="G40">
+        <v>650</v>
+      </c>
+      <c r="H40" t="s">
+        <v>86</v>
+      </c>
+      <c r="I40">
+        <v>9.525</v>
+      </c>
+      <c r="J40" t="s">
+        <v>85</v>
+      </c>
+      <c r="K40">
+        <v>4.865822962046021</v>
+      </c>
+      <c r="L40">
+        <v>16.66666666666667</v>
+      </c>
+      <c r="M40">
+        <v>10.35618333333334</v>
+      </c>
+      <c r="N40">
+        <v>4649349.139201025</v>
+      </c>
+      <c r="O40">
+        <v>4182935.604321522</v>
+      </c>
+      <c r="P40">
+        <v>13.84947096074036</v>
+      </c>
+      <c r="Q40">
+        <v>0.0227911178983025</v>
+      </c>
+      <c r="R40">
+        <v>30.65158344372771</v>
+      </c>
+    </row>
+    <row r="41" spans="1:18">
+      <c r="A41">
+        <v>3</v>
+      </c>
+      <c r="B41" t="s">
+        <v>180</v>
+      </c>
+      <c r="C41" t="s">
+        <v>223</v>
+      </c>
+      <c r="D41" t="s">
+        <v>224</v>
+      </c>
+      <c r="E41" t="s">
+        <v>251</v>
+      </c>
+      <c r="F41">
+        <v>81.40986372308849</v>
+      </c>
+      <c r="G41">
+        <v>650</v>
+      </c>
+      <c r="H41" t="s">
+        <v>86</v>
+      </c>
+      <c r="I41">
+        <v>9.525</v>
+      </c>
+      <c r="J41" t="s">
+        <v>85</v>
+      </c>
+      <c r="K41">
+        <v>4.865822962046021</v>
+      </c>
+      <c r="L41">
+        <v>16.66666666666666</v>
+      </c>
+      <c r="M41">
+        <v>10.35618333333333</v>
+      </c>
+      <c r="N41">
+        <v>4865822.962046022</v>
+      </c>
+      <c r="O41">
+        <v>4424341.028821101</v>
+      </c>
+      <c r="P41">
+        <v>13.86678011779473</v>
+      </c>
+      <c r="Q41">
+        <v>0.02279922488271709</v>
+      </c>
+      <c r="R41">
+        <v>29.80328557989864</v>
+      </c>
+    </row>
+    <row r="42" spans="1:18">
+      <c r="A42">
+        <v>3</v>
+      </c>
+      <c r="B42" t="s">
+        <v>181</v>
+      </c>
+      <c r="C42" t="s">
+        <v>224</v>
+      </c>
+      <c r="D42" t="s">
+        <v>249</v>
+      </c>
+      <c r="E42" t="s">
+        <v>251</v>
+      </c>
+      <c r="F42">
+        <v>81.40986372308849</v>
+      </c>
+      <c r="G42">
+        <v>650</v>
+      </c>
+      <c r="H42" t="s">
+        <v>86</v>
+      </c>
+      <c r="I42">
+        <v>9.525</v>
+      </c>
+      <c r="J42" t="s">
+        <v>85</v>
+      </c>
+      <c r="K42">
+        <v>4.865822962046021</v>
+      </c>
+      <c r="L42">
+        <v>8.333333333333343</v>
+      </c>
+      <c r="M42">
+        <v>5.178091666666672</v>
+      </c>
+      <c r="N42">
+        <v>4424341.028821101</v>
+      </c>
+      <c r="O42">
+        <v>4186169.152985218</v>
+      </c>
+      <c r="P42">
+        <v>13.89114519064601</v>
+      </c>
+      <c r="Q42">
+        <v>0.02285942357653978</v>
+      </c>
+      <c r="R42">
+        <v>30.63973785249047</v>
+      </c>
+    </row>
+    <row r="43" spans="1:18">
+      <c r="A43">
+        <v>3</v>
+      </c>
+      <c r="B43" t="s">
+        <v>182</v>
+      </c>
+      <c r="C43" t="s">
+        <v>225</v>
+      </c>
+      <c r="D43" t="s">
+        <v>226</v>
+      </c>
+      <c r="E43" t="s">
+        <v>251</v>
+      </c>
+      <c r="F43">
+        <v>81.2283172750852</v>
+      </c>
+      <c r="G43">
+        <v>650</v>
+      </c>
+      <c r="H43" t="s">
+        <v>86</v>
+      </c>
+      <c r="I43">
+        <v>9.525</v>
+      </c>
+      <c r="J43" t="s">
+        <v>85</v>
+      </c>
+      <c r="K43">
+        <v>4.865822962046021</v>
+      </c>
+      <c r="L43">
+        <v>8.333333333333329</v>
+      </c>
+      <c r="M43">
+        <v>5.178091666666663</v>
+      </c>
+      <c r="N43">
+        <v>4865822.962046022</v>
+      </c>
+      <c r="O43">
+        <v>4651279.543866448</v>
+      </c>
+      <c r="P43">
+        <v>13.73987773689126</v>
+      </c>
+      <c r="Q43">
+        <v>0.02257165837799355</v>
+      </c>
+      <c r="R43">
+        <v>29.06700809331659</v>
+      </c>
+    </row>
+    <row r="44" spans="1:18">
+      <c r="A44">
+        <v>3</v>
+      </c>
+      <c r="B44" t="s">
+        <v>183</v>
+      </c>
+      <c r="C44" t="s">
+        <v>226</v>
+      </c>
+      <c r="D44" t="s">
+        <v>250</v>
+      </c>
+      <c r="E44" t="s">
+        <v>251</v>
+      </c>
+      <c r="F44">
+        <v>81.22831727508516</v>
+      </c>
+      <c r="G44">
+        <v>650</v>
+      </c>
+      <c r="H44" t="s">
+        <v>86</v>
+      </c>
+      <c r="I44">
+        <v>9.525</v>
+      </c>
+      <c r="J44" t="s">
+        <v>85</v>
+      </c>
+      <c r="K44">
+        <v>4.865822962046021</v>
+      </c>
+      <c r="L44">
+        <v>16.66666666666667</v>
+      </c>
+      <c r="M44">
+        <v>10.35618333333334</v>
+      </c>
+      <c r="N44">
+        <v>4651279.543866448</v>
+      </c>
+      <c r="O44">
+        <v>4189368.912780208</v>
+      </c>
+      <c r="P44">
+        <v>13.787616677959</v>
+      </c>
+      <c r="Q44">
+        <v>0.02268878607000538</v>
+      </c>
+      <c r="R44">
+        <v>30.62802960165667</v>
       </c>
     </row>
   </sheetData>
@@ -4030,7 +5022,7 @@
   <sheetData>
     <row r="1" spans="1:18">
       <c r="A1" s="2" t="s">
-        <v>220</v>
+        <v>252</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>1</v>
@@ -4045,43 +5037,43 @@
         <v>129</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>221</v>
+        <v>253</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>222</v>
+        <v>254</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>223</v>
+        <v>255</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>224</v>
+        <v>256</v>
       </c>
       <c r="J1" s="2" t="s">
         <v>95</v>
       </c>
       <c r="K1" s="2" t="s">
-        <v>225</v>
+        <v>257</v>
       </c>
       <c r="L1" s="2" t="s">
         <v>101</v>
       </c>
       <c r="M1" s="2" t="s">
-        <v>226</v>
+        <v>258</v>
       </c>
       <c r="N1" s="2" t="s">
-        <v>227</v>
+        <v>259</v>
       </c>
       <c r="O1" s="2" t="s">
-        <v>228</v>
+        <v>260</v>
       </c>
       <c r="P1" s="2" t="s">
-        <v>229</v>
+        <v>261</v>
       </c>
       <c r="Q1" s="2" t="s">
-        <v>230</v>
+        <v>262</v>
       </c>
       <c r="R1" s="2" t="s">
-        <v>231</v>
+        <v>263</v>
       </c>
     </row>
     <row r="2" spans="1:18">
@@ -4092,13 +5084,13 @@
         <v>102</v>
       </c>
       <c r="C2" t="s">
-        <v>195</v>
+        <v>227</v>
       </c>
       <c r="D2" t="s">
-        <v>169</v>
+        <v>185</v>
       </c>
       <c r="E2" t="s">
-        <v>232</v>
+        <v>264</v>
       </c>
       <c r="F2">
         <v>11.66666666666667</v>
@@ -4107,22 +5099,22 @@
         <v>7.249328333333333</v>
       </c>
       <c r="H2">
-        <v>1.107571275647672</v>
+        <v>1.110758181499602</v>
       </c>
       <c r="I2">
-        <v>33.44705786892604</v>
+        <v>35.48634805525908</v>
       </c>
       <c r="J2">
-        <v>3.499458076789588</v>
+        <v>3.712822449268846</v>
       </c>
       <c r="K2">
-        <v>4692.843270136373</v>
+        <v>4978.969160918507</v>
       </c>
       <c r="L2">
         <v>0</v>
       </c>
       <c r="M2">
-        <v>3.499458076789588</v>
+        <v>3.712822449268846</v>
       </c>
       <c r="N2">
         <v>0.78</v>
@@ -4131,13 +5123,13 @@
         <v>0.357</v>
       </c>
       <c r="P2">
-        <v>11792919.01210872</v>
+        <v>12106254.18251517</v>
       </c>
       <c r="Q2">
         <v>0</v>
       </c>
       <c r="R2">
-        <v>11792919.01210872</v>
+        <v>12106254.18251517</v>
       </c>
     </row>
     <row r="3" spans="1:18">
@@ -4148,13 +5140,13 @@
         <v>103</v>
       </c>
       <c r="C3" t="s">
-        <v>196</v>
+        <v>228</v>
       </c>
       <c r="D3" t="s">
-        <v>170</v>
+        <v>187</v>
       </c>
       <c r="E3" t="s">
-        <v>232</v>
+        <v>264</v>
       </c>
       <c r="F3">
         <v>23.33333333333333</v>
@@ -4163,22 +5155,22 @@
         <v>14.49865666666667</v>
       </c>
       <c r="H3">
-        <v>1.107207813381851</v>
+        <v>1.110362571501391</v>
       </c>
       <c r="I3">
-        <v>33.28917814532216</v>
+        <v>35.30907469415853</v>
       </c>
       <c r="J3">
-        <v>3.482939629155357</v>
+        <v>3.694274907726207</v>
       </c>
       <c r="K3">
-        <v>4670.691701489917</v>
+        <v>4954.096536758998</v>
       </c>
       <c r="L3">
         <v>0</v>
       </c>
       <c r="M3">
-        <v>3.482939629155357</v>
+        <v>3.694274907726207</v>
       </c>
       <c r="N3">
         <v>0.78</v>
@@ -4187,13 +5179,13 @@
         <v>0.357</v>
       </c>
       <c r="P3">
-        <v>11768690.68401728</v>
+        <v>12078987.97075614</v>
       </c>
       <c r="Q3">
         <v>0</v>
       </c>
       <c r="R3">
-        <v>11768690.68401728</v>
+        <v>12078987.97075614</v>
       </c>
     </row>
     <row r="4" spans="1:18">
@@ -4204,13 +5196,13 @@
         <v>104</v>
       </c>
       <c r="C4" t="s">
-        <v>197</v>
+        <v>229</v>
       </c>
       <c r="D4" t="s">
-        <v>171</v>
+        <v>189</v>
       </c>
       <c r="E4" t="s">
-        <v>232</v>
+        <v>264</v>
       </c>
       <c r="F4">
         <v>35</v>
@@ -4219,22 +5211,22 @@
         <v>21.747985</v>
       </c>
       <c r="H4">
-        <v>1.106847939613521</v>
+        <v>1.109969521856537</v>
       </c>
       <c r="I4">
-        <v>33.1329328640867</v>
+        <v>35.13313034723929</v>
       </c>
       <c r="J4">
-        <v>3.466592187968678</v>
+        <v>3.675866416662363</v>
       </c>
       <c r="K4">
-        <v>4648.769455909757</v>
+        <v>4929.410382072562</v>
       </c>
       <c r="L4">
         <v>0</v>
       </c>
       <c r="M4">
-        <v>3.466592187968678</v>
+        <v>3.675866416662363</v>
       </c>
       <c r="N4">
         <v>0.78</v>
@@ -4243,13 +5235,13 @@
         <v>0.357</v>
       </c>
       <c r="P4">
-        <v>11744717.38847186</v>
+        <v>12051931.50382208</v>
       </c>
       <c r="Q4">
         <v>0</v>
       </c>
       <c r="R4">
-        <v>11744717.38847186</v>
+        <v>12051931.50382208</v>
       </c>
     </row>
     <row r="5" spans="1:18">
@@ -4260,13 +5252,13 @@
         <v>105</v>
       </c>
       <c r="C5" t="s">
-        <v>198</v>
+        <v>230</v>
       </c>
       <c r="D5" t="s">
-        <v>173</v>
+        <v>191</v>
       </c>
       <c r="E5" t="s">
-        <v>232</v>
+        <v>264</v>
       </c>
       <c r="F5">
         <v>46.66666666666666</v>
@@ -4275,22 +5267,22 @@
         <v>28.99731333333333</v>
       </c>
       <c r="H5">
-        <v>1.106491124113342</v>
+        <v>1.109578922612094</v>
       </c>
       <c r="I5">
-        <v>32.97812036981887</v>
+        <v>34.95849920270307</v>
       </c>
       <c r="J5">
-        <v>3.450394654673626</v>
+        <v>3.65759532173972</v>
       </c>
       <c r="K5">
-        <v>4627.048239810426</v>
+        <v>4904.9084783594</v>
       </c>
       <c r="L5">
         <v>0</v>
       </c>
       <c r="M5">
-        <v>3.450394654673626</v>
+        <v>3.65759532173972</v>
       </c>
       <c r="N5">
         <v>0.78</v>
@@ -4299,13 +5291,13 @@
         <v>0.357</v>
       </c>
       <c r="P5">
-        <v>11720968.06135838</v>
+        <v>12025082.23056671</v>
       </c>
       <c r="Q5">
         <v>0</v>
       </c>
       <c r="R5">
-        <v>11720968.06135838</v>
+        <v>12025082.23056671</v>
       </c>
     </row>
     <row r="6" spans="1:18">
@@ -4316,13 +5308,13 @@
         <v>106</v>
       </c>
       <c r="C6" t="s">
-        <v>199</v>
+        <v>231</v>
       </c>
       <c r="D6" t="s">
-        <v>174</v>
+        <v>193</v>
       </c>
       <c r="E6" t="s">
-        <v>232</v>
+        <v>264</v>
       </c>
       <c r="F6">
         <v>58.33333333333333</v>
@@ -4331,22 +5323,22 @@
         <v>36.24664166666666</v>
       </c>
       <c r="H6">
-        <v>1.106136089144247</v>
+        <v>1.109190406722896</v>
       </c>
       <c r="I6">
-        <v>32.82434864541168</v>
+        <v>34.785064704352</v>
       </c>
       <c r="J6">
-        <v>3.434306013781281</v>
+        <v>3.639449428058218</v>
       </c>
       <c r="K6">
-        <v>4605.473050600974</v>
+        <v>4880.574472014631</v>
       </c>
       <c r="L6">
         <v>0</v>
       </c>
       <c r="M6">
-        <v>3.434306013781281</v>
+        <v>3.639449428058218</v>
       </c>
       <c r="N6">
         <v>0.78</v>
@@ -4355,13 +5347,13 @@
         <v>0.357</v>
       </c>
       <c r="P6">
-        <v>11697382.46586773</v>
+        <v>11998422.11784048</v>
       </c>
       <c r="Q6">
         <v>0</v>
       </c>
       <c r="R6">
-        <v>11697382.46586773</v>
+        <v>11998422.11784048</v>
       </c>
     </row>
     <row r="7" spans="1:18">
@@ -4369,13 +5361,13 @@
         <v>107</v>
       </c>
       <c r="C7" t="s">
-        <v>200</v>
+        <v>232</v>
       </c>
       <c r="D7" t="s">
-        <v>175</v>
+        <v>194</v>
       </c>
       <c r="E7" t="s">
-        <v>219</v>
+        <v>251</v>
       </c>
       <c r="F7">
         <v>70</v>
@@ -4384,16 +5376,16 @@
         <v>43.49597</v>
       </c>
       <c r="H7">
-        <v>1.10578392227535</v>
+        <v>1.108802579689474</v>
       </c>
       <c r="I7">
-        <v>32.6719349686737</v>
+        <v>34.61239277122915</v>
       </c>
       <c r="J7">
-        <v>3.418359461048181</v>
+        <v>3.621383319123625</v>
       </c>
       <c r="K7">
-        <v>4584.088404454831</v>
+        <v>4856.347458611163</v>
       </c>
       <c r="L7">
         <v>0</v>
@@ -4425,13 +5417,13 @@
         <v>108</v>
       </c>
       <c r="C8" t="s">
-        <v>201</v>
+        <v>233</v>
       </c>
       <c r="D8" t="s">
-        <v>176</v>
+        <v>195</v>
       </c>
       <c r="E8" t="s">
-        <v>232</v>
+        <v>264</v>
       </c>
       <c r="F8">
         <v>83</v>
@@ -4440,22 +5432,22 @@
         <v>51.573793</v>
       </c>
       <c r="H8">
-        <v>1.119710300855911</v>
+        <v>1.123187713874457</v>
       </c>
       <c r="I8">
-        <v>36.73741190928028</v>
+        <v>38.91453085954409</v>
       </c>
       <c r="J8">
-        <v>3.843717236059687</v>
+        <v>4.071502188759833</v>
       </c>
       <c r="K8">
-        <v>5154.501687900761</v>
+        <v>5459.965865170711</v>
       </c>
       <c r="L8">
         <v>0</v>
       </c>
       <c r="M8">
-        <v>3.843717236059687</v>
+        <v>4.071502188759833</v>
       </c>
       <c r="N8">
         <v>0.78</v>
@@ -4464,13 +5456,13 @@
         <v>0.357</v>
       </c>
       <c r="P8">
-        <v>12298832.15123079</v>
+        <v>12634599.23977768</v>
       </c>
       <c r="Q8">
         <v>0</v>
       </c>
       <c r="R8">
-        <v>12298832.15123079</v>
+        <v>12634599.23977768</v>
       </c>
     </row>
     <row r="9" spans="1:18">
@@ -4481,13 +5473,13 @@
         <v>109</v>
       </c>
       <c r="C9" t="s">
-        <v>202</v>
+        <v>234</v>
       </c>
       <c r="D9" t="s">
-        <v>177</v>
+        <v>197</v>
       </c>
       <c r="E9" t="s">
-        <v>232</v>
+        <v>264</v>
       </c>
       <c r="F9">
         <v>96</v>
@@ -4496,22 +5488,22 @@
         <v>59.651616</v>
       </c>
       <c r="H9">
-        <v>1.119256252706401</v>
+        <v>1.122692950932483</v>
       </c>
       <c r="I9">
-        <v>36.54416111973416</v>
+        <v>38.69962688738584</v>
       </c>
       <c r="J9">
-        <v>3.823498027572851</v>
+        <v>4.04901747742736</v>
       </c>
       <c r="K9">
-        <v>5127.387324935745</v>
+        <v>5429.813417579639</v>
       </c>
       <c r="L9">
         <v>0</v>
       </c>
       <c r="M9">
-        <v>3.823498027572851</v>
+        <v>4.04901747742736</v>
       </c>
       <c r="N9">
         <v>0.78</v>
@@ -4520,13 +5512,13 @@
         <v>0.357</v>
       </c>
       <c r="P9">
-        <v>12269067.25853081</v>
+        <v>12601419.4133833</v>
       </c>
       <c r="Q9">
         <v>0</v>
       </c>
       <c r="R9">
-        <v>12269067.25853081</v>
+        <v>12601419.4133833</v>
       </c>
     </row>
     <row r="10" spans="1:18">
@@ -4537,37 +5529,37 @@
         <v>110</v>
       </c>
       <c r="C10" t="s">
-        <v>203</v>
+        <v>235</v>
       </c>
       <c r="D10" t="s">
-        <v>179</v>
+        <v>199</v>
       </c>
       <c r="E10" t="s">
-        <v>232</v>
+        <v>264</v>
       </c>
       <c r="F10">
         <v>109</v>
       </c>
       <c r="G10">
-        <v>67.729439</v>
+        <v>67.72943900000001</v>
       </c>
       <c r="H10">
-        <v>1.0941471230195</v>
+        <v>1.096741786639076</v>
       </c>
       <c r="I10">
-        <v>23.97308000173327</v>
+        <v>25.33970559941271</v>
       </c>
       <c r="J10">
-        <v>2.508226247174013</v>
+        <v>2.651211887480207</v>
       </c>
       <c r="K10">
-        <v>3363.581561985295</v>
+        <v>3555.328165348707</v>
       </c>
       <c r="L10">
         <v>0</v>
       </c>
       <c r="M10">
-        <v>2.508226247174013</v>
+        <v>2.651211887480207</v>
       </c>
       <c r="N10">
         <v>0.78</v>
@@ -4576,13 +5568,13 @@
         <v>0.357</v>
       </c>
       <c r="P10">
-        <v>10346606.64537828</v>
+        <v>10554287.48727263</v>
       </c>
       <c r="Q10">
         <v>0</v>
       </c>
       <c r="R10">
-        <v>10346606.64537828</v>
+        <v>10554287.48727263</v>
       </c>
     </row>
     <row r="11" spans="1:18">
@@ -4593,37 +5585,37 @@
         <v>111</v>
       </c>
       <c r="C11" t="s">
-        <v>204</v>
+        <v>236</v>
       </c>
       <c r="D11" t="s">
-        <v>180</v>
+        <v>201</v>
       </c>
       <c r="E11" t="s">
-        <v>232</v>
+        <v>264</v>
       </c>
       <c r="F11">
         <v>122</v>
       </c>
       <c r="G11">
-        <v>75.80726199999999</v>
+        <v>75.80726200000001</v>
       </c>
       <c r="H11">
-        <v>1.076840207587721</v>
+        <v>1.078897700746058</v>
       </c>
       <c r="I11">
-        <v>19.66344940253924</v>
+        <v>20.70167460157071</v>
       </c>
       <c r="J11">
-        <v>2.057323460225436</v>
+        <v>2.165949623175708</v>
       </c>
       <c r="K11">
-        <v>2758.911906631514</v>
+        <v>2904.581763671088</v>
       </c>
       <c r="L11">
         <v>0</v>
       </c>
       <c r="M11">
-        <v>2.057323460225436</v>
+        <v>2.165949623175708</v>
       </c>
       <c r="N11">
         <v>0.78</v>
@@ -4649,13 +5641,13 @@
         <v>112</v>
       </c>
       <c r="C12" t="s">
-        <v>205</v>
+        <v>237</v>
       </c>
       <c r="D12" t="s">
-        <v>181</v>
+        <v>203</v>
       </c>
       <c r="E12" t="s">
-        <v>232</v>
+        <v>264</v>
       </c>
       <c r="F12">
         <v>135</v>
@@ -4664,22 +5656,22 @@
         <v>83.885085</v>
       </c>
       <c r="H12">
-        <v>1.07666152022615</v>
+        <v>1.078703677112501</v>
       </c>
       <c r="I12">
-        <v>19.59811120288173</v>
+        <v>20.62841285465433</v>
       </c>
       <c r="J12">
-        <v>2.050487334566479</v>
+        <v>2.158284482254466</v>
       </c>
       <c r="K12">
-        <v>2749.74452540034</v>
+        <v>2894.302656392884</v>
       </c>
       <c r="L12">
         <v>0</v>
       </c>
       <c r="M12">
-        <v>2.050487334566479</v>
+        <v>2.158284482254466</v>
       </c>
       <c r="N12">
         <v>0.78</v>
@@ -4705,37 +5697,37 @@
         <v>113</v>
       </c>
       <c r="C13" t="s">
-        <v>206</v>
+        <v>238</v>
       </c>
       <c r="D13" t="s">
-        <v>182</v>
+        <v>204</v>
       </c>
       <c r="E13" t="s">
-        <v>232</v>
+        <v>264</v>
       </c>
       <c r="F13">
         <v>148</v>
       </c>
       <c r="G13">
-        <v>91.962908</v>
+        <v>91.96290800000001</v>
       </c>
       <c r="H13">
-        <v>1.076483698351952</v>
+        <v>1.078510716665485</v>
       </c>
       <c r="I13">
-        <v>19.53314608939185</v>
+        <v>20.55560102404852</v>
       </c>
       <c r="J13">
-        <v>2.043690243713149</v>
+        <v>2.15066641462957</v>
       </c>
       <c r="K13">
-        <v>2740.629490624206</v>
+        <v>2884.086675346545</v>
       </c>
       <c r="L13">
         <v>0</v>
       </c>
       <c r="M13">
-        <v>2.043690243713149</v>
+        <v>2.15066641462957</v>
       </c>
       <c r="N13">
         <v>0.78</v>
@@ -4761,13 +5753,13 @@
         <v>114</v>
       </c>
       <c r="C14" t="s">
-        <v>207</v>
+        <v>239</v>
       </c>
       <c r="D14" t="s">
-        <v>184</v>
+        <v>206</v>
       </c>
       <c r="E14" t="s">
-        <v>232</v>
+        <v>264</v>
       </c>
       <c r="F14">
         <v>161</v>
@@ -4776,22 +5768,22 @@
         <v>100.040731</v>
       </c>
       <c r="H14">
-        <v>1.076306809133712</v>
+        <v>1.07831937640837</v>
       </c>
       <c r="I14">
-        <v>19.46856927275776</v>
+        <v>20.48338103991817</v>
       </c>
       <c r="J14">
-        <v>2.036933779110817</v>
+        <v>2.143110269997627</v>
       </c>
       <c r="K14">
-        <v>2731.568936463188</v>
+        <v>2873.953734272217</v>
       </c>
       <c r="L14">
         <v>0</v>
       </c>
       <c r="M14">
-        <v>2.036933779110817</v>
+        <v>2.143110269997627</v>
       </c>
       <c r="N14">
         <v>0.78</v>
@@ -4817,13 +5809,13 @@
         <v>115</v>
       </c>
       <c r="C15" t="s">
+        <v>240</v>
+      </c>
+      <c r="D15" t="s">
         <v>208</v>
       </c>
-      <c r="D15" t="s">
-        <v>185</v>
-      </c>
       <c r="E15" t="s">
-        <v>232</v>
+        <v>264</v>
       </c>
       <c r="F15">
         <v>174</v>
@@ -4832,22 +5824,22 @@
         <v>108.118554</v>
       </c>
       <c r="H15">
-        <v>1.076130625242517</v>
+        <v>1.078128998766328</v>
       </c>
       <c r="I15">
-        <v>19.40432291003868</v>
+        <v>20.41158137311636</v>
       </c>
       <c r="J15">
-        <v>2.030211888838654</v>
+        <v>2.135598101815749</v>
       </c>
       <c r="K15">
-        <v>2722.554747170411</v>
+        <v>2863.879766496955</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>2.030211888838654</v>
+        <v>2.135598101815749</v>
       </c>
       <c r="N15">
         <v>0.78</v>
@@ -4873,13 +5865,13 @@
         <v>116</v>
       </c>
       <c r="C16" t="s">
-        <v>209</v>
+        <v>241</v>
       </c>
       <c r="D16" t="s">
-        <v>186</v>
+        <v>210</v>
       </c>
       <c r="E16" t="s">
-        <v>232</v>
+        <v>264</v>
       </c>
       <c r="F16">
         <v>187</v>
@@ -4888,22 +5880,22 @@
         <v>116.196377</v>
       </c>
       <c r="H16">
-        <v>1.075955361504761</v>
+        <v>1.077939324540984</v>
       </c>
       <c r="I16">
-        <v>19.34045891005354</v>
+        <v>20.34013375024011</v>
       </c>
       <c r="J16">
-        <v>2.023530003949408</v>
+        <v>2.128122766857393</v>
       </c>
       <c r="K16">
-        <v>2713.594205896236</v>
+        <v>2853.855192811102</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>2.023530003949408</v>
+        <v>2.128122766857393</v>
       </c>
       <c r="N16">
         <v>0.78</v>
@@ -4926,13 +5918,13 @@
         <v>117</v>
       </c>
       <c r="C17" t="s">
-        <v>210</v>
+        <v>242</v>
       </c>
       <c r="D17" t="s">
-        <v>187</v>
+        <v>211</v>
       </c>
       <c r="E17" t="s">
-        <v>219</v>
+        <v>251</v>
       </c>
       <c r="F17">
         <v>200</v>
@@ -4941,16 +5933,16 @@
         <v>124.2742</v>
       </c>
       <c r="H17">
-        <v>1.075780937916082</v>
+        <v>1.077749955704649</v>
       </c>
       <c r="I17">
-        <v>19.27695600613279</v>
+        <v>20.26893447226658</v>
       </c>
       <c r="J17">
-        <v>2.016885899379854</v>
+        <v>2.120673415427367</v>
       </c>
       <c r="K17">
-        <v>2704.684328786372</v>
+        <v>2843.865463556408</v>
       </c>
       <c r="L17">
         <v>0</v>
@@ -4982,13 +5974,13 @@
         <v>118</v>
       </c>
       <c r="C18" t="s">
-        <v>211</v>
+        <v>243</v>
       </c>
       <c r="D18" t="s">
-        <v>188</v>
+        <v>213</v>
       </c>
       <c r="E18" t="s">
-        <v>232</v>
+        <v>264</v>
       </c>
       <c r="F18">
         <v>225</v>
@@ -4997,22 +5989,22 @@
         <v>139.808475</v>
       </c>
       <c r="H18">
-        <v>1.162983563484804</v>
+        <v>1.167918082004549</v>
       </c>
       <c r="I18">
-        <v>40.15793256262445</v>
+        <v>42.28036336486285</v>
       </c>
       <c r="J18">
-        <v>4.201595309344319</v>
+        <v>4.42365841703011</v>
       </c>
       <c r="K18">
-        <v>5634.423341736919</v>
+        <v>5932.214410405718</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>4.201595309344319</v>
+        <v>4.42365841703011</v>
       </c>
       <c r="N18">
         <v>0.78</v>
@@ -5021,13 +6013,13 @@
         <v>0.357</v>
       </c>
       <c r="P18">
-        <v>12826728.20363096</v>
+        <v>13155296.46749666</v>
       </c>
       <c r="Q18">
         <v>0</v>
       </c>
       <c r="R18">
-        <v>12826728.20363096</v>
+        <v>13155296.46749666</v>
       </c>
     </row>
     <row r="19" spans="1:18">
@@ -5038,13 +6030,13 @@
         <v>119</v>
       </c>
       <c r="C19" t="s">
-        <v>212</v>
+        <v>244</v>
       </c>
       <c r="D19" t="s">
-        <v>189</v>
+        <v>215</v>
       </c>
       <c r="E19" t="s">
-        <v>232</v>
+        <v>264</v>
       </c>
       <c r="F19">
         <v>250</v>
@@ -5053,22 +6045,22 @@
         <v>155.34275</v>
       </c>
       <c r="H19">
-        <v>1.162108649016275</v>
+        <v>1.166962243618513</v>
       </c>
       <c r="I19">
-        <v>39.86686476386878</v>
+        <v>41.94624516190274</v>
       </c>
       <c r="J19">
-        <v>4.1711418218286</v>
+        <v>4.38870070420128</v>
       </c>
       <c r="K19">
-        <v>5593.58460590859</v>
+        <v>5885.335418348</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>4.1711418218286</v>
+        <v>4.38870070420128</v>
       </c>
       <c r="N19">
         <v>0.78</v>
@@ -5077,13 +6069,13 @@
         <v>0.357</v>
       </c>
       <c r="P19">
-        <v>12781728.97432105</v>
+        <v>13103521.20300996</v>
       </c>
       <c r="Q19">
         <v>0</v>
       </c>
       <c r="R19">
-        <v>12781728.97432105</v>
+        <v>13103521.20300996</v>
       </c>
     </row>
     <row r="20" spans="1:18">
@@ -5094,37 +6086,37 @@
         <v>120</v>
       </c>
       <c r="C20" t="s">
-        <v>213</v>
+        <v>245</v>
       </c>
       <c r="D20" t="s">
-        <v>190</v>
+        <v>217</v>
       </c>
       <c r="E20" t="s">
-        <v>232</v>
+        <v>264</v>
       </c>
       <c r="F20">
-        <v>275</v>
+        <v>275.0000000000001</v>
       </c>
       <c r="G20">
         <v>170.877025</v>
       </c>
       <c r="H20">
-        <v>1.161243848814108</v>
+        <v>1.166017948811477</v>
       </c>
       <c r="I20">
-        <v>39.57954562247014</v>
+        <v>41.6164473347259</v>
       </c>
       <c r="J20">
-        <v>4.141080544273965</v>
+        <v>4.354195018393445</v>
       </c>
       <c r="K20">
-        <v>5553.271831482272</v>
+        <v>5839.062603565977</v>
       </c>
       <c r="L20">
         <v>0</v>
       </c>
       <c r="M20">
-        <v>4.141080544273965</v>
+        <v>4.354195018393445</v>
       </c>
       <c r="N20">
         <v>0.78</v>
@@ -5133,13 +6125,13 @@
         <v>0.357</v>
       </c>
       <c r="P20">
-        <v>12737323.54371098</v>
+        <v>13052434.20924805</v>
       </c>
       <c r="Q20">
         <v>0</v>
       </c>
       <c r="R20">
-        <v>12737323.54371098</v>
+        <v>13052434.20924805</v>
       </c>
     </row>
     <row r="21" spans="1:18">
@@ -5147,31 +6139,31 @@
         <v>121</v>
       </c>
       <c r="C21" t="s">
-        <v>214</v>
+        <v>246</v>
       </c>
       <c r="D21" t="s">
-        <v>191</v>
+        <v>219</v>
       </c>
       <c r="E21" t="s">
-        <v>219</v>
+        <v>251</v>
       </c>
       <c r="F21">
-        <v>300</v>
+        <v>300.0000000000001</v>
       </c>
       <c r="G21">
         <v>186.4113</v>
       </c>
       <c r="H21">
-        <v>1.160388980735331</v>
+        <v>1.165085819984554</v>
       </c>
       <c r="I21">
-        <v>39.295904647921</v>
+        <v>41.29109744202606</v>
       </c>
       <c r="J21">
-        <v>4.111404101485356</v>
+        <v>4.320154705662414</v>
       </c>
       <c r="K21">
-        <v>5513.475128173893</v>
+        <v>5793.413863387411</v>
       </c>
       <c r="L21">
         <v>0</v>
@@ -5203,37 +6195,37 @@
         <v>122</v>
       </c>
       <c r="C22" t="s">
-        <v>215</v>
+        <v>247</v>
       </c>
       <c r="D22" t="s">
-        <v>192</v>
+        <v>221</v>
       </c>
       <c r="E22" t="s">
-        <v>232</v>
+        <v>264</v>
       </c>
       <c r="F22">
-        <v>325</v>
+        <v>325.0000000000001</v>
       </c>
       <c r="G22">
         <v>201.945575</v>
       </c>
       <c r="H22">
-        <v>1.159543867105313</v>
+        <v>1.164164836965508</v>
       </c>
       <c r="I22">
-        <v>39.01587310407755</v>
+        <v>40.9699163344204</v>
       </c>
       <c r="J22">
-        <v>4.082105301821149</v>
+        <v>4.286550559506197</v>
       </c>
       <c r="K22">
-        <v>5474.184851848197</v>
+        <v>5748.350031309</v>
       </c>
       <c r="L22">
         <v>0</v>
       </c>
       <c r="M22">
-        <v>4.082105301821149</v>
+        <v>4.286550559506197</v>
       </c>
       <c r="N22">
         <v>0.78</v>
@@ -5242,13 +6234,13 @@
         <v>0.357</v>
       </c>
       <c r="P22">
-        <v>12650248.59621181</v>
+        <v>12952338.13256341</v>
       </c>
       <c r="Q22">
         <v>0</v>
       </c>
       <c r="R22">
-        <v>12650248.59621181</v>
+        <v>12952338.13256341</v>
       </c>
     </row>
     <row r="23" spans="1:18">
@@ -5259,37 +6251,37 @@
         <v>123</v>
       </c>
       <c r="C23" t="s">
-        <v>216</v>
+        <v>248</v>
       </c>
       <c r="D23" t="s">
-        <v>193</v>
+        <v>223</v>
       </c>
       <c r="E23" t="s">
-        <v>232</v>
+        <v>264</v>
       </c>
       <c r="F23">
-        <v>350</v>
+        <v>350.0000000000001</v>
       </c>
       <c r="G23">
         <v>217.47985</v>
       </c>
       <c r="H23">
-        <v>1.158708334579011</v>
+        <v>1.16325552729499</v>
       </c>
       <c r="I23">
-        <v>38.73938395471018</v>
+        <v>40.65300897739369</v>
       </c>
       <c r="J23">
-        <v>4.053177131496273</v>
+        <v>4.253393562125825</v>
       </c>
       <c r="K23">
-        <v>5435.391596879133</v>
+        <v>5703.885834681973</v>
       </c>
       <c r="L23">
         <v>0</v>
       </c>
       <c r="M23">
-        <v>4.053177131496273</v>
+        <v>4.253393562125825</v>
       </c>
       <c r="N23">
         <v>0.78</v>
@@ -5298,13 +6290,13 @@
         <v>0.357</v>
       </c>
       <c r="P23">
-        <v>12607557.05811615</v>
+        <v>12903300.65253028</v>
       </c>
       <c r="Q23">
         <v>0</v>
       </c>
       <c r="R23">
-        <v>12607557.05811615</v>
+        <v>12903300.65253028</v>
       </c>
     </row>
     <row r="24" spans="1:18">
@@ -5315,37 +6307,37 @@
         <v>124</v>
       </c>
       <c r="C24" t="s">
-        <v>217</v>
+        <v>249</v>
       </c>
       <c r="D24" t="s">
-        <v>194</v>
+        <v>225</v>
       </c>
       <c r="E24" t="s">
-        <v>232</v>
+        <v>264</v>
       </c>
       <c r="F24">
-        <v>375</v>
+        <v>375.0000000000001</v>
       </c>
       <c r="G24">
         <v>233.014125</v>
       </c>
       <c r="H24">
-        <v>1.157882214007413</v>
+        <v>1.162356986596237</v>
       </c>
       <c r="I24">
-        <v>38.46637181104102</v>
+        <v>40.36061678067849</v>
       </c>
       <c r="J24">
-        <v>4.02461274909323</v>
+        <v>4.222801507111746</v>
       </c>
       <c r="K24">
-        <v>5397.086188789004</v>
+        <v>5662.861277066993</v>
       </c>
       <c r="L24">
         <v>0</v>
       </c>
       <c r="M24">
-        <v>4.02461274909323</v>
+        <v>4.222801507111746</v>
       </c>
       <c r="N24">
         <v>0.78</v>
@@ -5354,13 +6346,13 @@
         <v>0.357</v>
       </c>
       <c r="P24">
-        <v>12565415.25812815</v>
+        <v>12858071.87062018</v>
       </c>
       <c r="Q24">
         <v>0</v>
       </c>
       <c r="R24">
-        <v>12565415.25812815</v>
+        <v>12858071.87062018</v>
       </c>
     </row>
   </sheetData>
@@ -5370,7 +6362,7 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B52"/>
+  <dimension ref="A1:B68"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -5378,15 +6370,15 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="2" t="s">
-        <v>233</v>
+        <v>265</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>234</v>
+        <v>266</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>168</v>
+        <v>184</v>
       </c>
       <c r="B2">
         <v>4865822.962046022</v>
@@ -5394,15 +6386,15 @@
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>195</v>
+        <v>227</v>
       </c>
       <c r="B3">
-        <v>4393236.867939396</v>
+        <v>4380632.115152928</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>169</v>
+        <v>185</v>
       </c>
       <c r="B4">
         <v>4865822.962046022</v>
@@ -5410,71 +6402,71 @@
     </row>
     <row r="5" spans="1:2">
       <c r="A5" t="s">
-        <v>196</v>
+        <v>186</v>
       </c>
       <c r="B5">
-        <v>4394679.032460829</v>
+        <v>4799715.335512225</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" t="s">
-        <v>170</v>
+        <v>228</v>
       </c>
       <c r="B6">
-        <v>4865822.962046022</v>
+        <v>4382192.886298967</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" t="s">
-        <v>197</v>
+        <v>187</v>
       </c>
       <c r="B7">
-        <v>4396107.891518529</v>
+        <v>4865822.962046022</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" t="s">
-        <v>171</v>
+        <v>188</v>
       </c>
       <c r="B8">
-        <v>4865822.962046022</v>
+        <v>4733096.700577617</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" t="s">
-        <v>172</v>
+        <v>229</v>
       </c>
       <c r="B9">
-        <v>4670752.61542308</v>
+        <v>4383744.658058213</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" t="s">
-        <v>198</v>
+        <v>189</v>
       </c>
       <c r="B10">
-        <v>4397525.525516639</v>
+        <v>4865822.962046022</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" t="s">
-        <v>173</v>
+        <v>190</v>
       </c>
       <c r="B11">
-        <v>4865822.962046022</v>
+        <v>4665941.396452308</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" t="s">
-        <v>199</v>
+        <v>230</v>
       </c>
       <c r="B12">
-        <v>4398936.993196221</v>
+        <v>4385287.844681869</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" t="s">
-        <v>174</v>
+        <v>191</v>
       </c>
       <c r="B13">
         <v>4865822.962046022</v>
@@ -5482,103 +6474,103 @@
     </row>
     <row r="14" spans="1:2">
       <c r="A14" t="s">
-        <v>200</v>
+        <v>192</v>
       </c>
       <c r="B14">
-        <v>4400337.95394105</v>
+        <v>4528854.089399976</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15" t="s">
-        <v>175</v>
+        <v>231</v>
       </c>
       <c r="B15">
-        <v>4865822.962046022</v>
+        <v>4386823.878527852</v>
       </c>
     </row>
     <row r="16" spans="1:2">
       <c r="A16" t="s">
-        <v>201</v>
+        <v>193</v>
       </c>
       <c r="B16">
-        <v>4345608.822502185</v>
+        <v>4865822.962046022</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" t="s">
-        <v>176</v>
+        <v>232</v>
       </c>
       <c r="B17">
-        <v>4865822.962046022</v>
+        <v>4388358.262485935</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" t="s">
-        <v>202</v>
+        <v>194</v>
       </c>
       <c r="B18">
-        <v>4347371.703557869</v>
+        <v>4865822.962046022</v>
       </c>
     </row>
     <row r="19" spans="1:2">
       <c r="A19" t="s">
-        <v>177</v>
+        <v>233</v>
       </c>
       <c r="B19">
-        <v>4865822.962046022</v>
+        <v>4332154.725287437</v>
       </c>
     </row>
     <row r="20" spans="1:2">
       <c r="A20" t="s">
-        <v>178</v>
+        <v>195</v>
       </c>
       <c r="B20">
-        <v>4654072.429647412</v>
+        <v>4865822.962046022</v>
       </c>
     </row>
     <row r="21" spans="1:2">
       <c r="A21" t="s">
-        <v>203</v>
+        <v>196</v>
       </c>
       <c r="B21">
-        <v>4447137.738312458</v>
+        <v>4758291.132987313</v>
       </c>
     </row>
     <row r="22" spans="1:2">
       <c r="A22" t="s">
-        <v>179</v>
+        <v>234</v>
       </c>
       <c r="B22">
-        <v>4865822.962046022</v>
+        <v>4334063.875616732</v>
       </c>
     </row>
     <row r="23" spans="1:2">
       <c r="A23" t="s">
-        <v>204</v>
+        <v>197</v>
       </c>
       <c r="B23">
-        <v>4518611.886666242</v>
+        <v>4865822.962046022</v>
       </c>
     </row>
     <row r="24" spans="1:2">
       <c r="A24" t="s">
-        <v>180</v>
+        <v>198</v>
       </c>
       <c r="B24">
-        <v>4865822.962046022</v>
+        <v>4649025.388800763</v>
       </c>
     </row>
     <row r="25" spans="1:2">
       <c r="A25" t="s">
-        <v>205</v>
+        <v>235</v>
       </c>
       <c r="B25">
-        <v>4519361.814866357</v>
+        <v>4436616.732692528</v>
       </c>
     </row>
     <row r="26" spans="1:2">
       <c r="A26" t="s">
-        <v>181</v>
+        <v>199</v>
       </c>
       <c r="B26">
         <v>4865822.962046022</v>
@@ -5586,87 +6578,87 @@
     </row>
     <row r="27" spans="1:2">
       <c r="A27" t="s">
-        <v>206</v>
+        <v>200</v>
       </c>
       <c r="B27">
-        <v>4520108.357883521</v>
+        <v>4631641.691423165</v>
       </c>
     </row>
     <row r="28" spans="1:2">
       <c r="A28" t="s">
-        <v>182</v>
+        <v>236</v>
       </c>
       <c r="B28">
-        <v>4865822.962046022</v>
+        <v>4509994.746194476</v>
       </c>
     </row>
     <row r="29" spans="1:2">
       <c r="A29" t="s">
-        <v>183</v>
+        <v>201</v>
       </c>
       <c r="B29">
-        <v>4814325.508955292</v>
+        <v>4865822.962046022</v>
       </c>
     </row>
     <row r="30" spans="1:2">
       <c r="A30" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="B30">
-        <v>4520851.230108246</v>
+        <v>4543799.617857576</v>
       </c>
     </row>
     <row r="31" spans="1:2">
       <c r="A31" t="s">
-        <v>184</v>
+        <v>237</v>
       </c>
       <c r="B31">
-        <v>4865822.962046022</v>
+        <v>4510805.947256035</v>
       </c>
     </row>
     <row r="32" spans="1:2">
       <c r="A32" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="B32">
-        <v>4521591.382969386</v>
+        <v>4865822.962046022</v>
       </c>
     </row>
     <row r="33" spans="1:2">
       <c r="A33" t="s">
-        <v>185</v>
+        <v>238</v>
       </c>
       <c r="B33">
-        <v>4865822.962046022</v>
+        <v>4511612.992673882</v>
       </c>
     </row>
     <row r="34" spans="1:2">
       <c r="A34" t="s">
-        <v>209</v>
+        <v>204</v>
       </c>
       <c r="B34">
-        <v>4522327.910742506</v>
+        <v>4865822.962046022</v>
       </c>
     </row>
     <row r="35" spans="1:2">
       <c r="A35" t="s">
-        <v>186</v>
+        <v>205</v>
       </c>
       <c r="B35">
-        <v>4865822.962046022</v>
+        <v>4813140.542938863</v>
       </c>
     </row>
     <row r="36" spans="1:2">
       <c r="A36" t="s">
-        <v>210</v>
+        <v>239</v>
       </c>
       <c r="B36">
-        <v>4523061.146139761</v>
+        <v>4512413.546952056</v>
       </c>
     </row>
     <row r="37" spans="1:2">
       <c r="A37" t="s">
-        <v>187</v>
+        <v>206</v>
       </c>
       <c r="B37">
         <v>4865822.962046022</v>
@@ -5674,47 +6666,47 @@
     </row>
     <row r="38" spans="1:2">
       <c r="A38" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="B38">
-        <v>4183913.78418617</v>
+        <v>4715361.395697353</v>
       </c>
     </row>
     <row r="39" spans="1:2">
       <c r="A39" t="s">
-        <v>188</v>
+        <v>240</v>
       </c>
       <c r="B39">
-        <v>4865822.962046022</v>
+        <v>4513210.355730941</v>
       </c>
     </row>
     <row r="40" spans="1:2">
       <c r="A40" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="B40">
-        <v>4187063.719184039</v>
+        <v>4865822.962046022</v>
       </c>
     </row>
     <row r="41" spans="1:2">
       <c r="A41" t="s">
-        <v>189</v>
+        <v>209</v>
       </c>
       <c r="B41">
-        <v>4865822.962046022</v>
+        <v>4615950.509760415</v>
       </c>
     </row>
     <row r="42" spans="1:2">
       <c r="A42" t="s">
-        <v>213</v>
+        <v>241</v>
       </c>
       <c r="B42">
-        <v>4190181.9045286</v>
+        <v>4514004.5003164</v>
       </c>
     </row>
     <row r="43" spans="1:2">
       <c r="A43" t="s">
-        <v>190</v>
+        <v>210</v>
       </c>
       <c r="B43">
         <v>4865822.962046022</v>
@@ -5722,15 +6714,15 @@
     </row>
     <row r="44" spans="1:2">
       <c r="A44" t="s">
-        <v>214</v>
+        <v>242</v>
       </c>
       <c r="B44">
-        <v>4193268.845902503</v>
+        <v>4514797.64512231</v>
       </c>
     </row>
     <row r="45" spans="1:2">
       <c r="A45" t="s">
-        <v>191</v>
+        <v>211</v>
       </c>
       <c r="B45">
         <v>4865822.962046022</v>
@@ -5738,47 +6730,47 @@
     </row>
     <row r="46" spans="1:2">
       <c r="A46" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="B46">
-        <v>4196325.037872925</v>
+        <v>4411780.608969413</v>
       </c>
     </row>
     <row r="47" spans="1:2">
       <c r="A47" t="s">
-        <v>192</v>
+        <v>243</v>
       </c>
       <c r="B47">
-        <v>4865822.962046022</v>
+        <v>4166236.516943549</v>
       </c>
     </row>
     <row r="48" spans="1:2">
       <c r="A48" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="B48">
-        <v>4199350.964204381</v>
+        <v>4865822.962046022</v>
       </c>
     </row>
     <row r="49" spans="1:2">
       <c r="A49" t="s">
-        <v>193</v>
+        <v>214</v>
       </c>
       <c r="B49">
-        <v>4865822.962046022</v>
+        <v>4645369.168728107</v>
       </c>
     </row>
     <row r="50" spans="1:2">
       <c r="A50" t="s">
-        <v>217</v>
+        <v>244</v>
       </c>
       <c r="B50">
-        <v>4202347.09816077</v>
+        <v>4169649.008487279</v>
       </c>
     </row>
     <row r="51" spans="1:2">
       <c r="A51" t="s">
-        <v>194</v>
+        <v>215</v>
       </c>
       <c r="B51">
         <v>4865822.962046022</v>
@@ -5786,10 +6778,138 @@
     </row>
     <row r="52" spans="1:2">
       <c r="A52" t="s">
+        <v>216</v>
+      </c>
+      <c r="B52">
+        <v>4416056.092930035</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2">
+      <c r="A53" t="s">
+        <v>245</v>
+      </c>
+      <c r="B53">
+        <v>4173025.781469109</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2">
+      <c r="A54" t="s">
+        <v>217</v>
+      </c>
+      <c r="B54">
+        <v>4865822.962046022</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2">
+      <c r="A55" t="s">
         <v>218</v>
       </c>
-      <c r="B52">
-        <v>4205313.902797125</v>
+      <c r="B55">
+        <v>4647379.598481401</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2">
+      <c r="A56" t="s">
+        <v>246</v>
+      </c>
+      <c r="B56">
+        <v>4176364.41761048</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2">
+      <c r="A57" t="s">
+        <v>219</v>
+      </c>
+      <c r="B57">
+        <v>4865822.962046022</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2">
+      <c r="A58" t="s">
+        <v>220</v>
+      </c>
+      <c r="B58">
+        <v>4420241.945999204</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2">
+      <c r="A59" t="s">
+        <v>247</v>
+      </c>
+      <c r="B59">
+        <v>4179668.383327221</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2">
+      <c r="A60" t="s">
+        <v>221</v>
+      </c>
+      <c r="B60">
+        <v>4865822.962046022</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2">
+      <c r="A61" t="s">
+        <v>222</v>
+      </c>
+      <c r="B61">
+        <v>4649349.139201025</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2">
+      <c r="A62" t="s">
+        <v>248</v>
+      </c>
+      <c r="B62">
+        <v>4182935.604321522</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2">
+      <c r="A63" t="s">
+        <v>223</v>
+      </c>
+      <c r="B63">
+        <v>4865822.962046022</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2">
+      <c r="A64" t="s">
+        <v>224</v>
+      </c>
+      <c r="B64">
+        <v>4424341.028821101</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2">
+      <c r="A65" t="s">
+        <v>249</v>
+      </c>
+      <c r="B65">
+        <v>4186169.152985218</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2">
+      <c r="A66" t="s">
+        <v>225</v>
+      </c>
+      <c r="B66">
+        <v>4865822.962046022</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2">
+      <c r="A67" t="s">
+        <v>226</v>
+      </c>
+      <c r="B67">
+        <v>4651279.543866448</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2">
+      <c r="A68" t="s">
+        <v>250</v>
+      </c>
+      <c r="B68">
+        <v>4189368.912780208</v>
       </c>
     </row>
   </sheetData>
@@ -5807,36 +6927,36 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="A1" s="2" t="s">
-        <v>235</v>
+        <v>267</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>236</v>
+        <v>268</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>237</v>
+        <v>269</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>238</v>
+        <v>270</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>239</v>
+        <v>271</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>240</v>
+        <v>272</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>241</v>
+        <v>273</v>
       </c>
     </row>
     <row r="2" spans="1:7">
       <c r="A2" t="s">
-        <v>178</v>
+        <v>198</v>
       </c>
       <c r="B2">
         <v>17.65832997587177</v>
       </c>
       <c r="C2">
-        <v>17.65832997587195</v>
+        <v>17.6583299758716</v>
       </c>
       <c r="D2">
         <v>65.15454188318284</v>
@@ -5845,21 +6965,21 @@
         <v>1150.5204</v>
       </c>
       <c r="F2">
-        <v>1150.520400000012</v>
+        <v>1150.520399999989</v>
       </c>
       <c r="G2">
-        <v>1.046198092062246E-12</v>
+        <v>-9.657213157497654E-13</v>
       </c>
     </row>
     <row r="3" spans="1:7">
       <c r="A3" t="s">
-        <v>218</v>
+        <v>250</v>
       </c>
       <c r="B3">
         <v>45.91165732334162</v>
       </c>
       <c r="C3">
-        <v>45.91165732334164</v>
+        <v>45.91165732334163</v>
       </c>
       <c r="D3">
         <v>65.15454188318284</v>
@@ -5871,18 +6991,18 @@
         <v>2991.353000000001</v>
       </c>
       <c r="G3">
-        <v>3.095260668792535E-14</v>
+        <v>1.547630334396267E-14</v>
       </c>
     </row>
     <row r="4" spans="1:7">
       <c r="A4" t="s">
-        <v>242</v>
+        <v>274</v>
       </c>
       <c r="B4">
         <v>35.31665995174353</v>
       </c>
       <c r="C4">
-        <v>35.31665995174355</v>
+        <v>35.31665995174353</v>
       </c>
       <c r="D4">
         <v>65.15454188318284</v>
@@ -5891,10 +7011,10 @@
         <v>2301.0408</v>
       </c>
       <c r="F4">
-        <v>2301.040800000001</v>
+        <v>2301.0408</v>
       </c>
       <c r="G4">
-        <v>4.023838815624023E-14</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
